--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BBAF9-70AB-47D6-A265-784270568B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20D8B5-8672-45D8-BE95-882BD7CA155E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14685" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23040" windowHeight="11292" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="510">
   <si>
     <t>UserName</t>
   </si>
@@ -917,9 +917,6 @@
     <t>Nice product to gift</t>
   </si>
   <si>
-    <t>Outdoor Kitchen,Food Jars</t>
-  </si>
-  <si>
     <t>Customize</t>
   </si>
   <si>
@@ -1028,9 +1025,6 @@
     <t>Gifts</t>
   </si>
   <si>
-    <t>Bottle Boots,Caps and Lids,Cleaning,Bottle Slings,Hydration Packs</t>
-  </si>
-  <si>
     <t>Halloween Shopping Guide</t>
   </si>
   <si>
@@ -1088,9 +1082,6 @@
     <t>travel Bottles</t>
   </si>
   <si>
-    <t>Exclusives,Limited Edition,New Arrivals,Best Sellers</t>
-  </si>
-  <si>
     <t>New Colors,Bottles &amp; Drinkware,Coolers &amp; Lunch Boxes,Kitchenware,Accessories,Featured</t>
   </si>
   <si>
@@ -1292,9 +1283,6 @@
     <t>Prod Image Button Link</t>
   </si>
   <si>
-    <t>Rewards,Blog,FAQ,Contact,Refer A Friend,Trade,Parks For All,U.S. Snowboard Team,Every Bottle Tells A Story</t>
-  </si>
-  <si>
     <t>prod collections</t>
   </si>
   <si>
@@ -1427,9 +1415,6 @@
     <t>Reef,Aloe,Trillium,Agave,Surf,Birch,Botanical Bliss,Pinks</t>
   </si>
   <si>
-    <t>Bottles,Cups &amp; Tumblers,Coffee &amp; Tea,Beer,Accessories</t>
-  </si>
-  <si>
     <t>MyHydro,Engraving</t>
   </si>
   <si>
@@ -1472,9 +1457,6 @@
     <t>Red,Orange,Yellow,Green,Blue,Purple,Pink,White,Black,Neutrals,Multicolor</t>
   </si>
   <si>
-    <t>Best Sellers,Dads &amp; Grads Gift Guide,Jelly Collection,Spring Style Guide,Summer Travel Guide</t>
-  </si>
-  <si>
     <t>New Colors,Limited Edition</t>
   </si>
   <si>
@@ -1515,9 +1497,6 @@
   </si>
   <si>
     <t>Jelly Collection,Fitness Collection,Kid,Micro Hydro,Spring Style Guide,Mini Collection,Cupholder Compatible,Engrave Your Faves</t>
-  </si>
-  <si>
-    <t>Lunch Boxes,Insulated Totes,Soft Coolers</t>
   </si>
   <si>
     <t>rgaddam@helenoftroy.com</t>
@@ -1586,6 +1565,30 @@
   </si>
   <si>
     <t>Our Story,Careersl,Group Customization,Pro Deal</t>
+  </si>
+  <si>
+    <t>24 oz,32 oz</t>
+  </si>
+  <si>
+    <t>Bottles,Cups &amp; Tumblers,Coffee &amp; Tea,Accessories</t>
+  </si>
+  <si>
+    <t>Insulated Totes,Soft Coolers</t>
+  </si>
+  <si>
+    <t>Food Jars</t>
+  </si>
+  <si>
+    <t>Bottle Boots,Caps and Lids,Cleaning</t>
+  </si>
+  <si>
+    <t>Our Story,Contact,Refill For Good,Every Bottle Tells A Story</t>
+  </si>
+  <si>
+    <t>Micro Hydro,Spring Style Guide,Fitness Collection</t>
+  </si>
+  <si>
+    <t>Exclusives,New Arrivals,Best Sellers</t>
   </si>
 </sst>
 </file>
@@ -1707,12 +1710,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -1722,6 +1719,11 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1764,7 +1766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1812,19 +1814,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2112,30 +2117,30 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2167,28 +2172,28 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -2254,7 +2259,7 @@
         <v>167</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>187</v>
@@ -2272,27 +2277,27 @@
         <v>209</v>
       </c>
       <c r="AT1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AU1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -2301,10 +2306,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2333,15 +2338,15 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2356,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2386,15 +2391,15 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2409,7 +2414,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2426,15 +2431,15 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2449,10 +2454,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2481,7 +2486,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2491,13 +2496,13 @@
         <v>23</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AB6">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -2506,26 +2511,26 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="7"/>
       <c r="AS7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="Z8" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="AB8">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2537,7 +2542,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -2546,11 +2551,11 @@
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
-      <c r="AD10" s="38">
+      <c r="AD10" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2578,24 +2583,24 @@
       <c r="AC12" t="s">
         <v>173</v>
       </c>
-      <c r="AD12" s="38">
+      <c r="AD12" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="AC13" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD13" s="38">
+        <v>318</v>
+      </c>
+      <c r="AD13" s="37">
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF13" t="s">
         <v>39</v>
@@ -2607,24 +2612,24 @@
         <v>1</v>
       </c>
       <c r="AU13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="AC14" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AC14" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -2667,7 +2672,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2688,10 +2693,10 @@
       </c>
       <c r="I18" s="2"/>
       <c r="AL18" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2704,7 +2709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2720,7 +2725,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2728,13 +2733,13 @@
         <v>45</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AB21">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2765,13 +2770,13 @@
         <v>47</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AB22">
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2779,13 +2784,13 @@
         <v>49</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AB23">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2818,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AB24">
         <v>123</v>
@@ -2827,7 +2832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2867,24 +2872,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2901,7 +2906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -2927,26 +2932,26 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
       <c r="AL30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
       <c r="AM31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>287</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -3033,7 +3038,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -3050,94 +3055,94 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="O38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P38" s="31" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>353</v>
+      </c>
+      <c r="R39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>356</v>
       </c>
-      <c r="R39" t="s">
+      <c r="L40" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>359</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="N40" s="29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>361</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>363</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="P42" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>366</v>
-      </c>
-      <c r="P42" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>203</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S43" t="s">
         <v>62</v>
@@ -3155,83 +3160,83 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P45" s="32" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P46" s="31" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>234</v>
       </c>
-      <c r="AT47" s="37" t="s">
+      <c r="AT47" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="39" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="AD48" s="39">
+      <c r="AD48" s="38">
         <v>1</v>
       </c>
-      <c r="AE48" s="39"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AE48" s="38"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P49" s="31" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3282,18 +3287,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3391,15 +3396,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3414,10 +3419,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3438,15 +3443,15 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3461,10 +3466,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3488,15 +3493,15 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3511,10 +3516,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3535,7 +3540,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3551,7 +3556,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -3563,7 +3568,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -3574,7 +3579,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>122</v>
       </c>
       <c r="W8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="X8" t="s">
         <v>39</v>
@@ -3596,7 +3601,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3609,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3655,7 +3660,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3669,7 +3674,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3711,7 +3716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3737,7 +3742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3763,7 +3768,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3821,12 +3826,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3897,15 +3902,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3920,10 +3925,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3944,7 +3949,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3960,15 +3965,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3991,7 +3996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -4032,20 +4037,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4134,15 +4139,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4157,10 +4162,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4182,7 +4187,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4198,7 +4203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -4218,13 +4223,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
       <c r="H5" s="2"/>
       <c r="U5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>122</v>
@@ -4234,10 +4239,10 @@
         <v>83</v>
       </c>
       <c r="AA5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -4264,7 +4269,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -4289,7 +4294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -4340,18 +4345,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>219</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X13" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4376,10 +4381,10 @@
         <v>39</v>
       </c>
       <c r="AB15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -4408,7 +4413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4433,7 +4438,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4447,7 +4452,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4461,7 +4466,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -4469,12 +4474,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>279</v>
@@ -4499,7 +4504,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4569,19 +4574,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4607,15 +4612,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4630,15 +4635,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4661,16 +4666,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4684,12 +4689,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>263</v>
@@ -4706,31 +4711,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA7450-0FE7-4C50-95DC-266117BAF81B}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" customWidth="1"/>
+    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>231</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>269</v>
@@ -4750,10 +4755,10 @@
         <v>268</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>234</v>
@@ -4762,7 +4767,7 @@
         <v>236</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>237</v>
@@ -4774,7 +4779,7 @@
         <v>255</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>256</v>
@@ -4783,18 +4788,18 @@
         <v>265</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4814,7 +4819,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>232</v>
       </c>
@@ -4824,7 +4829,7 @@
         <v>267</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>289</v>
+        <v>505</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>278</v>
@@ -4843,7 +4848,7 @@
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>234</v>
       </c>
@@ -4855,7 +4860,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>326</v>
+        <v>506</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4868,7 +4873,7 @@
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>235</v>
       </c>
@@ -4883,7 +4888,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="35"/>
       <c r="J5" s="25" t="s">
-        <v>346</v>
+        <v>509</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -4895,7 +4900,7 @@
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>238</v>
       </c>
@@ -4910,25 +4915,25 @@
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>240</v>
       </c>
@@ -4944,7 +4949,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="33" t="s">
-        <v>414</v>
+        <v>507</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -4953,7 +4958,7 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>264</v>
       </c>
@@ -4973,12 +4978,12 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>283</v>
       </c>
@@ -4986,7 +4991,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -5003,9 +5008,9 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5024,23 +5029,23 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -5055,20 +5060,20 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="41" t="s">
-        <v>474</v>
+      <c r="G12" s="40" t="s">
+        <v>508</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -5082,9 +5087,9 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5096,7 +5101,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -5107,9 +5112,9 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5121,7 +5126,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -5132,13 +5137,13 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -5157,9 +5162,9 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5171,7 +5176,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -5182,28 +5187,28 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q19" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5220,31 +5225,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" customWidth="1"/>
-    <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="24" width="30.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5264,13 +5269,13 @@
         <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>190</v>
@@ -5297,25 +5302,25 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>6</v>
@@ -5381,7 +5386,7 @@
         <v>167</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>187</v>
@@ -5396,38 +5401,38 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>272</v>
@@ -5436,7 +5441,7 @@
         <v>276</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -5466,12 +5471,12 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>276</v>
@@ -5484,29 +5489,29 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -5536,12 +5541,12 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>276</v>
@@ -5554,29 +5559,29 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -5606,12 +5611,12 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>276</v>
@@ -5624,29 +5629,29 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -5676,12 +5681,12 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>276</v>
@@ -5694,29 +5699,29 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -5746,12 +5751,12 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -5764,29 +5769,29 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -5816,12 +5821,12 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5836,10 +5841,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5857,12 +5862,12 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5877,10 +5882,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -5898,12 +5903,12 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>276</v>
@@ -5916,29 +5921,29 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -5968,9 +5973,9 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>272</v>
@@ -5992,10 +5997,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>272</v>
@@ -6012,16 +6017,16 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Z11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AB11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>59</v>
@@ -6029,15 +6034,15 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -6059,7 +6064,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -6088,15 +6093,15 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -6118,7 +6123,7 @@
         <v>15</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -6134,7 +6139,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6157,9 +6162,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6171,16 +6176,16 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="AF15" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG15" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="AH15">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -6199,7 +6204,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -6210,20 +6215,20 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="AI18" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AK18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL18" t="s">
         <v>39</v>
@@ -6232,92 +6237,92 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="AI19" s="30" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="AI20" s="30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="AI21" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AJ21" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="AI22" s="30" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AJ22" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="AI23" s="30" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AJ23" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="AI24" s="30" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="AI25" s="30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>122</v>
@@ -6326,33 +6331,33 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="AI26" s="30" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AJ26" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AL26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="AI27" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AJ27" s="5" t="s">
         <v>122</v>
@@ -6361,17 +6366,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J28" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="AI28" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>115</v>
@@ -6380,46 +6385,46 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="AI29" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AJ29" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AL29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="AI30" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>115</v>
       </c>
       <c r="AL30" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="AI31" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AJ31" s="5" t="s">
         <v>115</v>
@@ -6428,138 +6433,138 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="AI32" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AJ32" s="5" t="s">
         <v>115</v>
       </c>
       <c r="AL32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="AI33" s="30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AJ33" s="5" t="s">
         <v>115</v>
       </c>
       <c r="AL33" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="AI34" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="AI35" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="AI36" s="30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="AI37" s="30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AJ37" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="AI38" s="30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AJ38" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="AI39" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="AJ39" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL39" t="s">
         <v>407</v>
       </c>
-      <c r="AJ39" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="AI40" s="30" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AL40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6567,15 +6572,15 @@
         <v>179</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AL41" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6586,29 +6591,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H43" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I43" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P43" s="2"/>
       <c r="AI43" s="30"/>
       <c r="AJ43" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -6626,9 +6631,9 @@
       <c r="AI44" s="30"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J45" s="18"/>
       <c r="O45" s="2"/>
@@ -6639,12 +6644,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>219</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -6659,7 +6664,7 @@
       <c r="AI46" s="30"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -6678,7 +6683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -6702,7 +6707,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6715,7 +6720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6738,7 +6743,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6752,7 +6757,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6783,13 +6788,13 @@
         <v>47</v>
       </c>
       <c r="AG53" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AH53">
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6895,7 +6900,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6919,7 +6924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -6945,7 +6950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -6977,7 +6982,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>287</v>
       </c>
@@ -6991,9 +6996,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M62" t="s">
         <v>35</v>
@@ -7002,10 +7007,10 @@
         <v>67</v>
       </c>
       <c r="AU62" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -7022,7 +7027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -7039,90 +7044,90 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="S65" s="5"/>
       <c r="U65" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>353</v>
+      </c>
+      <c r="X66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>356</v>
       </c>
-      <c r="X66" t="s">
+      <c r="S67" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="T67" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>359</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="T67" s="29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>361</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O68" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>363</v>
       </c>
-      <c r="AU68" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>366</v>
-      </c>
       <c r="V69" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>203</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y70" t="s">
         <v>62</v>
@@ -7140,12 +7145,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7231,35 +7236,35 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7387,31 +7392,31 @@
         <v>118</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
@@ -7447,7 +7452,7 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -7460,55 +7465,55 @@
         <v>115</v>
       </c>
       <c r="W3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="X3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>250</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="U4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="2"/>
       <c r="N5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O5" t="s">
         <v>64</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -7621,10 +7626,10 @@
         <v>2024</v>
       </c>
       <c r="AS7" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -7682,7 +7687,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7743,7 +7748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -7751,12 +7756,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AK11" s="5" t="s">
         <v>286</v>
@@ -7765,10 +7770,10 @@
         <v>67</v>
       </c>
       <c r="AM11" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -7813,7 +7818,7 @@
       </c>
       <c r="AK12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -7828,19 +7833,19 @@
       </c>
       <c r="K13" s="15"/>
       <c r="U13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN13" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO13" t="s">
         <v>298</v>
       </c>
-      <c r="AO13" t="s">
-        <v>299</v>
-      </c>
       <c r="AP13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -7857,18 +7862,18 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -7876,7 +7881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -7890,7 +7895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -7905,7 +7910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -7954,12 +7959,12 @@
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8036,7 +8041,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8047,7 +8052,7 @@
         <v>262</v>
       </c>
       <c r="T2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -8066,25 +8071,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8185,7 +8190,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -8196,7 +8201,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
         <v>152</v>
@@ -8238,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -8271,7 +8276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -8282,7 +8287,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
         <v>152</v>
@@ -8303,7 +8308,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -8329,25 +8334,25 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8433,21 +8438,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -8456,10 +8461,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -8480,7 +8485,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8496,7 +8501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8509,13 +8514,13 @@
         <v>122</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -8528,7 +8533,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -8541,7 +8546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -8552,7 +8557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -8560,7 +8565,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -8568,7 +8573,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -8576,7 +8581,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -8595,7 +8600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -8606,7 +8611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -8621,7 +8626,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -8637,7 +8642,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -8664,7 +8669,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -8678,7 +8683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8694,16 +8699,16 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>203</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="23" t="s">
@@ -8713,25 +8718,25 @@
         <v>67</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K18" t="s">
+        <v>291</v>
+      </c>
+      <c r="L18" t="s">
         <v>292</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>293</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -8739,7 +8744,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -8762,7 +8767,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -8815,21 +8820,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF53EDC-31F8-48E9-83B2-56073048BB22}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -8864,40 +8869,40 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>247</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>249</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8913,19 +8918,19 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="35" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8990,21 +8995,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -9013,7 +9018,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9034,7 +9039,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9050,22 +9055,22 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>184</v>
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -9073,7 +9078,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -9081,12 +9086,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
       <c r="S7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>272</v>
@@ -9112,37 +9117,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9225,12 +9230,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9245,7 +9250,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
@@ -9266,7 +9271,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9282,7 +9287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -9294,7 +9299,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9312,7 +9317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9321,7 +9326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9333,7 +9338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -9359,7 +9364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -9370,7 +9375,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -9384,7 +9389,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20D8B5-8672-45D8-BE95-882BD7CA155E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFADCC4-661A-4E73-A256-BD4CEB268FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23040" windowHeight="11292" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="512">
   <si>
     <t>UserName</t>
   </si>
@@ -1590,14 +1590,20 @@
   <si>
     <t>Exclusives,New Arrivals,Best Sellers</t>
   </si>
+  <si>
+    <t>HFEMEA20OFF</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1771,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1804,7 +1810,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2113,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4711,7 +4717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA7450-0FE7-4C50-95DC-266117BAF81B}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -8330,8 +8336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8570,7 +8576,7 @@
         <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -8636,7 +8642,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="Z14" t="s">
         <v>266</v>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFADCC4-661A-4E73-A256-BD4CEB268FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD0717-512A-41C4-8AEA-EFBB4859A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="520">
   <si>
     <t>UserName</t>
   </si>
@@ -1595,6 +1595,30 @@
   </si>
   <si>
     <t>Delivery</t>
+  </si>
+  <si>
+    <t>93 York House</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>BD109ET</t>
+  </si>
+  <si>
+    <t>71 Worthy Street</t>
+  </si>
+  <si>
+    <t>Chorley</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>PR60NH</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -8336,8 +8360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8474,16 +8498,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>512</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>514</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>18</v>
+        <v>515</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -8659,16 +8683,16 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>516</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>65</v>
+        <v>518</v>
+      </c>
+      <c r="N15" t="s">
+        <v>519</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD0717-512A-41C4-8AEA-EFBB4859A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE4F6A2-975D-4BE7-81F0-D31C01CC7214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="522">
   <si>
     <t>UserName</t>
   </si>
@@ -1619,6 +1619,12 @@
   </si>
   <si>
     <t>PR60NH</t>
+  </si>
+  <si>
+    <t>oxobuyer@oxo.com</t>
+  </si>
+  <si>
+    <t>oxobuyer123</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2150,7 @@
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2351,16 +2357,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
-        <v>152</v>
+        <v>512</v>
       </c>
       <c r="T2" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
       <c r="V2" t="s">
-        <v>19</v>
+        <v>514</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>18</v>
+        <v>515</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2576,8 +2582,8 @@
       <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="J10" t="s">
-        <v>229</v>
+      <c r="J10" s="23" t="s">
+        <v>511</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2749,7 +2755,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="AJ20" t="s">
         <v>266</v>
@@ -8360,8 +8366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8646,11 +8652,11 @@
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>78</v>
+        <v>520</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE4F6A2-975D-4BE7-81F0-D31C01CC7214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F49BD9-ECE2-47F4-8AC6-23AFA6D4EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23040" windowHeight="11292" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1397,9 +1397,6 @@
     <t>CustomizeLinks</t>
   </si>
   <si>
-    <t>Track Your Order,Refer A Friend,Loyalty Program Terms and Conditions</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -1558,15 +1555,9 @@
     <t>gaddamramyasree0809+automation@gmail.com</t>
   </si>
   <si>
-    <t>Contact Us,Find a Store,FAQs,Track Your Order,Shipping &amp; Returns,Warranty</t>
-  </si>
-  <si>
     <t>Refill For Good,Corporate Responsibility</t>
   </si>
   <si>
-    <t>Our Story,Careersl,Group Customization,Pro Deal</t>
-  </si>
-  <si>
     <t>24 oz,32 oz</t>
   </si>
   <si>
@@ -1625,6 +1616,15 @@
   </si>
   <si>
     <t>oxobuyer123</t>
+  </si>
+  <si>
+    <t>Contact Us,Find a Store,Track Your Order</t>
+  </si>
+  <si>
+    <t>Our Story,Group Customization,Pro Deal</t>
+  </si>
+  <si>
+    <t>Track Your Order</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1632,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1807,7 +1807,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1840,7 +1840,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2313,7 +2313,7 @@
         <v>209</v>
       </c>
       <c r="AT1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AU1" t="s">
         <v>367</v>
@@ -2357,16 +2357,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>509</v>
+      </c>
+      <c r="T2" t="s">
+        <v>510</v>
+      </c>
+      <c r="V2" t="s">
+        <v>511</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="T2" t="s">
-        <v>513</v>
-      </c>
-      <c r="V2" t="s">
-        <v>514</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2379,10 +2379,10 @@
         <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2397,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2490,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2532,7 +2532,7 @@
         <v>23</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB6">
         <v>123</v>
@@ -2583,7 +2583,7 @@
         <v>156</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2653,16 +2653,16 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="AC14" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AD14" s="37"/>
       <c r="AE14" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="I18" s="2"/>
       <c r="AL18" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AJ20" t="s">
         <v>266</v>
@@ -2769,7 +2769,7 @@
         <v>45</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB21">
         <v>123</v>
@@ -2806,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB22">
         <v>1234</v>
@@ -2820,7 +2820,7 @@
         <v>49</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB23">
         <v>123</v>
@@ -2859,7 +2859,7 @@
         <v>23</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB24">
         <v>123</v>
@@ -2919,10 +2919,10 @@
         <v>337</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>153</v>
       </c>
       <c r="AL30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
@@ -3269,10 +3269,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>461</v>
+      </c>
+      <c r="P49" s="31" t="s">
         <v>462</v>
-      </c>
-      <c r="P49" s="31" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3437,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3455,10 +3455,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3484,10 +3484,10 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3502,10 +3502,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3534,10 +3534,10 @@
         <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3552,10 +3552,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3718,7 +3718,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3943,10 +3943,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3961,10 +3961,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4006,10 +4006,10 @@
         <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4180,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4198,10 +4198,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4653,10 +4653,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4730,7 +4730,7 @@
         <v>154</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>263</v>
@@ -4835,7 +4835,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4865,7 +4865,7 @@
         <v>267</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>278</v>
@@ -4896,7 +4896,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4924,7 +4924,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="35"/>
       <c r="J5" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -4985,7 +4985,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -5014,7 +5014,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
@@ -5027,7 +5027,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -5068,7 +5068,7 @@
         <v>290</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -5106,10 +5106,10 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="40" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -5225,26 +5225,26 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q19" t="s">
         <v>467</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>276</v>
@@ -5541,7 +5541,7 @@
         <v>437</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>276</v>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>276</v>
@@ -5611,7 +5611,7 @@
         <v>437</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>276</v>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>276</v>
@@ -5681,7 +5681,7 @@
         <v>437</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>276</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>276</v>
@@ -5751,7 +5751,7 @@
         <v>437</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>276</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -5821,7 +5821,7 @@
         <v>437</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>276</v>
@@ -5859,10 +5859,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5900,10 +5900,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5941,10 +5941,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>276</v>
@@ -5973,7 +5973,7 @@
         <v>437</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>276</v>
@@ -6824,7 +6824,7 @@
         <v>47</v>
       </c>
       <c r="AG53" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH53">
         <v>1234</v>
@@ -7797,7 +7797,7 @@
         <v>105</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AK11" s="5" t="s">
         <v>286</v>
@@ -7806,7 +7806,7 @@
         <v>67</v>
       </c>
       <c r="AM11" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -8366,7 +8366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -8504,16 +8504,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M2" t="s">
+        <v>511</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="L2" t="s">
-        <v>513</v>
-      </c>
-      <c r="M2" t="s">
-        <v>514</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -8606,7 +8606,7 @@
         <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -8652,11 +8652,11 @@
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
@@ -8672,7 +8672,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Z14" t="s">
         <v>266</v>
@@ -8689,16 +8689,16 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>513</v>
+      </c>
+      <c r="L15" t="s">
+        <v>514</v>
+      </c>
+      <c r="M15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" t="s">
         <v>516</v>
-      </c>
-      <c r="L15" t="s">
-        <v>517</v>
-      </c>
-      <c r="M15" t="s">
-        <v>518</v>
-      </c>
-      <c r="N15" t="s">
-        <v>519</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
@@ -8856,8 +8856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF53EDC-31F8-48E9-83B2-56073048BB22}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8910,7 +8910,7 @@
         <v>245</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -9271,7 +9271,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9286,7 +9286,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F49BD9-ECE2-47F4-8AC6-23AFA6D4EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15066802-68FC-4171-80C7-A8D59BC6D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23040" windowHeight="11292" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1632,8 +1632,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1807,7 +1807,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1840,7 +1840,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2149,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2636,10 +2636,10 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AF13" t="s">
-        <v>39</v>
+        <v>398</v>
       </c>
       <c r="AG13" t="s">
         <v>192</v>
@@ -8856,7 +8856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF53EDC-31F8-48E9-83B2-56073048BB22}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15066802-68FC-4171-80C7-A8D59BC6D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643B334-645D-48E2-8190-A1C720A3B16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="520">
   <si>
     <t>UserName</t>
   </si>
@@ -1511,12 +1511,6 @@
 https://mcloud-na-preprod.hydroflask.com/26-l-day-escape-tote?color=Peppercorn
 https://mcloud-na-preprod.hydroflask.com/contact-us
 https://mcloud-na-preprod.hydroflask.com/prodeal/application/index/</t>
-  </si>
-  <si>
-    <t>rgaddam+APITEST@helenoftroy.com</t>
-  </si>
-  <si>
-    <t>4001152559</t>
   </si>
   <si>
     <t>AccountDetails_TC6</t>
@@ -2149,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,16 +2351,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>507</v>
+      </c>
+      <c r="T2" t="s">
+        <v>508</v>
+      </c>
+      <c r="V2" t="s">
         <v>509</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="V2" t="s">
-        <v>511</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2379,10 +2373,10 @@
         <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2397,7 +2391,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2583,7 +2577,7 @@
         <v>156</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2755,7 +2749,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AJ20" t="s">
         <v>266</v>
@@ -2930,11 +2924,11 @@
         <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="I28" s="2"/>
       <c r="W28" s="5"/>
@@ -3437,10 +3431,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3455,10 +3449,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3484,10 +3478,10 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3502,10 +3496,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3534,10 +3528,10 @@
         <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3552,10 +3546,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3718,7 +3712,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3943,10 +3937,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3961,10 +3955,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4006,10 +4000,10 @@
         <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4180,10 +4174,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4198,10 +4192,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4653,10 +4647,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4835,7 +4829,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4865,7 +4859,7 @@
         <v>267</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>278</v>
@@ -4896,7 +4890,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4924,7 +4918,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="35"/>
       <c r="J5" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -4985,7 +4979,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -5027,7 +5021,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -5106,7 +5100,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="40" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>481</v>
@@ -5179,7 +5173,7 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -5512,7 +5506,7 @@
         <v>469</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>276</v>
@@ -5582,7 +5576,7 @@
         <v>471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>276</v>
@@ -5652,7 +5646,7 @@
         <v>472</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>276</v>
@@ -5722,7 +5716,7 @@
         <v>475</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>276</v>
@@ -5792,7 +5786,7 @@
         <v>479</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -5859,10 +5853,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5900,10 +5894,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5944,7 +5938,7 @@
         <v>477</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>276</v>
@@ -7268,8 +7262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7294,6 +7288,7 @@
     <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -7796,17 +7791,17 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="AJ11" s="5" t="s">
-        <v>485</v>
+      <c r="AJ11" s="5">
+        <v>43000000229</v>
       </c>
       <c r="AK11" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AL11" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="AM11" s="15" t="s">
-        <v>484</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -8366,8 +8361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8504,16 +8499,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L2" t="s">
+        <v>508</v>
+      </c>
+      <c r="M2" t="s">
         <v>509</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="M2" t="s">
-        <v>511</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -8606,7 +8601,7 @@
         <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -8652,11 +8647,11 @@
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
@@ -8672,7 +8667,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Z14" t="s">
         <v>266</v>
@@ -8689,16 +8684,16 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>511</v>
+      </c>
+      <c r="L15" t="s">
+        <v>512</v>
+      </c>
+      <c r="M15" t="s">
         <v>513</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>514</v>
-      </c>
-      <c r="M15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N15" t="s">
-        <v>516</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
@@ -8910,7 +8905,7 @@
         <v>245</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -8920,7 +8915,7 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -8929,7 +8924,7 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -8938,7 +8933,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9271,7 +9266,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9286,7 +9281,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643B334-645D-48E2-8190-A1C720A3B16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013465D-A40B-4E95-A602-20EC173700DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1626,10 +1626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1756,6 +1756,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1796,12 +1803,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1834,7 +1841,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1860,6 +1867,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2147,30 +2157,30 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="18" width="30.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2313,7 +2323,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2378,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>301</v>
       </c>
@@ -2421,7 +2431,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>370</v>
       </c>
@@ -2461,7 +2471,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>451</v>
       </c>
@@ -2516,7 +2526,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -2544,7 +2554,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>304</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2572,7 +2582,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -2604,7 +2614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2617,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2645,7 +2655,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>457</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -2678,7 +2688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -2691,7 +2701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -2702,7 +2712,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2769,7 +2779,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2820,7 +2830,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2862,7 +2872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2902,7 +2912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2919,7 +2929,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2936,7 +2946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -2962,7 +2972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -2981,7 +2991,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -3029,7 +3039,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -3037,7 +3047,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>287</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -3068,7 +3078,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -3085,7 +3095,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>349</v>
       </c>
@@ -3108,7 +3118,7 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>353</v>
       </c>
@@ -3116,7 +3126,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>356</v>
       </c>
@@ -3130,7 +3140,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -3147,7 +3157,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>374</v>
       </c>
@@ -3198,7 +3208,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>444</v>
       </c>
@@ -3206,7 +3216,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>445</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -3222,7 +3232,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>155</v>
       </c>
@@ -3261,7 +3271,7 @@
       </c>
       <c r="AE48" s="38"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>461</v>
       </c>
@@ -3317,18 +3327,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3426,7 +3436,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3483,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -3523,7 +3533,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -3570,7 +3580,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -3598,7 +3608,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -3609,7 +3619,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3631,7 +3641,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3644,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3660,7 +3670,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3704,7 +3714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3746,7 +3756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3772,7 +3782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3783,7 +3793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3798,7 +3808,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3856,12 +3866,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3932,7 +3942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3979,7 +3989,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3995,7 +4005,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -4026,7 +4036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -4067,20 +4077,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4217,7 +4227,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4233,7 +4243,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -4253,7 +4263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -4272,7 +4282,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -4291,7 +4301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -4299,7 +4309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -4307,7 +4317,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -4341,7 +4351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -4358,7 +4368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -4375,7 +4385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -4397,7 +4407,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4414,7 +4424,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -4443,7 +4453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4454,7 +4464,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4482,7 +4492,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -4504,7 +4514,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -4534,7 +4544,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4604,19 +4614,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4642,7 +4652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -4696,16 +4706,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4719,7 +4729,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4745,27 +4755,27 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" customWidth="1"/>
-    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.109375" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -4824,7 +4834,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>230</v>
       </c>
@@ -4849,7 +4859,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>232</v>
       </c>
@@ -4878,7 +4888,7 @@
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>234</v>
       </c>
@@ -4903,7 +4913,7 @@
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>235</v>
       </c>
@@ -4930,7 +4940,7 @@
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>238</v>
       </c>
@@ -4963,7 +4973,7 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>240</v>
       </c>
@@ -4988,7 +4998,7 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>264</v>
       </c>
@@ -5013,7 +5023,7 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>283</v>
       </c>
@@ -5038,7 +5048,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>289</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>325</v>
       </c>
@@ -5090,7 +5100,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>327</v>
       </c>
@@ -5117,7 +5127,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>328</v>
       </c>
@@ -5142,7 +5152,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>330</v>
       </c>
@@ -5167,7 +5177,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>343</v>
       </c>
@@ -5192,7 +5202,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>346</v>
       </c>
@@ -5217,7 +5227,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>464</v>
       </c>
@@ -5225,7 +5235,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>465</v>
       </c>
@@ -5233,7 +5243,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>466</v>
       </c>
@@ -5255,31 +5265,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="24" width="30.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="27" width="22.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="24" width="30.5703125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="27" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5431,7 +5441,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5501,7 +5511,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>469</v>
       </c>
@@ -5571,7 +5581,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -5641,7 +5651,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -5711,7 +5721,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>475</v>
       </c>
@@ -5781,7 +5791,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -5851,7 +5861,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -5892,7 +5902,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -5933,7 +5943,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>477</v>
       </c>
@@ -6003,7 +6013,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>417</v>
       </c>
@@ -6064,7 +6074,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>301</v>
       </c>
@@ -6123,7 +6133,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>370</v>
       </c>
@@ -6169,7 +6179,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -6215,7 +6225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -6234,7 +6244,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -6245,7 +6255,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6267,7 +6277,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -6280,7 +6290,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>379</v>
       </c>
@@ -6293,7 +6303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -6306,7 +6316,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>386</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>408</v>
       </c>
@@ -6332,7 +6342,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -6345,7 +6355,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -6361,7 +6371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>391</v>
       </c>
@@ -6377,7 +6387,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>412</v>
       </c>
@@ -6396,7 +6406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>416</v>
       </c>
@@ -6415,7 +6425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>393</v>
       </c>
@@ -6431,7 +6441,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>396</v>
       </c>
@@ -6447,7 +6457,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>422</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>423</v>
       </c>
@@ -6479,7 +6489,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>397</v>
       </c>
@@ -6495,7 +6505,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>400</v>
       </c>
@@ -6508,7 +6518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>414</v>
       </c>
@@ -6521,7 +6531,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>401</v>
       </c>
@@ -6534,7 +6544,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>435</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>409</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -6576,7 +6586,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>434</v>
       </c>
@@ -6592,7 +6602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>406</v>
       </c>
@@ -6608,7 +6618,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>413</v>
       </c>
@@ -6621,7 +6631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>426</v>
       </c>
@@ -6643,7 +6653,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -6661,7 +6671,7 @@
       <c r="AI44" s="30"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>425</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -6694,7 +6704,7 @@
       <c r="AI46" s="30"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -6713,7 +6723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -6726,7 +6736,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -6737,7 +6747,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6750,7 +6760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6773,7 +6783,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6787,7 +6797,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6824,7 +6834,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6838,7 +6848,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6880,7 +6890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6906,7 +6916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6930,7 +6940,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6954,7 +6964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -6980,7 +6990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -7012,7 +7022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>287</v>
       </c>
@@ -7026,7 +7036,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>384</v>
       </c>
@@ -7040,7 +7050,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -7057,7 +7067,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -7074,7 +7084,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>349</v>
       </c>
@@ -7096,7 +7106,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>353</v>
       </c>
@@ -7104,7 +7114,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>356</v>
       </c>
@@ -7115,7 +7125,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>358</v>
       </c>
@@ -7132,7 +7142,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>363</v>
       </c>
@@ -7140,7 +7150,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -7175,7 +7185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>374</v>
       </c>
@@ -7262,40 +7272,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7432,7 +7442,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7483,7 +7493,7 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -7502,7 +7512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -7515,7 +7525,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -7544,7 +7554,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -7593,7 +7603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -7660,7 +7670,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -7718,7 +7728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7779,7 +7789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -7787,7 +7797,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -7804,7 +7814,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -7849,7 +7859,7 @@
       </c>
       <c r="AK12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -7876,7 +7886,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -7893,7 +7903,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -7912,7 +7922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -7926,7 +7936,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -7941,7 +7951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -7986,16 +7996,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8072,12 +8083,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
-        <v>262</v>
+      <c r="R2" s="43" t="s">
+        <v>458</v>
       </c>
       <c r="S2" t="s">
         <v>262</v>
@@ -8102,25 +8113,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8221,7 +8232,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -8307,7 +8318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -8339,7 +8350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -8365,25 +8376,25 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8469,7 +8480,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8516,7 +8527,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8532,7 +8543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8551,7 +8562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -8564,7 +8575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -8577,7 +8588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -8588,7 +8599,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -8596,7 +8607,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -8604,7 +8615,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -8612,7 +8623,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -8642,7 +8653,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -8657,7 +8668,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -8673,7 +8684,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -8700,7 +8711,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -8714,7 +8725,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8730,7 +8741,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -8767,7 +8778,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -8775,7 +8786,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -8798,7 +8809,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -8855,17 +8866,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -8900,7 +8911,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>245</v>
       </c>
@@ -8909,7 +8920,7 @@
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>247</v>
       </c>
@@ -8918,7 +8929,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>249</v>
       </c>
@@ -8927,7 +8938,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>319</v>
       </c>
@@ -8949,19 +8960,19 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="35" customWidth="1"/>
-    <col min="21" max="21" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9026,7 +9037,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9070,7 +9081,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9086,7 +9097,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -9101,7 +9112,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -9109,7 +9120,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -9117,7 +9128,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -9148,37 +9159,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9261,7 +9272,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9302,7 +9313,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9318,7 +9329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -9330,7 +9341,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9348,7 +9359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9357,7 +9368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9369,7 +9380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -9395,7 +9406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -9406,7 +9417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -9420,7 +9431,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013465D-A40B-4E95-A602-20EC173700DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AD944-37A3-4739-A73D-E9E6BFA27514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="521">
   <si>
     <t>UserName</t>
   </si>
@@ -945,12 +945,6 @@
   </si>
   <si>
     <t>Good Product</t>
-  </si>
-  <si>
-    <t>Standard Mouth Flex Cap</t>
-  </si>
-  <si>
-    <t>Stainless Steel Straw Set</t>
   </si>
   <si>
     <t>New Account Details</t>
@@ -1619,6 +1613,15 @@
   </si>
   <si>
     <t>Track Your Order</t>
+  </si>
+  <si>
+    <t>Micro Hydro Mini Bottle</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>hfemealotus@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2212,28 +2215,28 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -2299,7 +2302,7 @@
         <v>167</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>187</v>
@@ -2317,10 +2320,10 @@
         <v>209</v>
       </c>
       <c r="AT1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AU1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -2328,16 +2331,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -2346,10 +2349,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2361,16 +2364,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>505</v>
+      </c>
+      <c r="T2" t="s">
+        <v>506</v>
+      </c>
+      <c r="V2" t="s">
         <v>507</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="V2" t="s">
-        <v>509</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2380,13 +2383,13 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2401,7 +2404,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2433,13 +2436,13 @@
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2454,7 +2457,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2473,13 +2476,13 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2494,10 +2497,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2536,7 +2539,7 @@
         <v>23</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB6">
         <v>123</v>
@@ -2551,20 +2554,20 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="7"/>
       <c r="AS7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="Z8" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB8">
         <v>123</v>
@@ -2587,7 +2590,7 @@
         <v>156</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2634,16 +2637,16 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="AC13" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD13" s="37">
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AF13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG13" t="s">
         <v>192</v>
@@ -2652,21 +2655,21 @@
         <v>1</v>
       </c>
       <c r="AU13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="AC14" s="39" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AD14" s="37"/>
       <c r="AE14" s="39" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2733,7 +2736,7 @@
       </c>
       <c r="I18" s="2"/>
       <c r="AL18" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
@@ -2759,7 +2762,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AJ20" t="s">
         <v>266</v>
@@ -2773,7 +2776,7 @@
         <v>45</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB21">
         <v>123</v>
@@ -2810,7 +2813,7 @@
         <v>47</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB22">
         <v>1234</v>
@@ -2824,7 +2827,7 @@
         <v>49</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB23">
         <v>123</v>
@@ -2863,7 +2866,7 @@
         <v>23</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB24">
         <v>123</v>
@@ -2917,16 +2920,16 @@
         <v>70</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
@@ -2934,11 +2937,11 @@
         <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I28" s="2"/>
       <c r="W28" s="5"/>
@@ -2977,7 +2980,7 @@
         <v>153</v>
       </c>
       <c r="AL30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
@@ -2985,10 +2988,10 @@
         <v>166</v>
       </c>
       <c r="AM31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
@@ -3097,72 +3100,72 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="O38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P38" s="31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>351</v>
+      </c>
+      <c r="R39" t="s">
         <v>353</v>
-      </c>
-      <c r="R39" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N40" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AO41" t="s">
         <v>359</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
@@ -3170,19 +3173,19 @@
         <v>203</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S43" t="s">
         <v>62</v>
@@ -3202,26 +3205,26 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>442</v>
+      </c>
+      <c r="P45" s="32" t="s">
         <v>444</v>
-      </c>
-      <c r="P45" s="32" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>443</v>
+      </c>
+      <c r="P46" s="31" t="s">
         <v>445</v>
-      </c>
-      <c r="P46" s="31" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
@@ -3273,10 +3276,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P49" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3441,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3459,10 +3462,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3488,10 +3491,10 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3506,10 +3509,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3538,10 +3541,10 @@
         <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3556,10 +3559,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3632,7 +3635,7 @@
         <v>122</v>
       </c>
       <c r="W8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="X8" t="s">
         <v>39</v>
@@ -3722,7 +3725,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3947,10 +3950,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3965,10 +3968,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4010,10 +4013,10 @@
         <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4184,10 +4187,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4202,10 +4205,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4269,7 +4272,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="U5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>122</v>
@@ -4279,7 +4282,7 @@
         <v>83</v>
       </c>
       <c r="AA5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
@@ -4390,7 +4393,7 @@
         <v>219</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X13" s="18" t="s">
         <v>83</v>
@@ -4421,7 +4424,7 @@
         <v>39</v>
       </c>
       <c r="AB15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -4519,7 +4522,7 @@
         <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>279</v>
@@ -4657,10 +4660,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4680,10 +4683,10 @@
         <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4734,7 +4737,7 @@
         <v>154</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>263</v>
@@ -4783,7 +4786,7 @@
         <v>231</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>269</v>
@@ -4795,10 +4798,10 @@
         <v>268</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>234</v>
@@ -4807,7 +4810,7 @@
         <v>236</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>237</v>
@@ -4819,7 +4822,7 @@
         <v>255</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>256</v>
@@ -4831,7 +4834,7 @@
         <v>289</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4839,7 +4842,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4869,7 +4872,7 @@
         <v>267</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>278</v>
@@ -4900,7 +4903,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4928,7 +4931,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="35"/>
       <c r="J5" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -4955,20 +4958,20 @@
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
@@ -4989,7 +4992,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -5018,7 +5021,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
@@ -5031,7 +5034,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -5072,12 +5075,12 @@
         <v>290</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5085,7 +5088,7 @@
       <c r="E11" s="41"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -5102,7 +5105,7 @@
     </row>
     <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5110,10 +5113,10 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -5129,7 +5132,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5141,7 +5144,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -5154,7 +5157,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5166,7 +5169,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -5179,11 +5182,11 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -5204,7 +5207,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5216,7 +5219,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -5229,26 +5232,26 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5309,13 +5312,13 @@
         <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>190</v>
@@ -5342,25 +5345,25 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>6</v>
@@ -5426,7 +5429,7 @@
         <v>167</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>187</v>
@@ -5446,33 +5449,33 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>272</v>
@@ -5481,7 +5484,7 @@
         <v>276</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -5513,10 +5516,10 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>276</v>
@@ -5529,29 +5532,29 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -5583,10 +5586,10 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>276</v>
@@ -5599,29 +5602,29 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -5653,10 +5656,10 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>276</v>
@@ -5669,29 +5672,29 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -5723,10 +5726,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>276</v>
@@ -5739,29 +5742,29 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -5793,10 +5796,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -5809,29 +5812,29 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5881,10 +5884,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5904,10 +5907,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5922,10 +5925,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -5945,10 +5948,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>276</v>
@@ -5961,29 +5964,29 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>276</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>272</v>
@@ -6037,10 +6040,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>272</v>
@@ -6057,16 +6060,16 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB11" t="s">
         <v>418</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AC11" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>59</v>
@@ -6076,13 +6079,13 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -6104,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -6135,13 +6138,13 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -6163,7 +6166,7 @@
         <v>15</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -6204,7 +6207,7 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6216,10 +6219,10 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="AF15" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG15" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AH15">
         <v>123</v>
@@ -6262,13 +6265,13 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="AI18" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AK18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AL18" t="s">
         <v>39</v>
@@ -6279,12 +6282,12 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="AI19" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>115</v>
@@ -6292,12 +6295,12 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="AI20" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>115</v>
@@ -6305,12 +6308,12 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="AI21" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AJ21" s="5" t="s">
         <v>115</v>
@@ -6318,12 +6321,12 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="AI22" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AJ22" s="5" t="s">
         <v>115</v>
@@ -6331,12 +6334,12 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="AI23" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AJ23" s="5" t="s">
         <v>122</v>
@@ -6344,12 +6347,12 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="AI24" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>122</v>
@@ -6357,12 +6360,12 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="AI25" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>122</v>
@@ -6373,31 +6376,31 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="AI26" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AJ26" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AL26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="AI27" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AJ27" s="5" t="s">
         <v>122</v>
@@ -6408,15 +6411,15 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="AI28" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>115</v>
@@ -6427,44 +6430,44 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="AI29" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AJ29" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AL29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="AI30" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>115</v>
       </c>
       <c r="AL30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="AI31" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AJ31" s="5" t="s">
         <v>115</v>
@@ -6475,44 +6478,44 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="AI32" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AJ32" s="5" t="s">
         <v>115</v>
       </c>
       <c r="AL32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="AI33" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AJ33" s="5" t="s">
         <v>115</v>
       </c>
       <c r="AL33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="AI34" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>115</v>
@@ -6520,12 +6523,12 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="AI35" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>122</v>
@@ -6533,25 +6536,25 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="AI36" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="AI37" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AJ37" s="5" t="s">
         <v>115</v>
@@ -6559,12 +6562,12 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="AI38" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AJ38" s="5" t="s">
         <v>122</v>
@@ -6572,31 +6575,31 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="AI39" s="30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="AI40" s="30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL40" t="s">
         <v>39</v>
@@ -6604,7 +6607,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6612,15 +6615,15 @@
         <v>179</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6633,24 +6636,24 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G43" t="s">
         <v>426</v>
       </c>
-      <c r="G43" t="s">
-        <v>428</v>
-      </c>
       <c r="H43" t="s">
+        <v>427</v>
+      </c>
+      <c r="I43" t="s">
         <v>429</v>
       </c>
-      <c r="I43" t="s">
-        <v>431</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P43" s="2"/>
       <c r="AI43" s="30"/>
       <c r="AJ43" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
@@ -6673,7 +6676,7 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J45" s="18"/>
       <c r="O45" s="2"/>
@@ -6689,7 +6692,7 @@
         <v>219</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -6828,7 +6831,7 @@
         <v>47</v>
       </c>
       <c r="AG53" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AH53">
         <v>1234</v>
@@ -7038,7 +7041,7 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M62" t="s">
         <v>35</v>
@@ -7047,7 +7050,7 @@
         <v>67</v>
       </c>
       <c r="AU62" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
@@ -7086,68 +7089,68 @@
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S65" s="5"/>
       <c r="U65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="X65" s="5"/>
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>351</v>
+      </c>
+      <c r="X66" t="s">
         <v>353</v>
-      </c>
-      <c r="X66" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T67" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
+        <v>357</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AU68" t="s">
         <v>359</v>
-      </c>
-      <c r="O68" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="AU68" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="V69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.25">
@@ -7155,19 +7158,19 @@
         <v>203</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Y70" t="s">
         <v>62</v>
@@ -7187,10 +7190,10 @@
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -7433,13 +7436,13 @@
         <v>118</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
@@ -7447,17 +7450,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
@@ -7506,7 +7509,7 @@
         <v>115</v>
       </c>
       <c r="W3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="X3" t="s">
         <v>39</v>
@@ -7519,7 +7522,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="U4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>122</v>
@@ -7530,26 +7533,26 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="2"/>
       <c r="N5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O5" t="s">
         <v>64</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -7667,7 +7670,7 @@
         <v>2024</v>
       </c>
       <c r="AS7" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -7811,7 +7814,7 @@
         <v>15</v>
       </c>
       <c r="AM11" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -7874,7 +7877,7 @@
       </c>
       <c r="K13" s="15"/>
       <c r="U13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN13" s="5" t="s">
         <v>297</v>
@@ -7908,13 +7911,13 @@
         <v>121</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -7996,7 +7999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -8088,13 +8091,13 @@
         <v>25</v>
       </c>
       <c r="R2" s="43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S2" t="s">
         <v>262</v>
       </c>
       <c r="T2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -8243,7 +8246,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H2" t="s">
         <v>152</v>
@@ -8285,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -8329,7 +8332,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H3" t="s">
         <v>152</v>
@@ -8485,16 +8488,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -8503,23 +8506,23 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L2" t="s">
+        <v>506</v>
+      </c>
+      <c r="M2" t="s">
         <v>507</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="M2" t="s">
-        <v>509</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -8556,7 +8559,7 @@
         <v>122</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>39</v>
@@ -8612,7 +8615,7 @@
         <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -8658,11 +8661,11 @@
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
@@ -8678,7 +8681,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Z14" t="s">
         <v>266</v>
@@ -8695,16 +8698,16 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>509</v>
+      </c>
+      <c r="L15" t="s">
+        <v>510</v>
+      </c>
+      <c r="M15" t="s">
         <v>511</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>512</v>
-      </c>
-      <c r="M15" t="s">
-        <v>513</v>
-      </c>
-      <c r="N15" t="s">
-        <v>514</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
@@ -8746,11 +8749,11 @@
         <v>203</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="23" t="s">
@@ -8760,7 +8763,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K18" t="s">
         <v>291</v>
@@ -8916,7 +8919,7 @@
         <v>245</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -8926,7 +8929,7 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -8935,16 +8938,16 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -8954,10 +8957,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACADB97-3AA8-40BF-AE7E-787123A27C76}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8966,13 +8969,14 @@
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="35" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9034,24 +9038,27 @@
         <v>207</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -9060,7 +9067,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9081,7 +9088,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9097,22 +9104,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>184</v>
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
-        <v>300</v>
+        <v>518</v>
       </c>
       <c r="T4" t="s">
-        <v>299</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -9120,7 +9130,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -9128,24 +9138,32 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
       <c r="S7" t="s">
-        <v>300</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>272</v>
+        <v>518</v>
+      </c>
+      <c r="T7" t="s">
+        <v>518</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{BC556E05-D67A-4B5E-8A8A-6681BB4AFE36}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{4DE5E959-D641-4DB1-8E90-0379B49E61C1}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{6B50D146-9525-49B7-BAA8-45110D304F16}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{01BF6132-1108-4507-98ED-5E3AC75BF469}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{DB898D07-8F6C-484B-AD2F-9417615FA627}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{F672F20E-5BBA-40E2-AFF7-45FCA04B6572}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{C6AA58B7-9310-4C46-B7C8-903681268F4D}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{73153911-C035-4933-99E3-E106AA0826BE}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{CAF3A614-0BB7-48CF-84A3-5DB685CCA113}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{E96CC0FE-0EBF-4B2B-B8F2-9A8ED7E25987}"/>
+    <hyperlink ref="V4" r:id="rId6" xr:uid="{641BC70C-849B-404A-B40C-16E028D0E570}"/>
+    <hyperlink ref="V7" r:id="rId7" xr:uid="{7008C43B-56CB-4860-869E-A1C00795609B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9277,7 +9295,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9292,7 +9310,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AD944-37A3-4739-A73D-E9E6BFA27514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5BC852-7CB1-4CEA-BEF8-09FEFF64182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="525">
   <si>
     <t>UserName</t>
   </si>
@@ -1623,14 +1623,26 @@
   <si>
     <t>hfemealotus@gmail.com</t>
   </si>
+  <si>
+    <t>93/5 Morrison Street</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Midlothian</t>
+  </si>
+  <si>
+    <t>EH3 8BX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1811,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1844,7 +1856,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2156,34 +2168,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2381,7 +2393,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -2417,16 +2429,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>505</v>
       </c>
       <c r="T3" t="s">
-        <v>17</v>
+        <v>506</v>
       </c>
       <c r="V3" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>18</v>
+        <v>508</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2434,7 +2446,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>368</v>
       </c>
@@ -2474,7 +2486,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>449</v>
       </c>
@@ -2512,16 +2524,16 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" t="s">
-        <v>152</v>
+        <v>505</v>
       </c>
       <c r="T5" t="s">
-        <v>17</v>
+        <v>506</v>
       </c>
       <c r="V5" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>18</v>
+        <v>508</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>59</v>
@@ -2529,7 +2541,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>302</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2585,7 +2597,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -2691,7 +2703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -2715,7 +2727,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2739,7 +2751,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2782,7 +2794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2819,7 +2831,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2889,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2900,22 +2912,25 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="T26" t="s">
-        <v>63</v>
+        <v>523</v>
+      </c>
+      <c r="U26" t="s">
+        <v>511</v>
       </c>
       <c r="V26" t="s">
-        <v>64</v>
+        <v>522</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>65</v>
+        <v>524</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2932,7 +2947,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -2960,22 +2975,25 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="T29" t="s">
-        <v>63</v>
+        <v>523</v>
+      </c>
+      <c r="U29" t="s">
+        <v>511</v>
       </c>
       <c r="V29" t="s">
-        <v>64</v>
+        <v>522</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>65</v>
+        <v>524</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -3015,19 +3033,25 @@
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="T32" t="s">
-        <v>63</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>110</v>
+        <v>523</v>
+      </c>
+      <c r="U32" t="s">
+        <v>511</v>
       </c>
       <c r="V32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -3042,7 +3066,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -3050,7 +3074,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>287</v>
       </c>
@@ -3064,7 +3088,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -3081,7 +3105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -3098,7 +3122,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -3121,7 +3145,7 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>351</v>
       </c>
@@ -3129,7 +3153,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>354</v>
       </c>
@@ -3143,7 +3167,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>356</v>
       </c>
@@ -3160,7 +3184,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>361</v>
       </c>
@@ -3168,7 +3192,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -3203,7 +3227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -3211,7 +3235,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>442</v>
       </c>
@@ -3219,7 +3243,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>443</v>
       </c>
@@ -3227,7 +3251,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -3235,7 +3259,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>155</v>
       </c>
@@ -3274,7 +3298,7 @@
       </c>
       <c r="AE48" s="38"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>459</v>
       </c>
@@ -3330,18 +3354,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3439,7 +3463,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3486,7 +3510,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -3536,7 +3560,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -3583,7 +3607,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3599,7 +3623,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -3611,7 +3635,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -3622,7 +3646,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3644,7 +3668,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3657,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3673,7 +3697,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3687,7 +3711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3703,7 +3727,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3717,7 +3741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3759,7 +3783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3785,7 +3809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3796,7 +3820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3811,7 +3835,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3869,12 +3893,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3945,7 +3969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3992,7 +4016,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4008,7 +4032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -4039,7 +4063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -4047,7 +4071,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -4080,20 +4104,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4182,7 +4206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4254,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4246,7 +4270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -4266,7 +4290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -4285,7 +4309,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -4304,7 +4328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -4312,7 +4336,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -4320,7 +4344,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -4337,7 +4361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -4354,7 +4378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -4371,7 +4395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -4388,7 +4412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -4399,7 +4423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -4410,7 +4434,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4427,7 +4451,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -4456,7 +4480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4467,7 +4491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4481,7 +4505,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4495,7 +4519,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4509,7 +4533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -4517,7 +4541,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -4547,7 +4571,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4617,19 +4641,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4655,7 +4679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -4709,16 +4733,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4732,7 +4756,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4758,27 +4782,27 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" customWidth="1"/>
+    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +4861,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>230</v>
       </c>
@@ -4862,7 +4886,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>232</v>
       </c>
@@ -4891,7 +4915,7 @@
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>234</v>
       </c>
@@ -4916,7 +4940,7 @@
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>235</v>
       </c>
@@ -4943,7 +4967,7 @@
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>238</v>
       </c>
@@ -4976,7 +5000,7 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>240</v>
       </c>
@@ -5001,7 +5025,7 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>264</v>
       </c>
@@ -5026,7 +5050,7 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>283</v>
       </c>
@@ -5051,7 +5075,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>289</v>
       </c>
@@ -5078,7 +5102,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>323</v>
       </c>
@@ -5103,7 +5127,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>325</v>
       </c>
@@ -5130,7 +5154,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>326</v>
       </c>
@@ -5155,7 +5179,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>328</v>
       </c>
@@ -5180,7 +5204,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>341</v>
       </c>
@@ -5205,7 +5229,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>344</v>
       </c>
@@ -5230,7 +5254,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>462</v>
       </c>
@@ -5238,7 +5262,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>463</v>
       </c>
@@ -5246,7 +5270,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>464</v>
       </c>
@@ -5268,31 +5292,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" customWidth="1"/>
-    <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="24" width="30.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5444,7 +5468,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5514,7 +5538,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -5584,7 +5608,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -5654,7 +5678,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>470</v>
       </c>
@@ -5724,7 +5748,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>473</v>
       </c>
@@ -5794,7 +5818,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>477</v>
       </c>
@@ -5864,7 +5888,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -5905,7 +5929,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>483</v>
       </c>
@@ -5946,7 +5970,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>475</v>
       </c>
@@ -6016,7 +6040,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -6077,7 +6101,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>299</v>
       </c>
@@ -6136,7 +6160,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>368</v>
       </c>
@@ -6182,7 +6206,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6205,7 +6229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -6228,7 +6252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -6247,7 +6271,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -6258,7 +6282,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6280,7 +6304,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>375</v>
       </c>
@@ -6293,7 +6317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>377</v>
       </c>
@@ -6306,7 +6330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -6319,7 +6343,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>384</v>
       </c>
@@ -6332,7 +6356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>406</v>
       </c>
@@ -6345,7 +6369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -6358,7 +6382,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>387</v>
       </c>
@@ -6374,7 +6398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>389</v>
       </c>
@@ -6390,7 +6414,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>410</v>
       </c>
@@ -6409,7 +6433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>414</v>
       </c>
@@ -6428,7 +6452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>391</v>
       </c>
@@ -6444,7 +6468,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>394</v>
       </c>
@@ -6460,7 +6484,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>420</v>
       </c>
@@ -6476,7 +6500,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>421</v>
       </c>
@@ -6492,7 +6516,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>395</v>
       </c>
@@ -6508,7 +6532,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>398</v>
       </c>
@@ -6521,7 +6545,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>412</v>
       </c>
@@ -6534,7 +6558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -6547,7 +6571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>433</v>
       </c>
@@ -6560,7 +6584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -6573,7 +6597,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -6589,7 +6613,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -6605,7 +6629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>404</v>
       </c>
@@ -6621,7 +6645,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>411</v>
       </c>
@@ -6634,7 +6658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>424</v>
       </c>
@@ -6656,7 +6680,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -6674,7 +6698,7 @@
       <c r="AI44" s="30"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>423</v>
       </c>
@@ -6687,7 +6711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -6707,7 +6731,7 @@
       <c r="AI46" s="30"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -6726,7 +6750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -6739,7 +6763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -6750,7 +6774,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6763,7 +6787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6786,7 +6810,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6800,7 +6824,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6837,7 +6861,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6851,7 +6875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6893,7 +6917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6919,7 +6943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6943,7 +6967,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6967,7 +6991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -6993,7 +7017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -7025,7 +7049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>287</v>
       </c>
@@ -7039,7 +7063,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>382</v>
       </c>
@@ -7053,7 +7077,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -7070,7 +7094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -7087,7 +7111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>347</v>
       </c>
@@ -7109,7 +7133,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>351</v>
       </c>
@@ -7117,7 +7141,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>354</v>
       </c>
@@ -7128,7 +7152,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>356</v>
       </c>
@@ -7145,7 +7169,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>361</v>
       </c>
@@ -7153,7 +7177,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -7188,7 +7212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -7279,36 +7303,36 @@
       <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7445,7 +7469,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7496,7 +7520,7 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -7515,7 +7539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -7528,7 +7552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -7557,7 +7581,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -7606,7 +7630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -7673,7 +7697,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -7731,7 +7755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7792,7 +7816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -7800,7 +7824,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -7817,7 +7841,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -7862,7 +7886,7 @@
       </c>
       <c r="AK12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -7889,7 +7913,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -7906,7 +7930,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -7925,7 +7949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -7939,7 +7963,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -7954,7 +7978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -8003,13 +8027,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8086,7 +8110,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8116,25 +8140,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8235,7 +8259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -8321,7 +8345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -8353,7 +8377,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -8379,25 +8403,25 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8483,7 +8507,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8530,7 +8554,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8546,7 +8570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8565,7 +8589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -8578,7 +8602,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -8591,7 +8615,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -8602,7 +8626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -8610,7 +8634,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -8618,7 +8642,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -8626,7 +8650,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -8645,7 +8669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -8656,7 +8680,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -8671,7 +8695,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -8687,7 +8711,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -8714,7 +8738,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -8728,7 +8752,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8744,7 +8768,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -8781,7 +8805,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -8789,7 +8813,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -8812,7 +8836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -8869,17 +8893,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -8914,7 +8938,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>245</v>
       </c>
@@ -8923,7 +8947,7 @@
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>247</v>
       </c>
@@ -8932,7 +8956,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>249</v>
       </c>
@@ -8941,7 +8965,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>317</v>
       </c>
@@ -8959,24 +8983,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACADB97-3AA8-40BF-AE7E-787123A27C76}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9044,7 +9068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9088,7 +9112,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9104,7 +9128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -9122,7 +9146,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -9130,7 +9154,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -9138,7 +9162,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -9177,37 +9201,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9290,7 +9314,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9331,7 +9355,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9347,7 +9371,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -9359,7 +9383,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9377,7 +9401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9386,7 +9410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9398,7 +9422,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -9424,7 +9448,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -9435,7 +9459,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -9449,7 +9473,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5BC852-7CB1-4CEA-BEF8-09FEFF64182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5B38A-F9C6-4F26-B7B2-A30DFEE0111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1641,8 +1641,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1823,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1856,7 +1856,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2168,34 +2168,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S5" sqref="S5:X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="18" width="30.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>368</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>449</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>302</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>287</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>351</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>354</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>356</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>361</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>442</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>443</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>155</v>
       </c>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AE48" s="38"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>459</v>
       </c>
@@ -3354,18 +3354,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3893,12 +3893,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -4104,20 +4104,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4641,19 +4641,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -4733,16 +4733,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4782,27 +4782,27 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" customWidth="1"/>
-    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.109375" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>230</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>232</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>234</v>
       </c>
@@ -4940,7 +4940,7 @@
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>235</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>238</v>
       </c>
@@ -5000,7 +5000,7 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>240</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>264</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>283</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>289</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>323</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>325</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>326</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>328</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>341</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>344</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>462</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>463</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>464</v>
       </c>
@@ -5292,31 +5292,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="24" width="30.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="27" width="22.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="24" width="30.5703125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="27" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5538,7 +5538,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -5678,7 +5678,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>470</v>
       </c>
@@ -5748,7 +5748,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>473</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>477</v>
       </c>
@@ -5888,7 +5888,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>483</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>475</v>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -6101,7 +6101,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>299</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>368</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -6271,7 +6271,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>375</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>377</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>384</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>406</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>387</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>389</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>410</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>414</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>391</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>394</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>420</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>421</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>395</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>398</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>412</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>433</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>404</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>411</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>424</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="AI44" s="30"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>423</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -6731,7 +6731,7 @@
       <c r="AI46" s="30"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>287</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>382</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>347</v>
       </c>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>351</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>354</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>356</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>361</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -7303,36 +7303,36 @@
       <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="AK12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -8027,13 +8027,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8140,25 +8140,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -8403,25 +8403,25 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -8893,17 +8893,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -8938,7 +8938,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>245</v>
       </c>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>247</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>249</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>317</v>
       </c>
@@ -8983,24 +8983,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACADB97-3AA8-40BF-AE7E-787123A27C76}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9068,21 +9068,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -9091,7 +9091,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9112,7 +9112,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -9181,13 +9181,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{F672F20E-5BBA-40E2-AFF7-45FCA04B6572}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{C6AA58B7-9310-4C46-B7C8-903681268F4D}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{73153911-C035-4933-99E3-E106AA0826BE}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{CAF3A614-0BB7-48CF-84A3-5DB685CCA113}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{E96CC0FE-0EBF-4B2B-B8F2-9A8ED7E25987}"/>
-    <hyperlink ref="V4" r:id="rId6" xr:uid="{641BC70C-849B-404A-B40C-16E028D0E570}"/>
-    <hyperlink ref="V7" r:id="rId7" xr:uid="{7008C43B-56CB-4860-869E-A1C00795609B}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BB94579F-37A2-43C0-A153-42BF38524CE0}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{9E532A61-7689-4A4A-898C-BE7E9CB6215A}"/>
+    <hyperlink ref="V4" r:id="rId3" xr:uid="{EA733312-6E6E-4953-8ABD-93D9E78E2DFC}"/>
+    <hyperlink ref="V7" r:id="rId4" xr:uid="{E7C00755-F92C-460C-AD6C-18F45A7CA941}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9201,37 +9198,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9314,7 +9311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9355,7 +9352,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9371,7 +9368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -9383,7 +9380,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9401,7 +9398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9410,7 +9407,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9422,7 +9419,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -9448,7 +9445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -9459,7 +9456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -9473,7 +9470,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5B38A-F9C6-4F26-B7B2-A30DFEE0111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C62011-F681-4B4D-94CE-A19CEF1B6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:X5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,16 +2343,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -2361,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -8983,8 +8983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACADB97-3AA8-40BF-AE7E-787123A27C76}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9185,6 +9185,7 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{9E532A61-7689-4A4A-898C-BE7E9CB6215A}"/>
     <hyperlink ref="V4" r:id="rId3" xr:uid="{EA733312-6E6E-4953-8ABD-93D9E78E2DFC}"/>
     <hyperlink ref="V7" r:id="rId4" xr:uid="{E7C00755-F92C-460C-AD6C-18F45A7CA941}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{EC234BB6-B8A0-428F-A79F-DB551F24AFC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C62011-F681-4B4D-94CE-A19CEF1B6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9EF60-D768-48E4-B00F-91AC1282F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="518">
   <si>
     <t>UserName</t>
   </si>
@@ -343,12 +343,6 @@
   </si>
   <si>
     <t>Congratulations</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>qatesting.lotuswave+1@gmail.com</t>
   </si>
   <si>
     <t>GustUserOrderdetails</t>
@@ -908,9 +902,6 @@
     <t>Kids Collection</t>
   </si>
   <si>
-    <t>3000146837</t>
-  </si>
-  <si>
     <t>GiftMessage</t>
   </si>
   <si>
@@ -941,9 +932,6 @@
     <t>lorem ipsum dolor sit amet, consectetur adipiscing elit. Aliquam ullamcorper vehicula porta. Praesent sed nisl ante. Morbi ut efficitur metus, a consectetur neque. Ut ac hendrerit felis, vel vehicula tellus. Proin faucibus eget nulla euismod cursus. Maecenas quis est enim. Quisque dignissim arcu in magna finibus sodales. Aenean augue ante, vestibulum ac mattis sit amet, luctus ac erat. Phasellus nec felis dolor. Quisque congue dolor vel gravida aliquet. Nunc placerat sed nisl vitae consequat. Cras sed augue ac neque rutrum aliquam quis venenatis ipsum. Quisque lobortis, diam quis sollicitudin dignissim, tellus massa interdum lorem, vitae laoreet erat risus nec purus.</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Good Product</t>
   </si>
   <si>
@@ -1067,12 +1055,6 @@
     <t>%4fg</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>travel Bottles</t>
   </si>
   <si>
@@ -1083,9 +1065,6 @@
   </si>
   <si>
     <t>Holiday Sale</t>
-  </si>
-  <si>
-    <t>hydroflaskemea978@gmail.com</t>
   </si>
   <si>
     <t>21 oz Standard Mouth</t>
@@ -1641,8 +1620,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1684,12 +1663,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1778,6 +1751,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4472C4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1818,22 +1797,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1850,41 +1826,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2168,34 +2146,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2203,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2221,34 +2199,34 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -2257,7 +2235,7 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>12</v>
@@ -2293,7 +2271,7 @@
         <v>38</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>41</v>
@@ -2302,51 +2280,51 @@
         <v>42</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AT1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AU1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2361,10 +2339,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2376,16 +2354,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="T2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="V2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2393,15 +2371,15 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2416,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2429,16 +2407,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="T3" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="V3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2446,15 +2424,15 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2469,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2486,15 +2464,15 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2509,10 +2487,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2524,16 +2502,16 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="T5" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="V5" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>59</v>
@@ -2541,7 +2519,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2551,183 +2529,183 @@
         <v>23</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AB6">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="7"/>
       <c r="AS7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="Z8" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AB8">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="J9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>504</v>
+        <v>154</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>497</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
-      <c r="AD10" s="37">
+      <c r="AD10" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="4"/>
       <c r="AC11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="4"/>
       <c r="AC12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD12" s="37">
+        <v>171</v>
+      </c>
+      <c r="AD12" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="AC13" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD13" s="37">
+      <c r="AC13" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD13" s="34">
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AF13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AG13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AU13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="AC14" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="39" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AC14" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="AC15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="AC16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="AD17" s="5"/>
       <c r="AF17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2747,24 +2725,24 @@
         <v>32</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="AL18" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AL18" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="AD19" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AH19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2774,13 +2752,13 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AJ20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2788,13 +2766,13 @@
         <v>45</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AB21">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2807,7 +2785,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="S22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T22" t="s">
         <v>17</v>
@@ -2825,13 +2803,13 @@
         <v>47</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AB22">
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2839,13 +2817,13 @@
         <v>49</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AB23">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2857,7 +2835,7 @@
       </c>
       <c r="I24" s="2"/>
       <c r="S24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T24" t="s">
         <v>17</v>
@@ -2878,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AB24">
         <v>123</v>
@@ -2887,7 +2865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2901,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2912,51 +2890,51 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="T26" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U26" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="V26" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>335</v>
+      <c r="D27" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I28" s="2"/>
       <c r="W28" s="5"/>
@@ -2964,9 +2942,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -2975,108 +2953,108 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="T29" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U29" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="V29" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AL30" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>166</v>
       </c>
-      <c r="AM31" t="s">
-        <v>301</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>168</v>
-      </c>
       <c r="F32" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
       <c r="S32" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="T32" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U32" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="V32" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="AC33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO33" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="15"/>
-      <c r="AC33" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AO34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
@@ -3085,18 +3063,18 @@
         <v>14</v>
       </c>
       <c r="AO35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AC36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF36" t="s">
         <v>39</v>
@@ -3105,9 +3083,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s">
         <v>39</v>
@@ -3116,100 +3094,100 @@
         <v>83</v>
       </c>
       <c r="AQ37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AR37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="O38" t="s">
+        <v>342</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="R39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>349</v>
-      </c>
-      <c r="P38" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>351</v>
-      </c>
-      <c r="R39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>354</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="N40" s="29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>356</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>357</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>358</v>
+        <v>350</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="AO41" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="P42" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>309</v>
+        <v>201</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>357</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>310</v>
+        <v>350</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="S43" t="s">
         <v>62</v>
@@ -3227,83 +3205,83 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>442</v>
-      </c>
-      <c r="P45" s="32" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>443</v>
-      </c>
-      <c r="P46" s="31" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT47" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD48" s="38">
+        <v>232</v>
+      </c>
+      <c r="AT47" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD48" s="35">
         <v>1</v>
       </c>
-      <c r="AE48" s="38"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AE48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>459</v>
-      </c>
-      <c r="P49" s="31" t="s">
-        <v>460</v>
+        <v>452</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3354,18 +3332,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3373,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3391,7 +3369,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -3403,7 +3381,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -3439,7 +3417,7 @@
         <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>41</v>
@@ -3448,30 +3426,30 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3486,14 +3464,14 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -3510,15 +3488,15 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3533,26 +3511,26 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>59</v>
@@ -3560,15 +3538,15 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3583,23 +3561,23 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N4" t="s">
         <v>197</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="N4" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>59</v>
@@ -3607,7 +3585,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3623,65 +3601,65 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="J6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="U8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="X8" t="s">
         <v>39</v>
       </c>
       <c r="Y8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="V9" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Z9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3691,13 +3669,13 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="AA10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3711,7 +3689,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3727,7 +3705,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3741,7 +3719,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3727,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3783,7 +3761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3809,7 +3787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3820,7 +3798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3835,9 +3813,9 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -3893,12 +3871,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3906,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3924,7 +3902,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -3963,21 +3941,21 @@
         <v>41</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3992,23 +3970,23 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M2" t="s">
         <v>64</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -4016,7 +3994,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4032,15 +4010,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4051,10 +4029,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="T4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V4" t="s">
         <v>83</v>
@@ -4063,20 +4041,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4104,20 +4082,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4125,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4143,7 +4121,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -4155,7 +4133,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -4185,16 +4163,16 @@
         <v>41</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>38</v>
@@ -4206,15 +4184,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4229,10 +4207,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4254,7 +4232,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4270,17 +4248,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="U4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W4" s="5"/>
       <c r="X4" t="s">
@@ -4290,188 +4268,188 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H5" s="2"/>
       <c r="U5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W5" s="5"/>
       <c r="X5" t="s">
         <v>83</v>
       </c>
       <c r="AA5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H6" s="2"/>
       <c r="U6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W6" s="5"/>
-      <c r="X6" s="18" t="s">
-        <v>225</v>
+      <c r="X6" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="AA6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>226</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="Y9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AA9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X10" t="s">
         <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AA10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X11" t="s">
         <v>83</v>
       </c>
       <c r="Y11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>228</v>
-      </c>
-      <c r="X12" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="Y12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>219</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="X13" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="X13" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>258</v>
+        <v>153</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="U15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="s">
         <v>39</v>
       </c>
       <c r="AB15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X16" t="s">
         <v>83</v>
@@ -4480,7 +4458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4491,7 +4469,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4505,7 +4483,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4519,7 +4497,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4533,23 +4511,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K22" t="s">
         <v>62</v>
@@ -4558,7 +4536,7 @@
         <v>63</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N22" t="s">
         <v>64</v>
@@ -4571,7 +4549,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4582,13 +4560,13 @@
         <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N23" t="s">
         <v>19</v>
@@ -4641,19 +4619,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4661,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4670,24 +4648,24 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4702,15 +4680,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4733,38 +4711,38 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>263</v>
+        <v>152</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="D2" s="9"/>
       <c r="F2" s="2"/>
@@ -4782,500 +4760,500 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" customWidth="1"/>
+    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="F1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="40" t="s">
-        <v>501</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>462</v>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>463</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>456</v>
       </c>
       <c r="C18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>457</v>
       </c>
       <c r="Q19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -5292,31 +5270,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" customWidth="1"/>
-    <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="24" width="30.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5324,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5333,25 +5311,25 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -5363,31 +5341,31 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>6</v>
@@ -5396,7 +5374,7 @@
         <v>7</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>12</v>
@@ -5432,7 +5410,7 @@
         <v>38</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>41</v>
@@ -5441,74 +5419,74 @@
         <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -5518,13 +5496,13 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z2" t="s">
         <v>17</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB2" t="s">
         <v>19</v>
@@ -5538,15 +5516,15 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -5556,29 +5534,29 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -5588,13 +5566,13 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z3" t="s">
         <v>17</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB3" t="s">
         <v>19</v>
@@ -5608,15 +5586,15 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -5626,29 +5604,29 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -5658,13 +5636,13 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z4" t="s">
         <v>17</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB4" t="s">
         <v>19</v>
@@ -5678,15 +5656,15 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -5696,29 +5674,29 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -5728,13 +5706,13 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z5" t="s">
         <v>17</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB5" t="s">
         <v>19</v>
@@ -5748,15 +5726,15 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -5766,29 +5744,29 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N6" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -5798,13 +5776,13 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z6" t="s">
         <v>17</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB6" t="s">
         <v>19</v>
@@ -5818,15 +5796,15 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -5836,29 +5814,29 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -5868,13 +5846,13 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z7" t="s">
         <v>17</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB7" t="s">
         <v>19</v>
@@ -5888,12 +5866,12 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5908,10 +5886,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5929,12 +5907,12 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5949,10 +5927,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -5970,15 +5948,15 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -5988,29 +5966,29 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H10" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -6020,13 +5998,13 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z10" t="s">
         <v>17</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB10" t="s">
         <v>19</v>
@@ -6040,15 +6018,15 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -6064,16 +6042,16 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N11" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -6084,16 +6062,16 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Z11" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AB11" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>59</v>
@@ -6101,15 +6079,15 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -6131,7 +6109,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -6143,7 +6121,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z12" t="s">
         <v>17</v>
@@ -6160,15 +6138,15 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -6190,7 +6168,7 @@
         <v>15</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -6206,7 +6184,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6229,9 +6207,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6243,18 +6221,18 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="AF15" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG15" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AH15">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6266,528 +6244,528 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="Q16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="AI18" s="15" t="s">
-        <v>316</v>
+      <c r="AI18" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AL18" t="s">
         <v>39</v>
       </c>
       <c r="AM18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="AI19" s="30" t="s">
-        <v>376</v>
+      <c r="AI19" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="AI20" s="30" t="s">
-        <v>378</v>
+      <c r="AI20" s="27" t="s">
+        <v>371</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="AI21" s="30" t="s">
-        <v>380</v>
+      <c r="AI21" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="AI22" s="30" t="s">
-        <v>381</v>
+      <c r="AI22" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="AI23" s="30" t="s">
-        <v>381</v>
+      <c r="AI23" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="AI24" s="30" t="s">
-        <v>386</v>
+      <c r="AI24" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="AI25" s="30" t="s">
-        <v>378</v>
+      <c r="AI25" s="27" t="s">
+        <v>371</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="AI26" s="30" t="s">
-        <v>386</v>
+      <c r="AI26" s="27" t="s">
+        <v>379</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>410</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="AI27" s="30" t="s">
-        <v>346</v>
+      <c r="AI27" s="27" t="s">
+        <v>339</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>414</v>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="J28" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="AI28" s="30" t="s">
-        <v>346</v>
+      <c r="AI28" s="27" t="s">
+        <v>339</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AL28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="AI29" s="30" t="s">
-        <v>392</v>
+      <c r="AI29" s="27" t="s">
+        <v>385</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL29" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="AI30" s="30" t="s">
-        <v>392</v>
+      <c r="AI30" s="27" t="s">
+        <v>385</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AL30" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="AI31" s="30" t="s">
-        <v>392</v>
+      <c r="AI31" s="27" t="s">
+        <v>385</v>
       </c>
       <c r="AJ31" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AL31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="AI32" s="30" t="s">
-        <v>392</v>
+      <c r="AI32" s="27" t="s">
+        <v>385</v>
       </c>
       <c r="AJ32" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AL32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="AI33" s="30" t="s">
-        <v>378</v>
+      <c r="AI33" s="27" t="s">
+        <v>371</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AL33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="AI34" s="30" t="s">
-        <v>397</v>
+      <c r="AI34" s="27" t="s">
+        <v>390</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="AI35" s="30" t="s">
-        <v>397</v>
+      <c r="AI35" s="27" t="s">
+        <v>390</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="AI36" s="30" t="s">
-        <v>401</v>
+      <c r="AI36" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="AI37" s="30" t="s">
-        <v>401</v>
+      <c r="AI37" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="AI38" s="30" t="s">
-        <v>401</v>
+      <c r="AI38" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="AI39" s="30" t="s">
-        <v>402</v>
+      <c r="AI39" s="27" t="s">
+        <v>395</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AL39" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="AI40" s="30" t="s">
-        <v>402</v>
+      <c r="AI40" s="27" t="s">
+        <v>395</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AL40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="AI41" s="30" t="s">
-        <v>179</v>
+      <c r="AI41" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AL41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="AI42" s="30" t="s">
-        <v>259</v>
+      <c r="AI42" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G43" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H43" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I43" t="s">
+        <v>422</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="O43" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="P43" s="2"/>
-      <c r="AI43" s="30"/>
+      <c r="AI43" s="27"/>
       <c r="AJ43" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>226</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="K44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="AI44" s="30"/>
+      <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>423</v>
-      </c>
-      <c r="J45" s="18"/>
+        <v>416</v>
+      </c>
+      <c r="J45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="AI45" s="30"/>
+      <c r="AI45" s="27"/>
       <c r="AJ45" s="5"/>
       <c r="AO45">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="AI46" s="30"/>
+      <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="AI47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AJ47" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AL47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="AI48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AJ48" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="AJ49" s="5"/>
       <c r="AL49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="AJ50" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AN50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6804,13 +6782,13 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="AO51" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AP51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6824,7 +6802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6837,7 +6815,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Y53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z53" t="s">
         <v>17</v>
@@ -6855,13 +6833,13 @@
         <v>47</v>
       </c>
       <c r="AG53" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AH53">
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6875,7 +6853,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6887,7 +6865,7 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Y55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z55" t="s">
         <v>17</v>
@@ -6917,7 +6895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6943,7 +6921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6960,14 +6938,14 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="O57" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="P57" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="O57" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6991,9 +6969,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
@@ -7017,25 +6995,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M60" t="s">
-        <v>169</v>
-      </c>
-      <c r="O60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O60" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
       <c r="Y60" t="s">
         <v>62</v>
       </c>
@@ -7043,15 +7021,15 @@
         <v>63</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M61" t="s">
         <v>15</v>
@@ -7060,12 +7038,12 @@
         <v>14</v>
       </c>
       <c r="AU61" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s">
         <v>35</v>
@@ -7074,18 +7052,18 @@
         <v>67</v>
       </c>
       <c r="AU62" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AI63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AJ63" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL63" t="s">
         <v>39</v>
@@ -7094,9 +7072,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AL64" t="s">
         <v>39</v>
@@ -7105,96 +7083,96 @@
         <v>83</v>
       </c>
       <c r="AW64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AX64" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="S65" s="5"/>
       <c r="U65" t="s">
+        <v>342</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="X65" s="5"/>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>344</v>
+      </c>
+      <c r="X66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>347</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="T67" s="26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>349</v>
-      </c>
-      <c r="V65" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="W65" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="X65" s="5"/>
-    </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>351</v>
-      </c>
-      <c r="X66" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>354</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="T67" s="29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>356</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>357</v>
-      </c>
-      <c r="O68" s="15" t="s">
-        <v>358</v>
+        <v>350</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="AU68" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="V69" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>309</v>
+        <v>201</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>357</v>
-      </c>
-      <c r="O70" s="15" t="s">
-        <v>310</v>
+        <v>350</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="Y70" t="s">
         <v>62</v>
@@ -7212,12 +7190,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7299,720 +7277,1306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR1" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS1" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>9898989898</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="V3" s="22">
+        <v>2</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="V4" s="22">
+        <v>1</v>
+      </c>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>99999</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>9898989898</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>9898989898</v>
+      </c>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="11">
+        <v>16</v>
+      </c>
+      <c r="AR7" s="11">
+        <v>2024</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>9898989898</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>9898989898</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22">
+        <v>1</v>
+      </c>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE9" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22">
+        <v>43000000229</v>
+      </c>
+      <c r="AK11" s="22">
+        <v>3000146837</v>
+      </c>
+      <c r="AL11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM11" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>9898989898</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22">
+        <v>400002</v>
+      </c>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO1" s="10" t="s">
+      <c r="B13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AP1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="U3" t="s">
-        <v>259</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" t="s">
-        <v>346</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP13" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="U4" t="s">
-        <v>315</v>
-      </c>
-      <c r="V4" s="5" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22">
+        <v>6492</v>
+      </c>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I5" t="s">
-        <v>337</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="N5" t="s">
-        <v>338</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="M6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s">
-        <v>152</v>
-      </c>
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC7">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ7" s="14">
-        <v>16</v>
-      </c>
-      <c r="AR7" s="14">
-        <v>2024</v>
-      </c>
-      <c r="AS7" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>152</v>
-      </c>
-      <c r="N8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC8">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC9">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="V16" s="22"/>
+      <c r="W16" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="X16" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>43000000229</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM11" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ12" s="5">
-        <v>400002</v>
-      </c>
-      <c r="AK12" s="5"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="U13" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN13" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>298</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" t="s">
-        <v>252</v>
-      </c>
-      <c r="R14" t="s">
-        <v>254</v>
-      </c>
-      <c r="AN14" s="5"/>
-      <c r="AP14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="P15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="U16" t="s">
-        <v>124</v>
-      </c>
-      <c r="W16" t="s">
-        <v>125</v>
-      </c>
-      <c r="X16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H17" t="s">
-        <v>222</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="R17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" t="s">
-        <v>229</v>
-      </c>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="AM11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="J17" r:id="rId9" xr:uid="{BC090C36-9E01-48D6-9292-AFEA89ACCF08}"/>
-    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="J9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J7" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="J6" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J5" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B6" r:id="rId17" xr:uid="{E46C316B-F180-4DCF-9B37-2C86773E03BC}"/>
-    <hyperlink ref="D6" r:id="rId18" xr:uid="{3E340F8C-FE64-4DC9-A22F-51E417F8BF43}"/>
-    <hyperlink ref="B15" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="C2" r:id="rId20" xr:uid="{F37B54A5-3FB4-4B51-9812-BC6CFD7C9BB7}"/>
-    <hyperlink ref="K2" r:id="rId21" xr:uid="{86F21458-479B-44AE-BFC9-4DFD0975CF91}"/>
-    <hyperlink ref="C15" r:id="rId22" xr:uid="{A775F22A-E783-4B4B-A595-DAA2956A24C7}"/>
-    <hyperlink ref="C6" r:id="rId23" xr:uid="{0EF261B6-5397-455A-8D39-DAD7822166BD}"/>
-    <hyperlink ref="K12" r:id="rId24" xr:uid="{CBC61EE7-BBE2-4443-B2EC-A8B8923634C4}"/>
-    <hyperlink ref="D15" r:id="rId25" xr:uid="{F7767DF9-995B-4E37-8ED8-26A99030A9D3}"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:spanem@helenoftroy.com" xr:uid="{C9C2D634-A33B-4F12-9356-656DCB9CC30D}"/>
+    <hyperlink ref="C2" r:id="rId2" display="mailto:spanem@helenoftroy.com" xr:uid="{99010B7F-5CD8-47B4-851C-C40134889782}"/>
+    <hyperlink ref="D2" r:id="rId3" display="mailto:Hydro@123" xr:uid="{250C3B92-7254-4CC6-BAC3-1CCC99C7A580}"/>
+    <hyperlink ref="F2" r:id="rId4" display="mailto:Hydro@123" xr:uid="{38AEEDFD-9566-4B02-95AD-EEA8946D80CC}"/>
+    <hyperlink ref="J2" r:id="rId5" display="mailto:LotusQA.GLD.PP.HYF.AutoTest2@gmail.com" xr:uid="{58FD2D5A-9490-4A42-A710-97CA893F197A}"/>
+    <hyperlink ref="K2" r:id="rId6" display="mailto:LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{3D946DEB-0B81-43D2-9868-950B13D2CFB5}"/>
+    <hyperlink ref="J5" r:id="rId7" display="mailto:hfemealotus@gmail.com" xr:uid="{9504AE98-E49F-401E-804B-9C4F6A413C29}"/>
+    <hyperlink ref="B6" r:id="rId8" display="mailto:LotusQA.GLD.PP.HYF.AutoTest2@gmail.com" xr:uid="{F5B1258C-1FE3-4817-9F16-29B0080EABA6}"/>
+    <hyperlink ref="C6" r:id="rId9" display="mailto:LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{FBBED23B-8C0D-4304-8613-1183463AA942}"/>
+    <hyperlink ref="D6" r:id="rId10" display="mailto:Lotuswave@123" xr:uid="{EC8FEF64-3AE9-4733-A9C3-EEAC97DD806C}"/>
+    <hyperlink ref="J6" r:id="rId11" display="mailto:hfemealotus@gmail.com" xr:uid="{F747D1E0-1EF4-4870-A7A8-24E9123724A9}"/>
+    <hyperlink ref="B7" r:id="rId12" display="mailto:hfemealotus@gmail.com" xr:uid="{56C2CF9E-3864-4800-86EC-26BB9A57E23A}"/>
+    <hyperlink ref="J7" r:id="rId13" display="mailto:hfemealotus@gmail.com" xr:uid="{FAFB3CA9-1F65-403D-848C-D855EC018478}"/>
+    <hyperlink ref="B8" r:id="rId14" display="mailto:qatesting.lotuswave+1@gmail.com" xr:uid="{7B637736-F50A-4F0A-AF45-091A0EDEB882}"/>
+    <hyperlink ref="J8" r:id="rId15" display="mailto:hfemealotus@gmail.com" xr:uid="{92747D7E-BD40-4212-8963-93A642FAA534}"/>
+    <hyperlink ref="B9" r:id="rId16" display="mailto:hfemealotus@gmail.com" xr:uid="{F5F441CC-478A-43D8-AFA5-A03F89150F5E}"/>
+    <hyperlink ref="J9" r:id="rId17" display="mailto:hfemealotus@gmail.com" xr:uid="{A83757ED-4168-4796-885A-FE4A5B8E8F1E}"/>
+    <hyperlink ref="AM11" r:id="rId18" display="mailto:spanem@helenoftroy.com" xr:uid="{DE1C0226-5819-4FA3-A855-35262CE963C8}"/>
+    <hyperlink ref="J12" r:id="rId19" display="mailto:hfemealotus@gmail.com" xr:uid="{FF1D2DFB-1D36-4E1C-B19E-8CFFBCB0DE53}"/>
+    <hyperlink ref="K12" r:id="rId20" display="mailto:qatesting.lotuswave@gmail.com" xr:uid="{B2BE336A-025E-47BC-A57E-EC3F5CBEF69F}"/>
+    <hyperlink ref="J13" r:id="rId21" display="mailto:hfemealotus@gmail.com" xr:uid="{EB1F4DA5-76F7-40FF-8B5B-FD64D475D232}"/>
+    <hyperlink ref="B15" r:id="rId22" display="mailto:spanem@helenoftroy.com" xr:uid="{75E43B15-C5F4-412E-8B90-F96804E6B690}"/>
+    <hyperlink ref="C15" r:id="rId23" display="mailto:spanem@helenoftroy.com" xr:uid="{0A76F91E-CA19-41F4-A417-F730EDBBC8A1}"/>
+    <hyperlink ref="D15" r:id="rId24" display="mailto:Hydro@123" xr:uid="{19B3239B-92D6-4161-A16C-C292047E6281}"/>
+    <hyperlink ref="J17" r:id="rId25" display="mailto:hfemealotus@gmail.com" xr:uid="{E993336E-7B7C-4502-8DC0-8F014C95BA85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
@@ -8027,13 +8591,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8104,24 +8668,24 @@
         <v>53</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="43" t="s">
-        <v>456</v>
+      <c r="R2" s="40" t="s">
+        <v>449</v>
       </c>
       <c r="S2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -8140,25 +8704,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8169,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -8190,7 +8754,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -8202,66 +8766,66 @@
         <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>127</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -8270,10 +8834,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -8282,7 +8846,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>18</v>
@@ -8294,15 +8858,15 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="17">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="14">
         <v>44876</v>
       </c>
       <c r="S2">
@@ -8312,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -8327,27 +8891,27 @@
         <v>26</v>
       </c>
       <c r="Z2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2" t="s">
         <v>144</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>146</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>148</v>
       </c>
       <c r="AE2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -8355,11 +8919,11 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>334</v>
+      <c r="G3" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -8374,15 +8938,15 @@
         <v>34556666</v>
       </c>
       <c r="AG3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
         <v>163</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -8403,25 +8967,25 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8429,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -8447,7 +9011,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
@@ -8498,30 +9062,30 @@
         <v>42</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -8530,23 +9094,23 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -8554,7 +9118,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8570,132 +9134,132 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="T4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="W4" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="W4" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="T5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="T6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>155</v>
       </c>
-      <c r="T7" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
       <c r="J8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
       <c r="T11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="W11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -8705,15 +9269,15 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Z14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -8722,37 +9286,37 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L15" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M15" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="N15" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="17">
         <v>44677</v>
       </c>
       <c r="S16">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8768,60 +9332,60 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>310</v>
+      <c r="H18" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="K18" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" t="s">
+        <v>289</v>
+      </c>
+      <c r="M18" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="M18" t="s">
-        <v>293</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Z19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>29</v>
@@ -8830,24 +9394,24 @@
         <v>29</v>
       </c>
       <c r="T20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" t="s">
         <v>62</v>
       </c>
@@ -8855,7 +9419,7 @@
         <v>63</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
@@ -8893,25 +9457,25 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>248</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8938,40 +9502,40 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
-        <v>494</v>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -8987,20 +9551,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9008,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -9059,24 +9623,24 @@
         <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9091,11 +9655,11 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -9112,7 +9676,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9128,55 +9692,55 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="T4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="T7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="V7" s="15" t="s">
-        <v>520</v>
+        <v>512</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -9199,37 +9763,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9261,7 +9825,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>12</v>
@@ -9306,18 +9870,18 @@
         <v>53</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9332,11 +9896,11 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -9353,7 +9917,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9369,28 +9933,28 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="2"/>
       <c r="S5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -9399,16 +9963,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="2"/>
       <c r="W6" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9417,10 +9981,10 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="X7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -9446,7 +10010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -9457,7 +10021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -9471,9 +10035,9 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9EF60-D768-48E4-B00F-91AC1282F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC60778-F708-48A5-A976-57D469A8E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1472,147 +1472,148 @@
     <t>rgaddam@helenoftroy.com</t>
   </si>
   <si>
-    <t>https://mcloud-na-preprod.hydroflask.com/customer/account/login/referer/aHR0cHM6Ly9tY2xvdWQtbmEtcHJlcHJvZC5oeWRyb2ZsYXNrLmNvbS9jdXN0b21lci9hY2NvdW50L2luZGV4Lw~~/
+    <t>AccountDetails_TC6</t>
+  </si>
+  <si>
+    <t>AccountDetails_TC12</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E1@gmail.com</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E2@gmail.com</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E4@gmail.com</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E7@gmail.com</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E9@gmail.com</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E6@gmail.com</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E12@gmail.com</t>
+  </si>
+  <si>
+    <t>hydroflaskqa+E2E16@gmail.com</t>
+  </si>
+  <si>
+    <t>qatester+Automation@gmail.com</t>
+  </si>
+  <si>
+    <t>gaddamramyasree0809+automation@gmail.com</t>
+  </si>
+  <si>
+    <t>Refill For Good,Corporate Responsibility</t>
+  </si>
+  <si>
+    <t>24 oz,32 oz</t>
+  </si>
+  <si>
+    <t>Bottles,Cups &amp; Tumblers,Coffee &amp; Tea,Accessories</t>
+  </si>
+  <si>
+    <t>Insulated Totes,Soft Coolers</t>
+  </si>
+  <si>
+    <t>Food Jars</t>
+  </si>
+  <si>
+    <t>Bottle Boots,Caps and Lids,Cleaning</t>
+  </si>
+  <si>
+    <t>Our Story,Contact,Refill For Good,Every Bottle Tells A Story</t>
+  </si>
+  <si>
+    <t>Micro Hydro,Spring Style Guide,Fitness Collection</t>
+  </si>
+  <si>
+    <t>Exclusives,New Arrivals,Best Sellers</t>
+  </si>
+  <si>
+    <t>HFEMEA20OFF</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>93 York House</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>BD109ET</t>
+  </si>
+  <si>
+    <t>71 Worthy Street</t>
+  </si>
+  <si>
+    <t>Chorley</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>PR60NH</t>
+  </si>
+  <si>
+    <t>oxobuyer@oxo.com</t>
+  </si>
+  <si>
+    <t>oxobuyer123</t>
+  </si>
+  <si>
+    <t>Contact Us,Find a Store,Track Your Order</t>
+  </si>
+  <si>
+    <t>Our Story,Group Customization,Pro Deal</t>
+  </si>
+  <si>
+    <t>Track Your Order</t>
+  </si>
+  <si>
+    <t>Micro Hydro Mini Bottle</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>hfemealotus@gmail.com</t>
+  </si>
+  <si>
+    <t>93/5 Morrison Street</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Midlothian</t>
+  </si>
+  <si>
+    <t>EH3 8BX</t>
+  </si>
+  <si>
+    <t>https://mcloud-na-stage4.hydroflask.com/gb/customer/account/login/referer/aHR0cHM6Ly9tY2xvdWQtbmEtc3RhZ2U0Lmh5ZHJvZmxhc2suY29tL2diL2N1c3RvbWVyL2FjY291bnQvaW5kZXgv/
 https://mcloud-na-preprod.hydroflask.com/customer/account/create/
-https://mcloud-na-preprod.hydroflask.com/shop/bottles-drinkware/bottles
-https://mcloud-na-preprod.hydroflask.com/corporate-responsibility
-https://mcloud-na-preprod.hydroflask.com/parks-for-all
-https://mcloud-na-preprod.hydroflask.com/shop/customize
-https://mcloud-na-preprod.hydroflask.com/our-story
-https://mcloud-na-preprod.hydroflask.com/house-of-hydro-rewards
-https://mcloud-na-preprod.hydroflask.com/32-oz-wide-mouth?color=Fir
-https://mcloud-na-preprod.hydroflask.com/26-l-day-escape-tote?color=Peppercorn
-https://mcloud-na-preprod.hydroflask.com/contact-us
-https://mcloud-na-preprod.hydroflask.com/prodeal/application/index/</t>
-  </si>
-  <si>
-    <t>AccountDetails_TC6</t>
-  </si>
-  <si>
-    <t>AccountDetails_TC12</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E1@gmail.com</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E2@gmail.com</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E4@gmail.com</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E7@gmail.com</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E9@gmail.com</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E6@gmail.com</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E12@gmail.com</t>
-  </si>
-  <si>
-    <t>hydroflaskqa+E2E16@gmail.com</t>
-  </si>
-  <si>
-    <t>qatester+Automation@gmail.com</t>
-  </si>
-  <si>
-    <t>gaddamramyasree0809+automation@gmail.com</t>
-  </si>
-  <si>
-    <t>Refill For Good,Corporate Responsibility</t>
-  </si>
-  <si>
-    <t>24 oz,32 oz</t>
-  </si>
-  <si>
-    <t>Bottles,Cups &amp; Tumblers,Coffee &amp; Tea,Accessories</t>
-  </si>
-  <si>
-    <t>Insulated Totes,Soft Coolers</t>
-  </si>
-  <si>
-    <t>Food Jars</t>
-  </si>
-  <si>
-    <t>Bottle Boots,Caps and Lids,Cleaning</t>
-  </si>
-  <si>
-    <t>Our Story,Contact,Refill For Good,Every Bottle Tells A Story</t>
-  </si>
-  <si>
-    <t>Micro Hydro,Spring Style Guide,Fitness Collection</t>
-  </si>
-  <si>
-    <t>Exclusives,New Arrivals,Best Sellers</t>
-  </si>
-  <si>
-    <t>HFEMEA20OFF</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>93 York House</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>West Yorkshire</t>
-  </si>
-  <si>
-    <t>BD109ET</t>
-  </si>
-  <si>
-    <t>71 Worthy Street</t>
-  </si>
-  <si>
-    <t>Chorley</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>PR60NH</t>
-  </si>
-  <si>
-    <t>oxobuyer@oxo.com</t>
-  </si>
-  <si>
-    <t>oxobuyer123</t>
-  </si>
-  <si>
-    <t>Contact Us,Find a Store,Track Your Order</t>
-  </si>
-  <si>
-    <t>Our Story,Group Customization,Pro Deal</t>
-  </si>
-  <si>
-    <t>Track Your Order</t>
-  </si>
-  <si>
-    <t>Micro Hydro Mini Bottle</t>
-  </si>
-  <si>
-    <t>£</t>
-  </si>
-  <si>
-    <t>hfemealotus@gmail.com</t>
-  </si>
-  <si>
-    <t>93/5 Morrison Street</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>Midlothian</t>
-  </si>
-  <si>
-    <t>EH3 8BX</t>
+https://mcloud-na-stage4.hydroflask.com/gb/shop/bottles-drinkware/bottles?page=1
+https://mcloud-na-stage4.hydroflask.com/gb/corporate-responsibility
+https://mcloud-na-stage4.hydroflask.com/parks-for-all
+https://mcloud-na-stage4.hydroflask.com/shop/customize
+https://mcloud-na-stage4.hydroflask.com/our-story
+https://mcloud-na-stage4.hydroflask.com/house-of-hydro-rewards
+https://mcloud-na-stage4.hydroflask.com/32-oz-wide-mouth?color=Fir
+https://mcloud-na-stage4.hydroflask.com/26-l-day-escape-tote?color=Peppercorn
+https://mcloud-na-stage4.hydroflask.com/contact-us
+https://mcloud-na-stage4.hydroflask.com/prodeal/application/index/
+HYF_EMEA : TEST_DGLD_HF_EMEA_RT_021_Create_and_Edit_Gift_Registery_For_Register_User(testcase added and updated the testdata)</t>
   </si>
 </sst>
 </file>
@@ -2321,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2339,10 +2340,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2354,16 +2355,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>497</v>
+      </c>
+      <c r="T2" t="s">
         <v>498</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>499</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2376,10 +2377,10 @@
         <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2394,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2407,16 +2408,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
+        <v>497</v>
+      </c>
+      <c r="T3" t="s">
         <v>498</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>499</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2502,16 +2503,16 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" t="s">
+        <v>497</v>
+      </c>
+      <c r="T5" t="s">
         <v>498</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>499</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>59</v>
@@ -2580,7 +2581,7 @@
         <v>154</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2752,7 +2753,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AJ20" t="s">
         <v>264</v>
@@ -2890,19 +2891,19 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
+        <v>513</v>
+      </c>
+      <c r="T26" t="s">
+        <v>515</v>
+      </c>
+      <c r="U26" t="s">
+        <v>503</v>
+      </c>
+      <c r="V26" t="s">
         <v>514</v>
       </c>
-      <c r="T26" t="s">
+      <c r="W26" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="U26" t="s">
-        <v>504</v>
-      </c>
-      <c r="V26" t="s">
-        <v>515</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>59</v>
@@ -2930,11 +2931,11 @@
         <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I28" s="2"/>
       <c r="W28" s="5"/>
@@ -2953,19 +2954,19 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
+        <v>513</v>
+      </c>
+      <c r="T29" t="s">
+        <v>515</v>
+      </c>
+      <c r="U29" t="s">
+        <v>503</v>
+      </c>
+      <c r="V29" t="s">
         <v>514</v>
       </c>
-      <c r="T29" t="s">
+      <c r="W29" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="U29" t="s">
-        <v>504</v>
-      </c>
-      <c r="V29" t="s">
-        <v>515</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>59</v>
@@ -3011,19 +3012,19 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" t="s">
+        <v>513</v>
+      </c>
+      <c r="T32" t="s">
+        <v>515</v>
+      </c>
+      <c r="U32" t="s">
+        <v>503</v>
+      </c>
+      <c r="V32" t="s">
         <v>514</v>
       </c>
-      <c r="T32" t="s">
+      <c r="W32" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="U32" t="s">
-        <v>504</v>
-      </c>
-      <c r="V32" t="s">
-        <v>515</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>59</v>
@@ -3446,10 +3447,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3464,10 +3465,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3493,10 +3494,10 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3511,10 +3512,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3543,10 +3544,10 @@
         <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3561,10 +3562,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3727,7 +3728,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3952,10 +3953,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3970,10 +3971,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4015,10 +4016,10 @@
         <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4189,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4207,10 +4208,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4662,10 +4663,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4707,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F808DC-2462-40F4-8FE6-41754E94FF50}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4739,7 +4740,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>261</v>
@@ -4844,7 +4845,7 @@
         <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4874,7 +4875,7 @@
         <v>265</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>276</v>
@@ -4905,7 +4906,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -4933,7 +4934,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="32"/>
       <c r="J5" s="22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -4994,7 +4995,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5036,7 +5037,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -5115,7 +5116,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>472</v>
@@ -5188,7 +5189,7 @@
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -5521,7 +5522,7 @@
         <v>460</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>274</v>
@@ -5591,7 +5592,7 @@
         <v>462</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>274</v>
@@ -5661,7 +5662,7 @@
         <v>463</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>274</v>
@@ -5731,7 +5732,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>274</v>
@@ -5801,7 +5802,7 @@
         <v>470</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>274</v>
@@ -5868,10 +5869,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5909,10 +5910,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5953,7 +5954,7 @@
         <v>468</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>274</v>
@@ -7277,7 +7278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -7479,16 +7480,16 @@
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="Q2" s="22">
         <v>9898989898</v>
@@ -7649,7 +7650,7 @@
         <v>333</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="22"/>
@@ -7720,21 +7721,21 @@
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="O6" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="P6" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="Q6" s="22">
         <v>9898989898</v>
@@ -7779,7 +7780,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="22"/>
@@ -7793,23 +7794,23 @@
         <v>96</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="Q7" s="22">
         <v>9898989898</v>
@@ -7868,7 +7869,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="22"/>
@@ -7882,23 +7883,23 @@
         <v>96</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="M8" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="P8" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="Q8" s="22">
         <v>9898989898</v>
@@ -7951,7 +7952,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="22"/>
@@ -7965,23 +7966,23 @@
         <v>96</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="P9" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="Q9" s="22">
         <v>9898989898</v>
@@ -8156,23 +8157,23 @@
         <v>67</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="O12" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="P12" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="Q12" s="22">
         <v>9898989898</v>
@@ -8231,7 +8232,7 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="22"/>
@@ -8459,7 +8460,7 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="22"/>
@@ -9101,16 +9102,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L2" t="s">
         <v>498</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>499</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -9203,7 +9204,7 @@
         <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -9249,11 +9250,11 @@
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
@@ -9269,7 +9270,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Z14" t="s">
         <v>264</v>
@@ -9286,16 +9287,16 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>501</v>
+      </c>
+      <c r="L15" t="s">
         <v>502</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>503</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>504</v>
-      </c>
-      <c r="N15" t="s">
-        <v>505</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
@@ -9507,7 +9508,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C2" s="22"/>
     </row>
@@ -9517,7 +9518,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -9526,7 +9527,7 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -9535,7 +9536,7 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -9637,10 +9638,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9655,7 +9656,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9698,16 +9699,16 @@
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
+        <v>510</v>
+      </c>
+      <c r="T4" t="s">
+        <v>510</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="T4" t="s">
-        <v>511</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -9731,16 +9732,16 @@
         <v>206</v>
       </c>
       <c r="S7" t="s">
+        <v>510</v>
+      </c>
+      <c r="T7" t="s">
+        <v>510</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="T7" t="s">
-        <v>511</v>
-      </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +9882,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9896,7 +9897,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC60778-F708-48A5-A976-57D469A8E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E139A9-6DFA-417F-A2B1-2AA08BDFC67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1612,8 +1612,7 @@
 https://mcloud-na-stage4.hydroflask.com/32-oz-wide-mouth?color=Fir
 https://mcloud-na-stage4.hydroflask.com/26-l-day-escape-tote?color=Peppercorn
 https://mcloud-na-stage4.hydroflask.com/contact-us
-https://mcloud-na-stage4.hydroflask.com/prodeal/application/index/
-HYF_EMEA : TEST_DGLD_HF_EMEA_RT_021_Create_and_Edit_Gift_Registery_For_Register_User(testcase added and updated the testdata)</t>
+https://mcloud-na-stage4.hydroflask.com/prodeal/application/index/</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1620,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1803,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1833,7 +1832,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E139A9-6DFA-417F-A2B1-2AA08BDFC67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF917B49-164D-4A82-8DF5-39F5B72F040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1115,9 +1115,6 @@
     <t>Full_RedeemGiftcard</t>
   </si>
   <si>
-    <t>8ZZ85J64V9773K56R72Z</t>
-  </si>
-  <si>
     <t>GiftCard2</t>
   </si>
   <si>
@@ -1350,9 +1347,6 @@
   </si>
   <si>
     <t>QaLotus</t>
-  </si>
-  <si>
-    <t>3BR58M97G4985P29A74E</t>
   </si>
   <si>
     <t>Giftcard_Partial_1</t>
@@ -1614,14 +1608,20 @@
 https://mcloud-na-stage4.hydroflask.com/contact-us
 https://mcloud-na-stage4.hydroflask.com/prodeal/application/index/</t>
   </si>
+  <si>
+    <t>8DZ67T85R4856M74K23D</t>
+  </si>
+  <si>
+    <t>4SX89R79W7673P94T66S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1802,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1832,7 +1832,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2146,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView tabSelected="1" topLeftCell="N29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2205,13 +2205,13 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>348</v>
@@ -2223,7 +2223,7 @@
         <v>343</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>345</v>
@@ -2310,10 +2310,10 @@
         <v>207</v>
       </c>
       <c r="AT1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AU1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
@@ -2321,10 +2321,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2339,10 +2339,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2354,16 +2354,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>495</v>
+      </c>
+      <c r="T2" t="s">
+        <v>496</v>
+      </c>
+      <c r="V2" t="s">
         <v>497</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="V2" t="s">
-        <v>499</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2376,10 +2376,10 @@
         <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2394,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2407,16 +2407,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
+        <v>495</v>
+      </c>
+      <c r="T3" t="s">
+        <v>496</v>
+      </c>
+      <c r="V3" t="s">
         <v>497</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="V3" t="s">
-        <v>499</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>296</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2487,10 +2487,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2502,16 +2502,16 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" t="s">
+        <v>495</v>
+      </c>
+      <c r="T5" t="s">
+        <v>496</v>
+      </c>
+      <c r="V5" t="s">
         <v>497</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="V5" t="s">
-        <v>499</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>59</v>
@@ -2529,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB6">
         <v>123</v>
@@ -2580,7 +2580,7 @@
         <v>154</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2636,7 +2636,7 @@
         <v>327</v>
       </c>
       <c r="AF13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG13" t="s">
         <v>190</v>
@@ -2645,21 +2645,21 @@
         <v>1</v>
       </c>
       <c r="AU13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="AC14" s="36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AD14" s="34"/>
       <c r="AE14" s="36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="I18" s="2"/>
       <c r="AL18" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -2752,7 +2752,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AJ20" t="s">
         <v>264</v>
@@ -2766,7 +2766,7 @@
         <v>45</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB21">
         <v>123</v>
@@ -2803,7 +2803,7 @@
         <v>47</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB22">
         <v>1234</v>
@@ -2817,7 +2817,7 @@
         <v>49</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB23">
         <v>123</v>
@@ -2856,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB24">
         <v>123</v>
@@ -2890,19 +2890,19 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
+        <v>511</v>
+      </c>
+      <c r="T26" t="s">
         <v>513</v>
       </c>
-      <c r="T26" t="s">
-        <v>515</v>
-      </c>
       <c r="U26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V26" t="s">
+        <v>512</v>
+      </c>
+      <c r="W26" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>59</v>
@@ -2919,10 +2919,10 @@
         <v>331</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
@@ -2930,11 +2930,11 @@
         <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I28" s="2"/>
       <c r="W28" s="5"/>
@@ -2953,19 +2953,19 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
+        <v>511</v>
+      </c>
+      <c r="T29" t="s">
         <v>513</v>
       </c>
-      <c r="T29" t="s">
-        <v>515</v>
-      </c>
       <c r="U29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V29" t="s">
+        <v>512</v>
+      </c>
+      <c r="W29" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>59</v>
@@ -2976,7 +2976,7 @@
         <v>151</v>
       </c>
       <c r="AL30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
@@ -3011,19 +3011,19 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" t="s">
+        <v>511</v>
+      </c>
+      <c r="T32" t="s">
         <v>513</v>
       </c>
-      <c r="T32" t="s">
-        <v>515</v>
-      </c>
       <c r="U32" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V32" t="s">
+        <v>512</v>
+      </c>
+      <c r="W32" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>59</v>
@@ -3105,10 +3105,10 @@
         <v>340</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3116,10 +3116,10 @@
         <v>342</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R38" s="5"/>
     </row>
@@ -3136,10 +3136,10 @@
         <v>347</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N40" s="26" t="s">
         <v>353</v>
@@ -3167,7 +3167,7 @@
         <v>354</v>
       </c>
       <c r="P42" t="s">
-        <v>355</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.3">
@@ -3207,26 +3207,26 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>364</v>
+      </c>
+      <c r="P44" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>433</v>
+      </c>
+      <c r="P45" s="29" t="s">
         <v>435</v>
-      </c>
-      <c r="P45" s="29" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>434</v>
+      </c>
+      <c r="P46" s="28" t="s">
         <v>436</v>
-      </c>
-      <c r="P46" s="28" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.3">
@@ -3278,10 +3278,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3446,10 +3446,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3464,10 +3464,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3493,10 +3493,10 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3511,10 +3511,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3543,10 +3543,10 @@
         <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3561,10 +3561,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3727,7 +3727,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3952,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3970,10 +3970,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4015,10 +4015,10 @@
         <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4189,10 +4189,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4207,10 +4207,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4524,7 +4524,7 @@
         <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>277</v>
@@ -4662,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4707,7 +4707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F808DC-2462-40F4-8FE6-41754E94FF50}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4739,7 +4739,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>261</v>
@@ -4803,7 +4803,7 @@
         <v>317</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>232</v>
@@ -4824,7 +4824,7 @@
         <v>253</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>254</v>
@@ -4836,7 +4836,7 @@
         <v>286</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -4844,7 +4844,7 @@
         <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4874,7 +4874,7 @@
         <v>265</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>276</v>
@@ -4905,7 +4905,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -4933,7 +4933,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="32"/>
       <c r="J5" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -4960,7 +4960,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="21" t="s">
@@ -4994,7 +4994,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5023,7 +5023,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
@@ -5036,7 +5036,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -5077,7 +5077,7 @@
         <v>287</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -5115,10 +5115,10 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -5221,7 +5221,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -5234,26 +5234,26 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5314,13 +5314,13 @@
         <v>218</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>188</v>
@@ -5347,10 +5347,10 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>348</v>
@@ -5362,7 +5362,7 @@
         <v>343</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>345</v>
@@ -5464,20 +5464,20 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H2" t="s">
         <v>419</v>
-      </c>
-      <c r="H2" t="s">
-        <v>420</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
+        <v>426</v>
+      </c>
+      <c r="N2" t="s">
         <v>427</v>
-      </c>
-      <c r="N2" t="s">
-        <v>428</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>270</v>
@@ -5486,7 +5486,7 @@
         <v>274</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -5518,10 +5518,10 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>274</v>
@@ -5534,29 +5534,29 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3" t="s">
         <v>419</v>
-      </c>
-      <c r="H3" t="s">
-        <v>420</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
+        <v>426</v>
+      </c>
+      <c r="N3" t="s">
         <v>427</v>
       </c>
-      <c r="N3" t="s">
-        <v>428</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>274</v>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" t="s">
         <v>419</v>
-      </c>
-      <c r="H4" t="s">
-        <v>420</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
+        <v>426</v>
+      </c>
+      <c r="N4" t="s">
         <v>427</v>
       </c>
-      <c r="N4" t="s">
-        <v>428</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>274</v>
@@ -5674,29 +5674,29 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" t="s">
         <v>419</v>
-      </c>
-      <c r="H5" t="s">
-        <v>420</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
+        <v>426</v>
+      </c>
+      <c r="N5" t="s">
         <v>427</v>
       </c>
-      <c r="N5" t="s">
-        <v>428</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -5728,10 +5728,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>274</v>
@@ -5744,29 +5744,29 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H6" t="s">
         <v>419</v>
-      </c>
-      <c r="H6" t="s">
-        <v>420</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
+        <v>426</v>
+      </c>
+      <c r="N6" t="s">
         <v>427</v>
       </c>
-      <c r="N6" t="s">
-        <v>428</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>274</v>
@@ -5814,29 +5814,29 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H7" t="s">
         <v>419</v>
-      </c>
-      <c r="H7" t="s">
-        <v>420</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" t="s">
+        <v>426</v>
+      </c>
+      <c r="N7" t="s">
         <v>427</v>
       </c>
-      <c r="N7" t="s">
-        <v>428</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5886,10 +5886,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
+        <v>426</v>
+      </c>
+      <c r="N8" t="s">
         <v>427</v>
-      </c>
-      <c r="N8" t="s">
-        <v>428</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5927,10 +5927,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
+        <v>426</v>
+      </c>
+      <c r="N9" t="s">
         <v>427</v>
-      </c>
-      <c r="N9" t="s">
-        <v>428</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>274</v>
@@ -5966,29 +5966,29 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10" t="s">
         <v>419</v>
-      </c>
-      <c r="H10" t="s">
-        <v>420</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" t="s">
+        <v>426</v>
+      </c>
+      <c r="N10" t="s">
         <v>427</v>
       </c>
-      <c r="N10" t="s">
-        <v>428</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>270</v>
@@ -6042,10 +6042,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
+        <v>426</v>
+      </c>
+      <c r="N11" t="s">
         <v>427</v>
-      </c>
-      <c r="N11" t="s">
-        <v>428</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>270</v>
@@ -6062,16 +6062,16 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z11" t="s">
         <v>409</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>410</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>59</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>296</v>
@@ -6284,12 +6284,12 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="AI19" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>113</v>
@@ -6297,12 +6297,12 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="AI20" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>113</v>
@@ -6310,12 +6310,12 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="AI21" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AJ21" s="5" t="s">
         <v>113</v>
@@ -6323,12 +6323,12 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="AI22" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AJ22" s="5" t="s">
         <v>113</v>
@@ -6336,12 +6336,12 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="AI23" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AJ23" s="5" t="s">
         <v>120</v>
@@ -6349,12 +6349,12 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="AI24" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>120</v>
@@ -6362,12 +6362,12 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="AI25" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>120</v>
@@ -6378,26 +6378,26 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="AI26" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AJ26" s="5" t="s">
         <v>120</v>
       </c>
       <c r="AL26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -6432,44 +6432,44 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="AI29" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ29" s="5" t="s">
         <v>120</v>
       </c>
       <c r="AL29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="AI30" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>113</v>
       </c>
       <c r="AL30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="AI31" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ31" s="5" t="s">
         <v>113</v>
@@ -6480,44 +6480,44 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="AI32" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ32" s="5" t="s">
         <v>113</v>
       </c>
       <c r="AL32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="AI33" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ33" s="5" t="s">
         <v>113</v>
       </c>
       <c r="AL33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="AI34" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>113</v>
@@ -6525,12 +6525,12 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="AI35" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>120</v>
@@ -6538,25 +6538,25 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="AI36" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="AI37" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ37" s="5" t="s">
         <v>113</v>
@@ -6564,12 +6564,12 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="AI38" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ38" s="5" t="s">
         <v>120</v>
@@ -6577,31 +6577,31 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="AI39" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="AI40" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL40" t="s">
         <v>39</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6617,15 +6617,15 @@
         <v>177</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6638,24 +6638,24 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G43" t="s">
+        <v>418</v>
+      </c>
+      <c r="H43" t="s">
         <v>419</v>
       </c>
-      <c r="H43" t="s">
-        <v>420</v>
-      </c>
       <c r="I43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P43" s="2"/>
       <c r="AI43" s="27"/>
       <c r="AJ43" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
@@ -6678,7 +6678,7 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J45" s="15"/>
       <c r="O45" s="2"/>
@@ -6833,7 +6833,7 @@
         <v>47</v>
       </c>
       <c r="AG53" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AH53">
         <v>1234</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M62" t="s">
         <v>35</v>
@@ -7052,7 +7052,7 @@
         <v>67</v>
       </c>
       <c r="AU62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.3">
@@ -7094,20 +7094,20 @@
         <v>340</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S65" s="5"/>
       <c r="U65" t="s">
         <v>342</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X65" s="5"/>
     </row>
@@ -7124,7 +7124,7 @@
         <v>347</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T67" s="26" t="s">
         <v>353</v>
@@ -7152,7 +7152,7 @@
         <v>354</v>
       </c>
       <c r="V69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.3">
@@ -7192,10 +7192,10 @@
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>364</v>
+      </c>
+      <c r="V71" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="V71" s="5" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7479,16 +7479,16 @@
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>515</v>
-      </c>
       <c r="O2" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="P2" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="Q2" s="22">
         <v>9898989898</v>
@@ -7649,7 +7649,7 @@
         <v>333</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="22"/>
@@ -7720,21 +7720,21 @@
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N6" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>515</v>
-      </c>
       <c r="O6" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="P6" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="Q6" s="22">
         <v>9898989898</v>
@@ -7779,7 +7779,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="22"/>
@@ -7793,23 +7793,23 @@
         <v>96</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="N7" s="22" t="s">
-        <v>515</v>
-      </c>
       <c r="O7" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="Q7" s="22">
         <v>9898989898</v>
@@ -7868,7 +7868,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="22"/>
@@ -7882,23 +7882,23 @@
         <v>96</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="M8" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N8" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>515</v>
-      </c>
       <c r="O8" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="P8" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="Q8" s="22">
         <v>9898989898</v>
@@ -7951,7 +7951,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="22"/>
@@ -7965,23 +7965,23 @@
         <v>96</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>515</v>
-      </c>
       <c r="O9" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="Q9" s="22">
         <v>9898989898</v>
@@ -8156,23 +8156,23 @@
         <v>67</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="N12" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>515</v>
-      </c>
       <c r="O12" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="P12" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="Q12" s="22">
         <v>9898989898</v>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="22"/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="22"/>
@@ -8679,7 +8679,7 @@
         <v>25</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="S2" t="s">
         <v>260</v>
@@ -9101,16 +9101,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M2" t="s">
         <v>497</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="M2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -9203,7 +9203,7 @@
         <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -9249,11 +9249,11 @@
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
@@ -9269,7 +9269,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Z14" t="s">
         <v>264</v>
@@ -9286,16 +9286,16 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>499</v>
+      </c>
+      <c r="L15" t="s">
+        <v>500</v>
+      </c>
+      <c r="M15" t="s">
         <v>501</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>502</v>
-      </c>
-      <c r="M15" t="s">
-        <v>503</v>
-      </c>
-      <c r="N15" t="s">
-        <v>504</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
@@ -9507,7 +9507,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C2" s="22"/>
     </row>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9626,7 +9626,7 @@
         <v>205</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>183</v>
@@ -9637,10 +9637,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9655,7 +9655,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
+        <v>508</v>
+      </c>
+      <c r="T4" t="s">
+        <v>508</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="T4" t="s">
-        <v>510</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -9731,16 +9731,16 @@
         <v>206</v>
       </c>
       <c r="S7" t="s">
+        <v>508</v>
+      </c>
+      <c r="T7" t="s">
+        <v>508</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="T7" t="s">
-        <v>510</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +9881,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9896,7 +9896,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF917B49-164D-4A82-8DF5-39F5B72F040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0513CB50-EB5F-470E-946B-01B5117038B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="518">
   <si>
     <t>UserName</t>
   </si>
@@ -1494,9 +1494,6 @@
   </si>
   <si>
     <t>hydroflaskqa+E2E16@gmail.com</t>
-  </si>
-  <si>
-    <t>qatester+Automation@gmail.com</t>
   </si>
   <si>
     <t>gaddamramyasree0809+automation@gmail.com</t>
@@ -1614,14 +1611,17 @@
   <si>
     <t>4SX89R79W7673P94T66S</t>
   </si>
+  <si>
+    <t>Hfemeanewaccount@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1802,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1832,7 +1832,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2146,34 +2146,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="18" width="30.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2316,15 +2316,15 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2339,10 +2339,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2354,16 +2354,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>494</v>
+      </c>
+      <c r="T2" t="s">
         <v>495</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>496</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2371,15 +2371,15 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2394,9 +2394,11 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2407,16 +2409,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
+        <v>494</v>
+      </c>
+      <c r="T3" t="s">
         <v>495</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>496</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2424,7 +2426,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -2464,7 +2466,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>440</v>
       </c>
@@ -2502,16 +2504,16 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" t="s">
+        <v>494</v>
+      </c>
+      <c r="T5" t="s">
         <v>495</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>496</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>59</v>
@@ -2519,7 +2521,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -2575,12 +2577,12 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2588,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -2607,7 +2609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>446</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -2681,7 +2683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2752,13 +2754,13 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AJ20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2879,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2890,25 +2892,25 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
+        <v>510</v>
+      </c>
+      <c r="T26" t="s">
+        <v>512</v>
+      </c>
+      <c r="U26" t="s">
+        <v>500</v>
+      </c>
+      <c r="V26" t="s">
         <v>511</v>
       </c>
-      <c r="T26" t="s">
+      <c r="W26" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="U26" t="s">
-        <v>501</v>
-      </c>
-      <c r="V26" t="s">
-        <v>512</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2925,16 +2927,16 @@
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I28" s="2"/>
       <c r="W28" s="5"/>
@@ -2942,7 +2944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -2953,25 +2955,25 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
+        <v>510</v>
+      </c>
+      <c r="T29" t="s">
+        <v>512</v>
+      </c>
+      <c r="U29" t="s">
+        <v>500</v>
+      </c>
+      <c r="V29" t="s">
         <v>511</v>
       </c>
-      <c r="T29" t="s">
+      <c r="W29" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="U29" t="s">
-        <v>501</v>
-      </c>
-      <c r="V29" t="s">
-        <v>512</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>166</v>
       </c>
@@ -3011,25 +3013,25 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" t="s">
+        <v>510</v>
+      </c>
+      <c r="T32" t="s">
+        <v>512</v>
+      </c>
+      <c r="U32" t="s">
+        <v>500</v>
+      </c>
+      <c r="V32" t="s">
         <v>511</v>
       </c>
-      <c r="T32" t="s">
+      <c r="W32" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="U32" t="s">
-        <v>501</v>
-      </c>
-      <c r="V32" t="s">
-        <v>512</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -3044,7 +3046,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>284</v>
       </c>
@@ -3066,7 +3068,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>215</v>
       </c>
@@ -3083,7 +3085,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -3100,7 +3102,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -3116,14 +3118,14 @@
         <v>342</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>356</v>
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>344</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>349</v>
       </c>
@@ -3162,15 +3164,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>354</v>
       </c>
       <c r="P42" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>364</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>433</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>434</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>232</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>153</v>
       </c>
@@ -3276,7 +3278,7 @@
       </c>
       <c r="AE48" s="35"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>450</v>
       </c>
@@ -3301,26 +3303,27 @@
     <hyperlink ref="C2" r:id="rId13" xr:uid="{6B47FB1F-967B-4003-9184-BEF0C984D5EA}"/>
     <hyperlink ref="H27" r:id="rId14" xr:uid="{64862719-EAD4-4268-AF34-CDC0319543E7}"/>
     <hyperlink ref="I27" r:id="rId15" xr:uid="{8EE57DBF-CF86-4B54-B5B4-2B9596DA7CE9}"/>
-    <hyperlink ref="B3" r:id="rId16" xr:uid="{74800FED-836F-4AD6-B633-BA74849DDD00}"/>
-    <hyperlink ref="C3" r:id="rId17" xr:uid="{54253E85-947C-4815-9EB9-5DE9E5B65FB1}"/>
-    <hyperlink ref="D3" r:id="rId18" xr:uid="{43D25ADB-4E4D-4766-8BDD-9478BEC1A271}"/>
-    <hyperlink ref="E3" r:id="rId19" xr:uid="{26E68202-5CE3-42C9-9DA5-1788DD83F3DD}"/>
-    <hyperlink ref="H3" r:id="rId20" xr:uid="{2F0AFBE1-2D1D-42B8-954E-E6A16DF2AA04}"/>
-    <hyperlink ref="AC13" r:id="rId21" display="https://mcloud-na-preprod.hydroflask.com/wide-mouth-flex-cap?color=Black" xr:uid="{29EA729C-67AB-4332-AD2E-87301AAE2E8C}"/>
-    <hyperlink ref="H41" r:id="rId22" xr:uid="{7950AECF-C1F8-4C97-8F40-50E8B8819E85}"/>
-    <hyperlink ref="B43" r:id="rId23" xr:uid="{F8F2B0AD-86F8-4E80-8B1A-138B21EB05DB}"/>
-    <hyperlink ref="D43" r:id="rId24" xr:uid="{F252BFF6-7553-465C-B03F-0EDCA58E86DD}"/>
-    <hyperlink ref="H43" r:id="rId25" xr:uid="{819E02F2-2ED2-485D-85EB-576F27665CFC}"/>
-    <hyperlink ref="E5" r:id="rId26" xr:uid="{1D5FD444-4596-442E-BAE6-C911BFAC6718}"/>
-    <hyperlink ref="D5" r:id="rId27" xr:uid="{193852EB-47AA-454A-91E5-A4E8624ADA13}"/>
-    <hyperlink ref="B5" r:id="rId28" xr:uid="{450F9719-F0D6-46E4-A813-0721F12125A4}"/>
-    <hyperlink ref="I5" r:id="rId29" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{4B3C7CD9-EB98-4907-833E-9C41C9ADEE76}"/>
-    <hyperlink ref="C5" r:id="rId30" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{72A898E1-E814-40B9-9CCE-853A961F2109}"/>
-    <hyperlink ref="H5" r:id="rId31" xr:uid="{4A93039F-9FB8-42CB-9ACE-C0BE7F576AAE}"/>
-    <hyperlink ref="D27" r:id="rId32" xr:uid="{ADDAE6FC-BD5F-4B77-8488-C7AA571E5B74}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{43D25ADB-4E4D-4766-8BDD-9478BEC1A271}"/>
+    <hyperlink ref="E3" r:id="rId17" xr:uid="{26E68202-5CE3-42C9-9DA5-1788DD83F3DD}"/>
+    <hyperlink ref="AC13" r:id="rId18" display="https://mcloud-na-preprod.hydroflask.com/wide-mouth-flex-cap?color=Black" xr:uid="{29EA729C-67AB-4332-AD2E-87301AAE2E8C}"/>
+    <hyperlink ref="H41" r:id="rId19" xr:uid="{7950AECF-C1F8-4C97-8F40-50E8B8819E85}"/>
+    <hyperlink ref="B43" r:id="rId20" xr:uid="{F8F2B0AD-86F8-4E80-8B1A-138B21EB05DB}"/>
+    <hyperlink ref="D43" r:id="rId21" xr:uid="{F252BFF6-7553-465C-B03F-0EDCA58E86DD}"/>
+    <hyperlink ref="H43" r:id="rId22" xr:uid="{819E02F2-2ED2-485D-85EB-576F27665CFC}"/>
+    <hyperlink ref="E5" r:id="rId23" xr:uid="{1D5FD444-4596-442E-BAE6-C911BFAC6718}"/>
+    <hyperlink ref="D5" r:id="rId24" xr:uid="{193852EB-47AA-454A-91E5-A4E8624ADA13}"/>
+    <hyperlink ref="B5" r:id="rId25" xr:uid="{450F9719-F0D6-46E4-A813-0721F12125A4}"/>
+    <hyperlink ref="I5" r:id="rId26" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{4B3C7CD9-EB98-4907-833E-9C41C9ADEE76}"/>
+    <hyperlink ref="C5" r:id="rId27" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{72A898E1-E814-40B9-9CCE-853A961F2109}"/>
+    <hyperlink ref="H5" r:id="rId28" xr:uid="{4A93039F-9FB8-42CB-9ACE-C0BE7F576AAE}"/>
+    <hyperlink ref="D27" r:id="rId29" xr:uid="{ADDAE6FC-BD5F-4B77-8488-C7AA571E5B74}"/>
+    <hyperlink ref="B3" r:id="rId30" xr:uid="{4C8A5F37-6801-432A-83D9-87956E37DC33}"/>
+    <hyperlink ref="C3" r:id="rId31" xr:uid="{98DA5743-5463-4C67-80BC-A5B72466CF09}"/>
+    <hyperlink ref="H3" r:id="rId32" xr:uid="{8BB37601-C38B-45F2-8233-C6E902C59024}"/>
+    <hyperlink ref="I3" r:id="rId33" xr:uid="{867E547C-77C0-4645-B477-E04A428B234D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -3332,18 +3335,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3441,15 +3444,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3464,10 +3467,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3488,15 +3491,15 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3511,10 +3514,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3538,15 +3541,15 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3561,10 +3564,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3585,7 +3588,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3613,7 +3616,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3624,7 +3627,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3761,7 +3764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3813,7 +3816,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3871,12 +3874,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3947,15 +3950,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3970,10 +3973,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3994,7 +3997,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4010,15 +4013,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4041,7 +4044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4082,20 +4085,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4184,15 +4187,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4207,10 +4210,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4232,7 +4235,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4549,7 +4552,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4619,19 +4622,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4657,15 +4660,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4680,7 +4683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4711,16 +4714,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4734,12 +4737,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>261</v>
@@ -4760,27 +4763,27 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" customWidth="1"/>
-    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.109375" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -4839,12 +4842,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4864,7 +4867,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>230</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>265</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>276</v>
@@ -4893,7 +4896,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
@@ -4905,7 +4908,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -4918,7 +4921,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>233</v>
       </c>
@@ -4933,7 +4936,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="32"/>
       <c r="J5" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -4945,7 +4948,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>236</v>
       </c>
@@ -4978,7 +4981,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>238</v>
       </c>
@@ -4994,7 +4997,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5003,7 +5006,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5028,7 +5031,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>281</v>
       </c>
@@ -5036,7 +5039,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -5053,7 +5056,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>286</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>319</v>
       </c>
@@ -5105,7 +5108,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5115,7 +5118,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>470</v>
@@ -5132,7 +5135,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
@@ -5157,7 +5160,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
@@ -5182,13 +5185,13 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>335</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -5207,7 +5210,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>338</v>
       </c>
@@ -5232,7 +5235,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>453</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>454</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>455</v>
       </c>
@@ -5270,31 +5273,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="24" width="30.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="27" width="22.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="24" width="30.5703125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="27" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5516,7 +5519,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>458</v>
       </c>
@@ -5586,7 +5589,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -5656,7 +5659,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -5726,7 +5729,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>464</v>
       </c>
@@ -5796,7 +5799,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>468</v>
       </c>
@@ -5866,7 +5869,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -5907,7 +5910,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>473</v>
       </c>
@@ -5948,7 +5951,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>466</v>
       </c>
@@ -6018,7 +6021,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6079,7 +6082,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6138,7 +6141,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -6184,7 +6187,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6249,7 +6252,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6260,7 +6263,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>367</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6334,7 +6337,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>402</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>406</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6462,7 +6465,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>413</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>391</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -6591,7 +6594,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>424</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6676,7 +6679,7 @@
       <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -6709,7 +6712,7 @@
       <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6765,7 +6768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7089,7 +7092,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7111,7 +7114,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7119,7 +7122,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -7147,7 +7150,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -7155,7 +7158,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -7281,36 +7284,36 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7479,16 +7482,16 @@
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="Q2" s="22">
         <v>9898989898</v>
@@ -7522,7 +7525,7 @@
       <c r="AR2" s="22"/>
       <c r="AS2" s="22"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7579,7 +7582,7 @@
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>248</v>
       </c>
@@ -7632,7 +7635,7 @@
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>333</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="22"/>
@@ -7695,7 +7698,7 @@
       <c r="AR5" s="22"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -7720,21 +7723,21 @@
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="O6" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="P6" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="Q6" s="22">
         <v>9898989898</v>
@@ -7774,12 +7777,12 @@
       <c r="AR6" s="22"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="22"/>
@@ -7793,23 +7796,23 @@
         <v>96</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="Q7" s="22">
         <v>9898989898</v>
@@ -7863,12 +7866,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="22"/>
@@ -7882,23 +7885,23 @@
         <v>96</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="M8" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="P8" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="Q8" s="22">
         <v>9898989898</v>
@@ -7946,12 +7949,12 @@
       <c r="AR8" s="22"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="22"/>
@@ -7965,23 +7968,23 @@
         <v>96</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="P9" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="Q9" s="22">
         <v>9898989898</v>
@@ -8031,7 +8034,7 @@
       <c r="AR9" s="22"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
@@ -8082,7 +8085,7 @@
       <c r="AR10" s="22"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -8139,7 +8142,7 @@
       <c r="AR11" s="22"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -8156,23 +8159,23 @@
         <v>67</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="O12" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="P12" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="Q12" s="22">
         <v>9898989898</v>
@@ -8214,7 +8217,7 @@
       <c r="AR12" s="22"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -8231,7 +8234,7 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="22"/>
@@ -8277,7 +8280,7 @@
       <c r="AR13" s="22"/>
       <c r="AS13" s="22"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>249</v>
       </c>
@@ -8332,7 +8335,7 @@
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>119</v>
       </c>
@@ -8389,7 +8392,7 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -8444,7 +8447,7 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>219</v>
       </c>
@@ -8459,7 +8462,7 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="22"/>
@@ -8499,7 +8502,7 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>154</v>
       </c>
@@ -8591,13 +8594,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8674,7 +8677,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8704,25 +8707,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -8967,25 +8970,25 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9071,7 +9074,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9101,16 +9104,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>494</v>
+      </c>
+      <c r="L2" t="s">
         <v>495</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>496</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -9118,7 +9121,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9153,7 +9156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -9166,7 +9169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9198,15 +9201,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -9233,7 +9236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9244,22 +9247,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -9269,13 +9272,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Z14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9286,23 +9289,23 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>498</v>
+      </c>
+      <c r="L15" t="s">
         <v>499</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>500</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>501</v>
-      </c>
-      <c r="N15" t="s">
-        <v>502</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -9377,7 +9380,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9457,17 +9460,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -9502,40 +9505,40 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>313</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -9548,23 +9551,23 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9632,15 +9635,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9655,7 +9658,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9676,7 +9679,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9692,25 +9695,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
+        <v>507</v>
+      </c>
+      <c r="T4" t="s">
+        <v>507</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="T4" t="s">
-        <v>508</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9718,7 +9721,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9726,21 +9729,21 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
       <c r="S7" t="s">
+        <v>507</v>
+      </c>
+      <c r="T7" t="s">
+        <v>507</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="T7" t="s">
-        <v>508</v>
-      </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -9763,37 +9766,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9876,12 +9879,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9896,7 +9899,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
@@ -9917,7 +9920,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -9945,7 +9948,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10010,7 +10013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10035,7 +10038,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0513CB50-EB5F-470E-946B-01B5117038B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A61AE7-4574-4ACA-A7CE-B3EAED06389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="520">
   <si>
     <t>UserName</t>
   </si>
@@ -1614,14 +1614,20 @@
   <si>
     <t>Hfemeanewaccount@gmail.com</t>
   </si>
+  <si>
+    <t>£25.00</t>
+  </si>
+  <si>
+    <t>£79.00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1802,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1832,7 +1838,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2146,34 +2152,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2371,7 +2377,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -2426,7 +2432,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -2466,7 +2472,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>440</v>
       </c>
@@ -2521,7 +2527,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -2577,7 +2583,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>446</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -2992,7 +2998,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>166</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>284</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>215</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -3125,7 +3131,7 @@
       </c>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>344</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -3141,13 +3147,13 @@
         <v>431</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>362</v>
+        <v>519</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>349</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>354</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>364</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>433</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>434</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>232</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>153</v>
       </c>
@@ -3278,7 +3284,7 @@
       </c>
       <c r="AE48" s="35"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>450</v>
       </c>
@@ -3335,18 +3341,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3491,7 +3497,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3541,7 +3547,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3588,7 +3594,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3616,7 +3622,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3627,7 +3633,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3816,7 +3822,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3874,12 +3880,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3997,7 +4003,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4085,20 +4091,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4235,7 +4241,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4271,7 +4277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4432,7 +4438,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4522,7 +4528,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4552,7 +4558,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4622,19 +4628,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4714,16 +4720,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4737,7 +4743,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4763,27 +4769,27 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" customWidth="1"/>
+    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>228</v>
       </c>
@@ -4867,7 +4873,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>230</v>
       </c>
@@ -4896,7 +4902,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
@@ -4921,7 +4927,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>233</v>
       </c>
@@ -4948,7 +4954,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>236</v>
       </c>
@@ -4981,7 +4987,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>238</v>
       </c>
@@ -5006,7 +5012,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5031,7 +5037,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>281</v>
       </c>
@@ -5056,7 +5062,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>286</v>
       </c>
@@ -5083,7 +5089,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>319</v>
       </c>
@@ -5108,7 +5114,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5135,7 +5141,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
@@ -5160,7 +5166,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
@@ -5185,7 +5191,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>335</v>
       </c>
@@ -5210,7 +5216,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>338</v>
       </c>
@@ -5235,7 +5241,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>453</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>454</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>455</v>
       </c>
@@ -5273,31 +5279,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" customWidth="1"/>
-    <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="24" width="30.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5519,7 +5525,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>458</v>
       </c>
@@ -5589,7 +5595,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -5659,7 +5665,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -5729,7 +5735,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>464</v>
       </c>
@@ -5799,7 +5805,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>468</v>
       </c>
@@ -5869,7 +5875,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -5910,7 +5916,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>473</v>
       </c>
@@ -5951,7 +5957,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>466</v>
       </c>
@@ -6021,7 +6027,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6082,7 +6088,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6141,7 +6147,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -6187,7 +6193,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6252,7 +6258,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6263,7 +6269,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>367</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -6311,7 +6317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6324,7 +6330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -6350,7 +6356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -6379,7 +6385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>402</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>406</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6449,7 +6455,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -6481,7 +6487,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>413</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>391</v>
       </c>
@@ -6552,7 +6558,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -6565,7 +6571,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>424</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -6626,7 +6632,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6679,7 +6685,7 @@
       <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -6692,7 +6698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -6712,7 +6718,7 @@
       <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6856,7 +6862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6898,7 +6904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6972,7 +6978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7044,7 +7050,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7092,7 +7098,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7114,7 +7120,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -7150,7 +7156,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -7193,7 +7199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -7284,36 +7290,36 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -7450,7 +7456,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7525,7 +7531,7 @@
       <c r="AR2" s="22"/>
       <c r="AS2" s="22"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7582,7 +7588,7 @@
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>248</v>
       </c>
@@ -7635,7 +7641,7 @@
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -7698,7 +7704,7 @@
       <c r="AR5" s="22"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -7777,7 +7783,7 @@
       <c r="AR6" s="22"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
@@ -7866,7 +7872,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
@@ -7949,7 +7955,7 @@
       <c r="AR8" s="22"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
@@ -8034,7 +8040,7 @@
       <c r="AR9" s="22"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
@@ -8085,7 +8091,7 @@
       <c r="AR10" s="22"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -8142,7 +8148,7 @@
       <c r="AR11" s="22"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -8217,7 +8223,7 @@
       <c r="AR12" s="22"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -8280,7 +8286,7 @@
       <c r="AR13" s="22"/>
       <c r="AS13" s="22"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>249</v>
       </c>
@@ -8335,7 +8341,7 @@
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>119</v>
       </c>
@@ -8392,7 +8398,7 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -8447,7 +8453,7 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>219</v>
       </c>
@@ -8502,7 +8508,7 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>154</v>
       </c>
@@ -8594,13 +8600,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8707,25 +8713,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -8944,7 +8950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -8970,25 +8976,25 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9074,7 +9080,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9121,7 +9127,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9137,7 +9143,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9156,7 +9162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -9182,7 +9188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -9193,7 +9199,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -9217,7 +9223,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -9236,7 +9242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9247,7 +9253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -9262,7 +9268,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -9278,7 +9284,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9305,7 +9311,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -9372,7 +9378,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -9403,7 +9409,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9460,17 +9466,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -9505,7 +9511,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>243</v>
       </c>
@@ -9514,7 +9520,7 @@
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
@@ -9523,7 +9529,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
@@ -9532,7 +9538,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>313</v>
       </c>
@@ -9554,20 +9560,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9635,7 +9641,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9679,7 +9685,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9695,7 +9701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -9713,7 +9719,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9721,7 +9727,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9729,7 +9735,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -9766,37 +9772,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9879,7 +9885,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9920,7 +9926,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -9948,7 +9954,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9966,7 +9972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9975,7 +9981,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9987,7 +9993,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10013,7 +10019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10024,7 +10030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10038,7 +10044,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A61AE7-4574-4ACA-A7CE-B3EAED06389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B98A4-8238-4083-A74A-EEA9AF7009D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="523">
   <si>
     <t>UserName</t>
   </si>
@@ -1358,9 +1358,6 @@
     <t>5TB65S29F7534E44Y74A</t>
   </si>
   <si>
-    <t>9GX98U37V2332J98P68B</t>
-  </si>
-  <si>
     <t>CustomizeLinks</t>
   </si>
   <si>
@@ -1401,9 +1398,6 @@
   </si>
   <si>
     <t>Giftcard_Partial_3</t>
-  </si>
-  <si>
-    <t>2SL47R28J5473J54N28Z</t>
   </si>
   <si>
     <t>24 oz,32 oz,40 oz</t>
@@ -1619,6 +1613,21 @@
   </si>
   <si>
     <t>£79.00</t>
+  </si>
+  <si>
+    <t>9TS89X86V4385U48N45L</t>
+  </si>
+  <si>
+    <t>Giftcard_Partial_4</t>
+  </si>
+  <si>
+    <t>6HE74S92G8455H93B64J</t>
+  </si>
+  <si>
+    <t>6NA45V72N5876V96X45U</t>
+  </si>
+  <si>
+    <t>anbogi@helenoftroy.com</t>
   </si>
 </sst>
 </file>
@@ -2150,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU49"/>
+  <dimension ref="A1:AU50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,7 +2325,7 @@
         <v>207</v>
       </c>
       <c r="AT1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AU1" t="s">
         <v>357</v>
@@ -2327,10 +2336,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2345,10 +2354,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2360,16 +2369,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>492</v>
+      </c>
+      <c r="T2" t="s">
+        <v>493</v>
+      </c>
+      <c r="V2" t="s">
         <v>494</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="V2" t="s">
-        <v>496</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2382,10 +2391,10 @@
         <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2400,10 +2409,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2415,16 +2424,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
+        <v>492</v>
+      </c>
+      <c r="T3" t="s">
+        <v>493</v>
+      </c>
+      <c r="V3" t="s">
         <v>494</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="V3" t="s">
-        <v>496</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2474,13 +2483,13 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2495,10 +2504,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2510,16 +2519,16 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" t="s">
+        <v>492</v>
+      </c>
+      <c r="T5" t="s">
+        <v>493</v>
+      </c>
+      <c r="V5" t="s">
         <v>494</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="V5" t="s">
-        <v>496</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>59</v>
@@ -2537,7 +2546,7 @@
         <v>23</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB6">
         <v>123</v>
@@ -2588,7 +2597,7 @@
         <v>154</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="4"/>
@@ -2658,16 +2667,16 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="AC14" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AD14" s="34"/>
       <c r="AE14" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
@@ -2734,7 +2743,7 @@
       </c>
       <c r="I18" s="2"/>
       <c r="AL18" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -2760,7 +2769,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="AI20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AJ20" t="s">
         <v>264</v>
@@ -2774,7 +2783,7 @@
         <v>45</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB21">
         <v>123</v>
@@ -2811,7 +2820,7 @@
         <v>47</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB22">
         <v>1234</v>
@@ -2825,7 +2834,7 @@
         <v>49</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB23">
         <v>123</v>
@@ -2864,7 +2873,7 @@
         <v>23</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB24">
         <v>123</v>
@@ -2898,19 +2907,19 @@
         <v>15</v>
       </c>
       <c r="S26" t="s">
+        <v>508</v>
+      </c>
+      <c r="T26" t="s">
         <v>510</v>
       </c>
-      <c r="T26" t="s">
-        <v>512</v>
-      </c>
       <c r="U26" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V26" t="s">
+        <v>509</v>
+      </c>
+      <c r="W26" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>59</v>
@@ -2927,10 +2936,10 @@
         <v>331</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
@@ -2938,11 +2947,11 @@
         <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I28" s="2"/>
       <c r="W28" s="5"/>
@@ -2961,19 +2970,19 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
+        <v>508</v>
+      </c>
+      <c r="T29" t="s">
         <v>510</v>
       </c>
-      <c r="T29" t="s">
-        <v>512</v>
-      </c>
       <c r="U29" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V29" t="s">
+        <v>509</v>
+      </c>
+      <c r="W29" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>59</v>
@@ -2984,7 +2993,7 @@
         <v>151</v>
       </c>
       <c r="AL30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
@@ -3019,19 +3028,19 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" t="s">
+        <v>508</v>
+      </c>
+      <c r="T32" t="s">
         <v>510</v>
       </c>
-      <c r="T32" t="s">
-        <v>512</v>
-      </c>
       <c r="U32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V32" t="s">
+        <v>509</v>
+      </c>
+      <c r="W32" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>59</v>
@@ -3124,7 +3133,7 @@
         <v>342</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>356</v>
@@ -3147,10 +3156,10 @@
         <v>431</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.3">
@@ -3164,7 +3173,7 @@
         <v>350</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>351</v>
+        <v>522</v>
       </c>
       <c r="AO41" t="s">
         <v>352</v>
@@ -3175,7 +3184,7 @@
         <v>354</v>
       </c>
       <c r="P42" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.3">
@@ -3234,7 +3243,7 @@
         <v>434</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.3">
@@ -3286,10 +3295,18 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>451</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>519</v>
+      </c>
+      <c r="P50" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3455,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3473,10 +3490,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3502,10 +3519,10 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3520,10 +3537,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3552,10 +3569,10 @@
         <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3570,10 +3587,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3736,7 +3753,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3961,10 +3978,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -3979,10 +3996,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4024,10 +4041,10 @@
         <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4198,10 +4215,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4216,10 +4233,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4671,10 +4688,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4748,7 +4765,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>261</v>
@@ -4845,7 +4862,7 @@
         <v>286</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -4853,7 +4870,7 @@
         <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4883,7 +4900,7 @@
         <v>265</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>276</v>
@@ -4914,7 +4931,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -4942,7 +4959,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="32"/>
       <c r="J5" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -5003,7 +5020,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5032,7 +5049,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
@@ -5045,7 +5062,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -5086,7 +5103,7 @@
         <v>287</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -5124,10 +5141,10 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -5197,7 +5214,7 @@
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -5243,26 +5260,26 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5527,10 +5544,10 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>274</v>
@@ -5559,7 +5576,7 @@
         <v>427</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>274</v>
@@ -5597,10 +5614,10 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>274</v>
@@ -5629,7 +5646,7 @@
         <v>427</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>274</v>
@@ -5667,10 +5684,10 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>274</v>
@@ -5699,7 +5716,7 @@
         <v>427</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>274</v>
@@ -5737,10 +5754,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>274</v>
@@ -5769,7 +5786,7 @@
         <v>427</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>274</v>
@@ -5807,10 +5824,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>274</v>
@@ -5839,7 +5856,7 @@
         <v>427</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>274</v>
@@ -5877,10 +5894,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5918,10 +5935,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5959,10 +5976,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>274</v>
@@ -5991,7 +6008,7 @@
         <v>427</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>274</v>
@@ -6842,7 +6859,7 @@
         <v>47</v>
       </c>
       <c r="AG53" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AH53">
         <v>1234</v>
@@ -7488,16 +7505,16 @@
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="O2" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="P2" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="Q2" s="22">
         <v>9898989898</v>
@@ -7658,7 +7675,7 @@
         <v>333</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="22"/>
@@ -7729,21 +7746,21 @@
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="N6" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="O6" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="P6" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="Q6" s="22">
         <v>9898989898</v>
@@ -7788,7 +7805,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="22"/>
@@ -7802,23 +7819,23 @@
         <v>96</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="N7" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="O7" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="Q7" s="22">
         <v>9898989898</v>
@@ -7877,7 +7894,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="22"/>
@@ -7891,23 +7908,23 @@
         <v>96</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="M8" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="N8" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="O8" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="P8" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="Q8" s="22">
         <v>9898989898</v>
@@ -7960,7 +7977,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="22"/>
@@ -7974,23 +7991,23 @@
         <v>96</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="O9" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="Q9" s="22">
         <v>9898989898</v>
@@ -8165,23 +8182,23 @@
         <v>67</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="N12" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="O12" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="P12" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="Q12" s="22">
         <v>9898989898</v>
@@ -8240,7 +8257,7 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="22"/>
@@ -8468,7 +8485,7 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="22"/>
@@ -8688,7 +8705,7 @@
         <v>25</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S2" t="s">
         <v>260</v>
@@ -9110,16 +9127,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L2" t="s">
+        <v>493</v>
+      </c>
+      <c r="M2" t="s">
         <v>494</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="M2" t="s">
-        <v>496</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -9212,7 +9229,7 @@
         <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -9258,11 +9275,11 @@
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
@@ -9278,7 +9295,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Z14" t="s">
         <v>264</v>
@@ -9295,16 +9312,16 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>496</v>
+      </c>
+      <c r="L15" t="s">
+        <v>497</v>
+      </c>
+      <c r="M15" t="s">
         <v>498</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>499</v>
-      </c>
-      <c r="M15" t="s">
-        <v>500</v>
-      </c>
-      <c r="N15" t="s">
-        <v>501</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
@@ -9516,7 +9533,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C2" s="22"/>
     </row>
@@ -9526,7 +9543,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -9535,7 +9552,7 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -9544,7 +9561,7 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -9646,10 +9663,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9664,7 +9681,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9707,16 +9724,16 @@
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
+        <v>505</v>
+      </c>
+      <c r="T4" t="s">
+        <v>505</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="T4" t="s">
-        <v>507</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -9740,16 +9757,16 @@
         <v>206</v>
       </c>
       <c r="S7" t="s">
+        <v>505</v>
+      </c>
+      <c r="T7" t="s">
+        <v>505</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="T7" t="s">
-        <v>507</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -9890,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -9905,7 +9922,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B98A4-8238-4083-A74A-EEA9AF7009D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1EA54-6E1E-45AC-B20E-D6B52A2E295F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="527">
   <si>
     <t>UserName</t>
   </si>
@@ -1629,14 +1629,26 @@
   <si>
     <t>anbogi@helenoftroy.com</t>
   </si>
+  <si>
+    <t>Gift_CardAccountDetails</t>
+  </si>
+  <si>
+    <t>Flat 93 Cleveland Tower</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>B1 1UD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1817,7 +1829,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1847,7 +1859,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2159,36 +2171,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU50"/>
+  <dimension ref="A1:AU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="18" width="30.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +2343,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2386,7 +2398,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -2441,15 +2453,15 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>523</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>507</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>296</v>
+        <v>507</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2464,9 +2476,11 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2476,20 +2490,33 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="S4" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="T4" t="s">
+        <v>525</v>
+      </c>
+      <c r="V4" t="s">
+        <v>494</v>
+      </c>
+      <c r="W4" t="s">
+        <v>526</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>440</v>
+        <v>296</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>448</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2504,11 +2531,9 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>448</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2518,359 +2543,362 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" t="s">
-        <v>492</v>
-      </c>
-      <c r="T5" t="s">
-        <v>493</v>
-      </c>
-      <c r="V5" t="s">
-        <v>494</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" t="s">
+        <v>492</v>
+      </c>
+      <c r="T6" t="s">
+        <v>493</v>
+      </c>
+      <c r="V6" t="s">
+        <v>494</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="Z6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="AB6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>199</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="7"/>
-      <c r="AS7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="Z7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="Z8" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB8">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="7"/>
+      <c r="AS8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="J9" t="s">
+      <c r="Z9" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="J10" t="s">
         <v>203</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="7"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="4"/>
-      <c r="AD10" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>172</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="4"/>
-      <c r="AC11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AD11" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="4"/>
       <c r="AC12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="AC13" t="s">
         <v>171</v>
-      </c>
-      <c r="AD12" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="AC13" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="AD13" s="34">
         <v>1</v>
       </c>
-      <c r="AE13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="AC14" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="36" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AC14" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD14" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>445</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="AC15" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AC15" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="AC16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AD16" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AE16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="AD17" s="5"/>
-      <c r="AF17" t="s">
+      <c r="AC17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="AD18" s="5"/>
+      <c r="AF18" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="AL18" s="12" t="s">
+      <c r="I19" s="2"/>
+      <c r="AL19" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="AD19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="6"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="AI20" t="s">
+      <c r="AD20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="AI21" t="s">
         <v>490</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="Z22" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="AA21" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="AB21">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="S22" t="s">
-        <v>150</v>
-      </c>
-      <c r="T22" t="s">
-        <v>17</v>
-      </c>
-      <c r="V22" t="s">
-        <v>19</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="AA22" s="7" t="s">
         <v>444</v>
       </c>
       <c r="AB22">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="S23" t="s">
+        <v>150</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" t="s">
+        <v>19</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>444</v>
       </c>
       <c r="AB23">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="S24" t="s">
-        <v>150</v>
-      </c>
-      <c r="T24" t="s">
-        <v>17</v>
-      </c>
-      <c r="V24" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="AA24" s="7" t="s">
         <v>444</v>
@@ -2878,231 +2906,259 @@
       <c r="AB24">
         <v>123</v>
       </c>
-      <c r="AK24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="S25" t="s">
+        <v>150</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB25">
+        <v>123</v>
+      </c>
+      <c r="AK25" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="Z26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA25" s="7" t="s">
+      <c r="AA26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB26" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S27" t="s">
         <v>508</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T27" t="s">
         <v>510</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U27" t="s">
         <v>498</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V27" t="s">
         <v>509</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="W27" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="X26" s="5" t="s">
+      <c r="X27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="H28" s="2" t="s">
+      <c r="E29" s="2"/>
+      <c r="H29" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" t="s">
-        <v>508</v>
-      </c>
-      <c r="T29" t="s">
-        <v>510</v>
-      </c>
-      <c r="U29" t="s">
-        <v>498</v>
-      </c>
-      <c r="V29" t="s">
-        <v>509</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>511</v>
-      </c>
+      <c r="I29" s="2"/>
+      <c r="W29" s="5"/>
       <c r="X29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" t="s">
+        <v>508</v>
+      </c>
+      <c r="T30" t="s">
+        <v>510</v>
+      </c>
+      <c r="U30" t="s">
+        <v>498</v>
+      </c>
+      <c r="V30" t="s">
+        <v>509</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>151</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AL31" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>164</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AM32" t="s">
         <v>297</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AN32" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>166</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>167</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" t="s">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" t="s">
         <v>508</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T33" t="s">
         <v>510</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U33" t="s">
         <v>498</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V33" t="s">
         <v>509</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="W33" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="X32" s="5" t="s">
+      <c r="X33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>184</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H34" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="AC33" t="s">
+      <c r="I34" s="12"/>
+      <c r="AC34" t="s">
         <v>257</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AO34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>279</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AO35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>284</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AO36" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>215</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AC37" t="s">
         <v>255</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AD37" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>209</v>
       </c>
       <c r="AF37" t="s">
         <v>39</v>
@@ -3110,243 +3166,260 @@
       <c r="AP37" t="s">
         <v>83</v>
       </c>
-      <c r="AQ37" t="s">
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ38" t="s">
         <v>216</v>
       </c>
-      <c r="AR37" t="s">
+      <c r="AR38" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>340</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="O38" t="s">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="O39" t="s">
         <v>342</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="P39" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="Q39" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>344</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R40" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>347</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L41" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M41" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="N40" s="26" t="s">
+      <c r="N41" s="26" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>349</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>14</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>350</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AO42" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>354</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P43" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>350</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
+      <c r="S44" t="s">
         <v>62</v>
       </c>
-      <c r="T43" t="s">
+      <c r="T44" t="s">
         <v>63</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V44" t="s">
         <v>64</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="W44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="X43" s="5" t="s">
+      <c r="X44" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>364</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P45" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>433</v>
       </c>
-      <c r="P45" s="29" t="s">
+      <c r="P46" s="29" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>434</v>
       </c>
-      <c r="P46" s="28" t="s">
+      <c r="P47" s="28" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>232</v>
       </c>
-      <c r="AT47" s="33" t="s">
+      <c r="AT48" s="33" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="AD48" s="35">
+      <c r="AD49" s="35">
         <v>1</v>
       </c>
-      <c r="AE48" s="35"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="AE49" s="35"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>449</v>
       </c>
-      <c r="P49" s="28" t="s">
+      <c r="P50" s="28" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>519</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P51" t="s">
         <v>518</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D18" r:id="rId2" display="Lotuswave@123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D19" r:id="rId2" display="Lotuswave@123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AL18" r:id="rId7" xr:uid="{081C5E6B-B750-4DF9-A406-8CFA5CF35321}"/>
-    <hyperlink ref="H32" r:id="rId8" xr:uid="{E7117AFE-BF51-4362-86E8-EC31CD714F35}"/>
+    <hyperlink ref="H25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AL19" r:id="rId7" xr:uid="{081C5E6B-B750-4DF9-A406-8CFA5CF35321}"/>
+    <hyperlink ref="H33" r:id="rId8" xr:uid="{E7117AFE-BF51-4362-86E8-EC31CD714F35}"/>
     <hyperlink ref="D2" r:id="rId9" xr:uid="{2D39057E-A748-4174-BA59-49433F76661C}"/>
-    <hyperlink ref="H33" r:id="rId10" xr:uid="{7ECA06F7-0F76-44C2-9FB9-4179E4310E54}"/>
+    <hyperlink ref="H34" r:id="rId10" xr:uid="{7ECA06F7-0F76-44C2-9FB9-4179E4310E54}"/>
     <hyperlink ref="B2" r:id="rId11" xr:uid="{B14C1544-364C-4E03-A43F-D19E66177301}"/>
     <hyperlink ref="I2" r:id="rId12" xr:uid="{AA16F981-3056-4646-A2C1-ECE17E4E92D7}"/>
     <hyperlink ref="C2" r:id="rId13" xr:uid="{6B47FB1F-967B-4003-9184-BEF0C984D5EA}"/>
-    <hyperlink ref="H27" r:id="rId14" xr:uid="{64862719-EAD4-4268-AF34-CDC0319543E7}"/>
-    <hyperlink ref="I27" r:id="rId15" xr:uid="{8EE57DBF-CF86-4B54-B5B4-2B9596DA7CE9}"/>
+    <hyperlink ref="H28" r:id="rId14" xr:uid="{64862719-EAD4-4268-AF34-CDC0319543E7}"/>
+    <hyperlink ref="I28" r:id="rId15" xr:uid="{8EE57DBF-CF86-4B54-B5B4-2B9596DA7CE9}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{43D25ADB-4E4D-4766-8BDD-9478BEC1A271}"/>
     <hyperlink ref="E3" r:id="rId17" xr:uid="{26E68202-5CE3-42C9-9DA5-1788DD83F3DD}"/>
-    <hyperlink ref="AC13" r:id="rId18" display="https://mcloud-na-preprod.hydroflask.com/wide-mouth-flex-cap?color=Black" xr:uid="{29EA729C-67AB-4332-AD2E-87301AAE2E8C}"/>
-    <hyperlink ref="H41" r:id="rId19" xr:uid="{7950AECF-C1F8-4C97-8F40-50E8B8819E85}"/>
-    <hyperlink ref="B43" r:id="rId20" xr:uid="{F8F2B0AD-86F8-4E80-8B1A-138B21EB05DB}"/>
-    <hyperlink ref="D43" r:id="rId21" xr:uid="{F252BFF6-7553-465C-B03F-0EDCA58E86DD}"/>
-    <hyperlink ref="H43" r:id="rId22" xr:uid="{819E02F2-2ED2-485D-85EB-576F27665CFC}"/>
-    <hyperlink ref="E5" r:id="rId23" xr:uid="{1D5FD444-4596-442E-BAE6-C911BFAC6718}"/>
-    <hyperlink ref="D5" r:id="rId24" xr:uid="{193852EB-47AA-454A-91E5-A4E8624ADA13}"/>
-    <hyperlink ref="B5" r:id="rId25" xr:uid="{450F9719-F0D6-46E4-A813-0721F12125A4}"/>
-    <hyperlink ref="I5" r:id="rId26" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{4B3C7CD9-EB98-4907-833E-9C41C9ADEE76}"/>
-    <hyperlink ref="C5" r:id="rId27" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{72A898E1-E814-40B9-9CCE-853A961F2109}"/>
-    <hyperlink ref="H5" r:id="rId28" xr:uid="{4A93039F-9FB8-42CB-9ACE-C0BE7F576AAE}"/>
-    <hyperlink ref="D27" r:id="rId29" xr:uid="{ADDAE6FC-BD5F-4B77-8488-C7AA571E5B74}"/>
+    <hyperlink ref="AC14" r:id="rId18" display="https://mcloud-na-preprod.hydroflask.com/wide-mouth-flex-cap?color=Black" xr:uid="{29EA729C-67AB-4332-AD2E-87301AAE2E8C}"/>
+    <hyperlink ref="H42" r:id="rId19" xr:uid="{7950AECF-C1F8-4C97-8F40-50E8B8819E85}"/>
+    <hyperlink ref="B44" r:id="rId20" xr:uid="{F8F2B0AD-86F8-4E80-8B1A-138B21EB05DB}"/>
+    <hyperlink ref="D44" r:id="rId21" xr:uid="{F252BFF6-7553-465C-B03F-0EDCA58E86DD}"/>
+    <hyperlink ref="H44" r:id="rId22" xr:uid="{819E02F2-2ED2-485D-85EB-576F27665CFC}"/>
+    <hyperlink ref="E6" r:id="rId23" xr:uid="{1D5FD444-4596-442E-BAE6-C911BFAC6718}"/>
+    <hyperlink ref="D6" r:id="rId24" xr:uid="{193852EB-47AA-454A-91E5-A4E8624ADA13}"/>
+    <hyperlink ref="B6" r:id="rId25" xr:uid="{450F9719-F0D6-46E4-A813-0721F12125A4}"/>
+    <hyperlink ref="I6" r:id="rId26" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{4B3C7CD9-EB98-4907-833E-9C41C9ADEE76}"/>
+    <hyperlink ref="C6" r:id="rId27" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{72A898E1-E814-40B9-9CCE-853A961F2109}"/>
+    <hyperlink ref="H6" r:id="rId28" xr:uid="{4A93039F-9FB8-42CB-9ACE-C0BE7F576AAE}"/>
+    <hyperlink ref="D28" r:id="rId29" xr:uid="{ADDAE6FC-BD5F-4B77-8488-C7AA571E5B74}"/>
     <hyperlink ref="B3" r:id="rId30" xr:uid="{4C8A5F37-6801-432A-83D9-87956E37DC33}"/>
     <hyperlink ref="C3" r:id="rId31" xr:uid="{98DA5743-5463-4C67-80BC-A5B72466CF09}"/>
     <hyperlink ref="H3" r:id="rId32" xr:uid="{8BB37601-C38B-45F2-8233-C6E902C59024}"/>
     <hyperlink ref="I3" r:id="rId33" xr:uid="{867E547C-77C0-4645-B477-E04A428B234D}"/>
+    <hyperlink ref="H4" r:id="rId34" xr:uid="{E7256B83-DC26-4708-AE9C-81FB186678F7}"/>
+    <hyperlink ref="E4" r:id="rId35" xr:uid="{D50736A5-4DBC-478E-9DE0-ABB9D0062209}"/>
+    <hyperlink ref="D4" r:id="rId36" xr:uid="{69779EF0-F236-481C-A058-70D6A46D05A2}"/>
+    <hyperlink ref="B4" r:id="rId37" xr:uid="{D3894DA7-9C12-4B05-8D36-237B29B85F74}"/>
+    <hyperlink ref="I4" r:id="rId38" xr:uid="{80743E67-671B-43D1-A4CD-D302F8246EAB}"/>
+    <hyperlink ref="C4" r:id="rId39" xr:uid="{A9B3E11E-DA4C-432B-9EA4-560C3B1DE7F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -3358,18 +3431,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3467,7 +3540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3587,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3564,7 +3637,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3611,7 +3684,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3627,7 +3700,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3639,7 +3712,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3650,7 +3723,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3672,7 +3745,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3685,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3701,7 +3774,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3715,7 +3788,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3731,7 +3804,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3745,7 +3818,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3787,7 +3860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3813,7 +3886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3824,7 +3897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3839,7 +3912,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3897,12 +3970,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3973,7 +4046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4020,7 +4093,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4036,7 +4109,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4067,7 +4140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4075,7 +4148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4108,20 +4181,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4210,7 +4283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4258,7 +4331,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4274,7 +4347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4294,7 +4367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4313,7 +4386,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4332,7 +4405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4340,7 +4413,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4348,7 +4421,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4365,7 +4438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4382,7 +4455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4399,7 +4472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4416,7 +4489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4427,7 +4500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4438,7 +4511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4455,7 +4528,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4484,7 +4557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4495,7 +4568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4509,7 +4582,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4523,7 +4596,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4537,7 +4610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4545,7 +4618,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4575,7 +4648,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4645,19 +4718,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4683,7 +4756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4706,7 +4779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4737,16 +4810,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4833,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4786,27 +4859,27 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" customWidth="1"/>
-    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.109375" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -4865,7 +4938,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>228</v>
       </c>
@@ -4890,7 +4963,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>230</v>
       </c>
@@ -4919,7 +4992,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
@@ -4944,7 +5017,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>233</v>
       </c>
@@ -4971,7 +5044,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>236</v>
       </c>
@@ -5004,7 +5077,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>238</v>
       </c>
@@ -5029,7 +5102,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5054,7 +5127,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>281</v>
       </c>
@@ -5079,7 +5152,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>286</v>
       </c>
@@ -5106,7 +5179,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>319</v>
       </c>
@@ -5131,7 +5204,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5158,7 +5231,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
@@ -5183,7 +5256,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
@@ -5208,7 +5281,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>335</v>
       </c>
@@ -5233,7 +5306,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>338</v>
       </c>
@@ -5258,7 +5331,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>451</v>
       </c>
@@ -5266,7 +5339,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>452</v>
       </c>
@@ -5274,7 +5347,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>453</v>
       </c>
@@ -5296,31 +5369,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="24" width="30.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="27" width="22.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="24" width="30.5703125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="27" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5472,7 +5545,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5542,7 +5615,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -5612,7 +5685,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>458</v>
       </c>
@@ -5682,7 +5755,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>459</v>
       </c>
@@ -5752,7 +5825,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5822,7 +5895,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -5892,7 +5965,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>470</v>
       </c>
@@ -5933,7 +6006,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>471</v>
       </c>
@@ -5974,7 +6047,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>464</v>
       </c>
@@ -6044,7 +6117,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6105,7 +6178,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6164,7 +6237,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -6210,7 +6283,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6233,7 +6306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -6256,7 +6329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6275,7 +6348,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6286,7 +6359,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6308,7 +6381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>367</v>
       </c>
@@ -6321,7 +6394,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -6334,7 +6407,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6347,7 +6420,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6360,7 +6433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -6373,7 +6446,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -6386,7 +6459,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -6402,7 +6475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6418,7 +6491,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>402</v>
       </c>
@@ -6437,7 +6510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>406</v>
       </c>
@@ -6456,7 +6529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6472,7 +6545,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6488,7 +6561,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -6504,7 +6577,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>413</v>
       </c>
@@ -6520,7 +6593,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -6536,7 +6609,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -6549,7 +6622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6562,7 +6635,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>391</v>
       </c>
@@ -6575,7 +6648,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -6588,7 +6661,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6601,7 +6674,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -6617,7 +6690,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>424</v>
       </c>
@@ -6633,7 +6706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -6649,7 +6722,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -6662,7 +6735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -6684,7 +6757,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6702,7 +6775,7 @@
       <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -6715,7 +6788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -6735,7 +6808,7 @@
       <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6754,7 +6827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6767,7 +6840,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6778,7 +6851,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6791,7 +6864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6814,7 +6887,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6828,7 +6901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6865,7 +6938,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6879,7 +6952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -6921,7 +6994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -6947,7 +7020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6971,7 +7044,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -6995,7 +7068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7021,7 +7094,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7053,7 +7126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7067,7 +7140,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -7081,7 +7154,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7098,7 +7171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7115,7 +7188,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7137,7 +7210,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7145,7 +7218,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -7156,7 +7229,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -7173,7 +7246,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -7181,7 +7254,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -7216,7 +7289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -7307,36 +7380,36 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -7473,7 +7546,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7548,7 +7621,7 @@
       <c r="AR2" s="22"/>
       <c r="AS2" s="22"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7605,7 +7678,7 @@
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>248</v>
       </c>
@@ -7658,7 +7731,7 @@
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -7721,7 +7794,7 @@
       <c r="AR5" s="22"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -7800,7 +7873,7 @@
       <c r="AR6" s="22"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
@@ -7889,7 +7962,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
@@ -7972,7 +8045,7 @@
       <c r="AR8" s="22"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
@@ -8057,7 +8130,7 @@
       <c r="AR9" s="22"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
@@ -8108,7 +8181,7 @@
       <c r="AR10" s="22"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -8165,7 +8238,7 @@
       <c r="AR11" s="22"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -8240,7 +8313,7 @@
       <c r="AR12" s="22"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -8303,7 +8376,7 @@
       <c r="AR13" s="22"/>
       <c r="AS13" s="22"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>249</v>
       </c>
@@ -8358,7 +8431,7 @@
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>119</v>
       </c>
@@ -8415,7 +8488,7 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -8470,7 +8543,7 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>219</v>
       </c>
@@ -8525,7 +8598,7 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>154</v>
       </c>
@@ -8617,13 +8690,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8700,7 +8773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8730,25 +8803,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8849,7 +8922,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -8935,7 +9008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -8967,7 +9040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -8993,25 +9066,25 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9097,7 +9170,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9144,7 +9217,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9160,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9179,7 +9252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -9192,7 +9265,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -9205,7 +9278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -9216,7 +9289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9224,7 +9297,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -9232,7 +9305,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -9240,7 +9313,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -9259,7 +9332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9270,7 +9343,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -9285,7 +9358,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -9301,7 +9374,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9328,7 +9401,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9342,7 +9415,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -9358,7 +9431,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -9395,7 +9468,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -9403,7 +9476,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -9426,7 +9499,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9483,17 +9556,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -9528,7 +9601,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>243</v>
       </c>
@@ -9537,7 +9610,7 @@
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
@@ -9546,7 +9619,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
@@ -9555,7 +9628,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>313</v>
       </c>
@@ -9577,20 +9650,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9658,7 +9731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9702,7 +9775,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9718,7 +9791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -9736,7 +9809,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9744,7 +9817,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9752,7 +9825,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -9789,37 +9862,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9902,7 +9975,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9943,7 +10016,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9959,7 +10032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -9971,7 +10044,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9989,7 +10062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9998,7 +10071,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -10010,7 +10083,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10036,7 +10109,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10047,7 +10120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10061,7 +10134,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1EA54-6E1E-45AC-B20E-D6B52A2E295F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D95BBF-2EF8-40F9-8A3A-FCFA3829DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="530">
   <si>
     <t>UserName</t>
   </si>
@@ -1640,6 +1640,15 @@
   </si>
   <si>
     <t>B1 1UD</t>
+  </si>
+  <si>
+    <t>41 Great King Street</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>B19 3AS</t>
   </si>
 </sst>
 </file>
@@ -2173,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,16 +2390,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="T2" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="V2" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D95BBF-2EF8-40F9-8A3A-FCFA3829DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA872DC-CA8B-4E86-A5FF-2447AB368509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="532">
   <si>
     <t>UserName</t>
   </si>
@@ -1649,6 +1649,12 @@
   </si>
   <si>
     <t>B19 3AS</t>
+  </si>
+  <si>
+    <t>Express Paypal</t>
+  </si>
+  <si>
+    <t>Qa Test - 69 Aire Street, Knottingley, WEST YORKSHIRE, WF11 9AZ</t>
   </si>
 </sst>
 </file>
@@ -2180,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU51"/>
+  <dimension ref="A1:AU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,6 +3389,14 @@
       </c>
       <c r="P51" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>530</v>
+      </c>
+      <c r="S52" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -9071,8 +9085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA872DC-CA8B-4E86-A5FF-2447AB368509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{ADA872DC-CA8B-4E86-A5FF-2447AB368509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E6C548-07FB-4B82-A7BE-046737449FF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11952" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="534">
   <si>
     <t>UserName</t>
   </si>
@@ -1499,25 +1499,10 @@
     <t>24 oz,32 oz</t>
   </si>
   <si>
-    <t>Bottles,Cups &amp; Tumblers,Coffee &amp; Tea,Accessories</t>
-  </si>
-  <si>
-    <t>Insulated Totes,Soft Coolers</t>
-  </si>
-  <si>
     <t>Food Jars</t>
   </si>
   <si>
-    <t>Bottle Boots,Caps and Lids,Cleaning</t>
-  </si>
-  <si>
-    <t>Our Story,Contact,Refill For Good,Every Bottle Tells A Story</t>
-  </si>
-  <si>
     <t>Micro Hydro,Spring Style Guide,Fitness Collection</t>
-  </si>
-  <si>
-    <t>Exclusives,New Arrivals,Best Sellers</t>
   </si>
   <si>
     <t>HFEMEA20OFF</t>
@@ -1655,6 +1640,27 @@
   </si>
   <si>
     <t>Qa Test - 69 Aire Street, Knottingley, WEST YORKSHIRE, WF11 9AZ</t>
+  </si>
+  <si>
+    <t>Bottles,Travel Tumbler,Coffee &amp; Tea,Accessories</t>
+  </si>
+  <si>
+    <t>Bottle Boots,Caps &amp; Lids,Cleaning</t>
+  </si>
+  <si>
+    <t>New Arrivals,Best Sellers</t>
+  </si>
+  <si>
+    <t>Our Story,Contact,Refill For Good,Blog</t>
+  </si>
+  <si>
+    <t>Food Jars,Insulated Totes,Soft Coolers</t>
+  </si>
+  <si>
+    <t>Shopby Collections</t>
+  </si>
+  <si>
+    <t>Micro Hydro</t>
   </si>
 </sst>
 </file>
@@ -2188,34 +2194,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2358,15 +2364,15 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2381,10 +2387,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2396,16 +2402,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="T2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="V2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2413,15 +2419,15 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2436,10 +2442,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2451,16 +2457,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="T3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="V3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2468,15 +2474,15 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2491,10 +2497,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2506,16 +2512,16 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="T4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="V4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="W4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>59</v>
@@ -2523,7 +2529,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>360</v>
       </c>
@@ -2563,7 +2569,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -2601,16 +2607,16 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="T6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="V6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>59</v>
@@ -2618,7 +2624,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2674,12 +2680,12 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="4"/>
@@ -2687,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>445</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2851,13 +2857,13 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="AI21" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AJ21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2989,25 +2995,25 @@
         <v>15</v>
       </c>
       <c r="S27" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="T27" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="U27" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V27" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3024,16 +3030,16 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I29" s="2"/>
       <c r="W29" s="5"/>
@@ -3041,7 +3047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3052,25 +3058,25 @@
         <v>15</v>
       </c>
       <c r="S30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="T30" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="U30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V30" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3110,25 +3116,25 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="T33" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="U33" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V33" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>284</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>340</v>
       </c>
@@ -3215,14 +3221,14 @@
         <v>342</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>356</v>
       </c>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -3238,13 +3244,13 @@
         <v>431</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -3255,21 +3261,21 @@
         <v>350</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AO42" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>354</v>
       </c>
       <c r="P43" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>364</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>433</v>
       </c>
@@ -3320,15 +3326,15 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>434</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
         <v>153</v>
       </c>
@@ -3375,28 +3381,28 @@
       </c>
       <c r="AE49" s="35"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>449</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P51" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="S52" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3454,18 +3460,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3610,7 +3616,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3660,7 +3666,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3707,7 +3713,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3735,7 +3741,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3746,7 +3752,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3935,7 +3941,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3993,12 +3999,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4116,7 +4122,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4163,7 +4169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4204,20 +4210,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4354,7 +4360,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4436,7 +4442,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4619,7 +4625,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4633,7 +4639,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4671,7 +4677,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4741,19 +4747,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4779,7 +4785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4833,16 +4839,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4856,12 +4862,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>261</v>
@@ -4876,33 +4882,33 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA7450-0FE7-4C50-95DC-266117BAF81B}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I18" activeCellId="1" sqref="J20 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" customWidth="1"/>
+    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -4961,12 +4967,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4986,7 +4992,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>230</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>265</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>276</v>
@@ -5015,7 +5021,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
@@ -5027,7 +5033,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -5040,7 +5046,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>233</v>
       </c>
@@ -5055,7 +5061,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="32"/>
       <c r="J5" s="22" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -5067,7 +5073,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>236</v>
       </c>
@@ -5100,7 +5106,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>238</v>
       </c>
@@ -5116,7 +5122,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="30" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5125,7 +5131,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5150,7 +5156,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>281</v>
       </c>
@@ -5158,7 +5164,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -5175,7 +5181,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>286</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>319</v>
       </c>
@@ -5227,7 +5233,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5237,7 +5243,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="37" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>468</v>
@@ -5254,7 +5260,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
@@ -5279,7 +5285,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
@@ -5304,7 +5310,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>335</v>
       </c>
@@ -5329,7 +5335,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>338</v>
       </c>
@@ -5354,7 +5360,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>451</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>452</v>
       </c>
@@ -5370,12 +5376,20 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>453</v>
       </c>
       <c r="Q19" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>532</v>
+      </c>
+      <c r="J20" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -5392,31 +5406,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" customWidth="1"/>
-    <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="24" width="30.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5568,7 +5582,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5638,7 +5652,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -5708,7 +5722,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>458</v>
       </c>
@@ -5778,7 +5792,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>459</v>
       </c>
@@ -5848,7 +5862,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5918,7 +5932,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -5988,7 +6002,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>470</v>
       </c>
@@ -6029,7 +6043,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>471</v>
       </c>
@@ -6070,7 +6084,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>464</v>
       </c>
@@ -6140,7 +6154,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6201,7 +6215,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6260,7 +6274,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -6306,7 +6320,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6329,7 +6343,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -6352,7 +6366,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6371,7 +6385,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6382,7 +6396,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6404,7 +6418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>367</v>
       </c>
@@ -6417,7 +6431,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -6430,7 +6444,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6443,7 +6457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6456,7 +6470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -6469,7 +6483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -6482,7 +6496,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -6498,7 +6512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6514,7 +6528,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>402</v>
       </c>
@@ -6533,7 +6547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>406</v>
       </c>
@@ -6552,7 +6566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6568,7 +6582,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6584,7 +6598,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -6600,7 +6614,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>413</v>
       </c>
@@ -6616,7 +6630,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -6632,7 +6646,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -6645,7 +6659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6658,7 +6672,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>391</v>
       </c>
@@ -6671,7 +6685,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -6684,7 +6698,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6697,7 +6711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -6713,7 +6727,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>424</v>
       </c>
@@ -6729,7 +6743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -6745,7 +6759,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -6758,7 +6772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -6780,7 +6794,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6798,7 +6812,7 @@
       <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -6811,7 +6825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -6831,7 +6845,7 @@
       <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6850,7 +6864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6863,7 +6877,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6874,7 +6888,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6887,7 +6901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6910,7 +6924,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6924,7 +6938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6961,7 +6975,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6975,7 +6989,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7017,7 +7031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -7043,7 +7057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -7067,7 +7081,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -7091,7 +7105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7117,7 +7131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7149,7 +7163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7163,7 +7177,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -7177,7 +7191,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7194,7 +7208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7211,7 +7225,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7233,7 +7247,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7241,7 +7255,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -7252,7 +7266,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -7269,7 +7283,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -7277,7 +7291,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -7312,7 +7326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -7403,36 +7417,36 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -7569,7 +7583,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7601,16 +7615,16 @@
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q2" s="22">
         <v>9898989898</v>
@@ -7644,7 +7658,7 @@
       <c r="AR2" s="22"/>
       <c r="AS2" s="22"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7701,7 +7715,7 @@
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>248</v>
       </c>
@@ -7754,7 +7768,7 @@
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -7771,7 +7785,7 @@
         <v>333</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="22"/>
@@ -7817,7 +7831,7 @@
       <c r="AR5" s="22"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -7842,21 +7856,21 @@
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="22">
         <v>9898989898</v>
@@ -7896,12 +7910,12 @@
       <c r="AR6" s="22"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="22"/>
@@ -7915,23 +7929,23 @@
         <v>96</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q7" s="22">
         <v>9898989898</v>
@@ -7985,12 +7999,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="22"/>
@@ -8004,23 +8018,23 @@
         <v>96</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="22">
         <v>9898989898</v>
@@ -8068,12 +8082,12 @@
       <c r="AR8" s="22"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="22"/>
@@ -8087,23 +8101,23 @@
         <v>96</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q9" s="22">
         <v>9898989898</v>
@@ -8153,7 +8167,7 @@
       <c r="AR9" s="22"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
@@ -8204,7 +8218,7 @@
       <c r="AR10" s="22"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -8261,7 +8275,7 @@
       <c r="AR11" s="22"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -8278,23 +8292,23 @@
         <v>67</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q12" s="22">
         <v>9898989898</v>
@@ -8336,7 +8350,7 @@
       <c r="AR12" s="22"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -8353,7 +8367,7 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="22"/>
@@ -8399,7 +8413,7 @@
       <c r="AR13" s="22"/>
       <c r="AS13" s="22"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>249</v>
       </c>
@@ -8454,7 +8468,7 @@
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>119</v>
       </c>
@@ -8511,7 +8525,7 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -8566,7 +8580,7 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>219</v>
       </c>
@@ -8581,7 +8595,7 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="22"/>
@@ -8621,7 +8635,7 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>154</v>
       </c>
@@ -8713,13 +8727,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8796,7 +8810,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8826,25 +8840,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8945,7 +8959,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -9031,7 +9045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -9063,7 +9077,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -9089,25 +9103,25 @@
       <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9193,7 +9207,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9223,16 +9237,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -9240,7 +9254,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9256,7 +9270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9275,7 +9289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -9288,7 +9302,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -9301,7 +9315,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -9312,7 +9326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9320,15 +9334,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -9336,7 +9350,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -9355,7 +9369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9366,22 +9380,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -9391,13 +9405,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Z14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9408,23 +9422,23 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L15" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9438,7 +9452,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -9454,7 +9468,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -9491,7 +9505,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -9499,7 +9513,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -9522,7 +9536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9579,17 +9593,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -9624,34 +9638,34 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>313</v>
       </c>
@@ -9673,20 +9687,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9754,15 +9768,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9777,7 +9791,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9798,7 +9812,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9814,25 +9828,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="T4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9840,7 +9854,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9848,21 +9862,21 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
       <c r="S7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="T7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -9885,37 +9899,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9998,7 +10012,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10039,7 +10053,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10055,7 +10069,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -10067,7 +10081,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10085,7 +10099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10094,7 +10108,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -10106,7 +10120,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10132,7 +10146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10143,7 +10157,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10157,7 +10171,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{ADA872DC-CA8B-4E86-A5FF-2447AB368509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E6C548-07FB-4B82-A7BE-046737449FF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED940B8-D354-4BEC-8B40-F9EBDE1402FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11952" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="533">
   <si>
     <t>UserName</t>
   </si>
@@ -1455,9 +1455,6 @@
   </si>
   <si>
     <t>Jelly Collection,Fitness Collection,Kid,Micro Hydro,Spring Style Guide,Mini Collection,Cupholder Compatible,Engrave Your Faves</t>
-  </si>
-  <si>
-    <t>rgaddam@helenoftroy.com</t>
   </si>
   <si>
     <t>AccountDetails_TC6</t>
@@ -2194,34 +2191,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU52"/>
   <sheetViews>
-    <sheetView topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="18" width="30.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2364,15 +2361,15 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2387,10 +2384,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2402,16 +2399,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>521</v>
+      </c>
+      <c r="T2" t="s">
+        <v>519</v>
+      </c>
+      <c r="V2" t="s">
         <v>522</v>
       </c>
-      <c r="T2" t="s">
-        <v>520</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2419,15 +2416,15 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2442,10 +2439,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2457,16 +2454,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
+        <v>486</v>
+      </c>
+      <c r="T3" t="s">
         <v>487</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>488</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2474,15 +2471,15 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2497,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2512,16 +2509,16 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="T4" t="s">
         <v>519</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>488</v>
+      </c>
+      <c r="W4" t="s">
         <v>520</v>
-      </c>
-      <c r="V4" t="s">
-        <v>489</v>
-      </c>
-      <c r="W4" t="s">
-        <v>521</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>59</v>
@@ -2529,15 +2526,15 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>360</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>296</v>
+        <v>509</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>296</v>
+        <v>509</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2552,9 +2549,11 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2569,7 +2568,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -2607,16 +2606,16 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" t="s">
+        <v>486</v>
+      </c>
+      <c r="T6" t="s">
         <v>487</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>488</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>59</v>
@@ -2624,7 +2623,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2680,12 +2679,12 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="4"/>
@@ -2693,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>445</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2834,7 +2833,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2857,13 +2856,13 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="AI21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2995,51 +2994,51 @@
         <v>15</v>
       </c>
       <c r="S27" t="s">
+        <v>502</v>
+      </c>
+      <c r="T27" t="s">
+        <v>504</v>
+      </c>
+      <c r="U27" t="s">
+        <v>492</v>
+      </c>
+      <c r="V27" t="s">
         <v>503</v>
       </c>
-      <c r="T27" t="s">
+      <c r="W27" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="U27" t="s">
-        <v>493</v>
-      </c>
-      <c r="V27" t="s">
-        <v>504</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I29" s="2"/>
       <c r="W29" s="5"/>
@@ -3047,7 +3046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3058,25 +3057,25 @@
         <v>15</v>
       </c>
       <c r="S30" t="s">
+        <v>502</v>
+      </c>
+      <c r="T30" t="s">
+        <v>504</v>
+      </c>
+      <c r="U30" t="s">
+        <v>492</v>
+      </c>
+      <c r="V30" t="s">
         <v>503</v>
       </c>
-      <c r="T30" t="s">
+      <c r="W30" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="U30" t="s">
-        <v>493</v>
-      </c>
-      <c r="V30" t="s">
-        <v>504</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3116,25 +3115,25 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" t="s">
+        <v>502</v>
+      </c>
+      <c r="T33" t="s">
+        <v>504</v>
+      </c>
+      <c r="U33" t="s">
+        <v>492</v>
+      </c>
+      <c r="V33" t="s">
         <v>503</v>
       </c>
-      <c r="T33" t="s">
+      <c r="W33" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="U33" t="s">
-        <v>493</v>
-      </c>
-      <c r="V33" t="s">
-        <v>504</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>284</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>340</v>
       </c>
@@ -3221,14 +3220,14 @@
         <v>342</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>356</v>
       </c>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -3244,13 +3243,13 @@
         <v>431</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -3261,21 +3260,21 @@
         <v>350</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO42" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>354</v>
       </c>
       <c r="P43" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>364</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>433</v>
       </c>
@@ -3326,15 +3325,15 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>434</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>153</v>
       </c>
@@ -3381,28 +3380,28 @@
       </c>
       <c r="AE49" s="35"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>449</v>
       </c>
       <c r="P50" s="28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P51" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>524</v>
+      </c>
+      <c r="S52" t="s">
         <v>525</v>
-      </c>
-      <c r="S52" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3411,44 +3410,47 @@
     <hyperlink ref="D19" r:id="rId2" display="Lotuswave@123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="H25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AL19" r:id="rId7" xr:uid="{081C5E6B-B750-4DF9-A406-8CFA5CF35321}"/>
-    <hyperlink ref="H33" r:id="rId8" xr:uid="{E7117AFE-BF51-4362-86E8-EC31CD714F35}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{2D39057E-A748-4174-BA59-49433F76661C}"/>
-    <hyperlink ref="H34" r:id="rId10" xr:uid="{7ECA06F7-0F76-44C2-9FB9-4179E4310E54}"/>
-    <hyperlink ref="B2" r:id="rId11" xr:uid="{B14C1544-364C-4E03-A43F-D19E66177301}"/>
-    <hyperlink ref="I2" r:id="rId12" xr:uid="{AA16F981-3056-4646-A2C1-ECE17E4E92D7}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{6B47FB1F-967B-4003-9184-BEF0C984D5EA}"/>
-    <hyperlink ref="H28" r:id="rId14" xr:uid="{64862719-EAD4-4268-AF34-CDC0319543E7}"/>
-    <hyperlink ref="I28" r:id="rId15" xr:uid="{8EE57DBF-CF86-4B54-B5B4-2B9596DA7CE9}"/>
-    <hyperlink ref="D3" r:id="rId16" xr:uid="{43D25ADB-4E4D-4766-8BDD-9478BEC1A271}"/>
-    <hyperlink ref="E3" r:id="rId17" xr:uid="{26E68202-5CE3-42C9-9DA5-1788DD83F3DD}"/>
-    <hyperlink ref="AC14" r:id="rId18" display="https://mcloud-na-preprod.hydroflask.com/wide-mouth-flex-cap?color=Black" xr:uid="{29EA729C-67AB-4332-AD2E-87301AAE2E8C}"/>
-    <hyperlink ref="H42" r:id="rId19" xr:uid="{7950AECF-C1F8-4C97-8F40-50E8B8819E85}"/>
-    <hyperlink ref="B44" r:id="rId20" xr:uid="{F8F2B0AD-86F8-4E80-8B1A-138B21EB05DB}"/>
-    <hyperlink ref="D44" r:id="rId21" xr:uid="{F252BFF6-7553-465C-B03F-0EDCA58E86DD}"/>
-    <hyperlink ref="H44" r:id="rId22" xr:uid="{819E02F2-2ED2-485D-85EB-576F27665CFC}"/>
-    <hyperlink ref="E6" r:id="rId23" xr:uid="{1D5FD444-4596-442E-BAE6-C911BFAC6718}"/>
-    <hyperlink ref="D6" r:id="rId24" xr:uid="{193852EB-47AA-454A-91E5-A4E8624ADA13}"/>
-    <hyperlink ref="B6" r:id="rId25" xr:uid="{450F9719-F0D6-46E4-A813-0721F12125A4}"/>
-    <hyperlink ref="I6" r:id="rId26" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{4B3C7CD9-EB98-4907-833E-9C41C9ADEE76}"/>
-    <hyperlink ref="C6" r:id="rId27" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{72A898E1-E814-40B9-9CCE-853A961F2109}"/>
-    <hyperlink ref="H6" r:id="rId28" xr:uid="{4A93039F-9FB8-42CB-9ACE-C0BE7F576AAE}"/>
-    <hyperlink ref="D28" r:id="rId29" xr:uid="{ADDAE6FC-BD5F-4B77-8488-C7AA571E5B74}"/>
-    <hyperlink ref="B3" r:id="rId30" xr:uid="{4C8A5F37-6801-432A-83D9-87956E37DC33}"/>
-    <hyperlink ref="C3" r:id="rId31" xr:uid="{98DA5743-5463-4C67-80BC-A5B72466CF09}"/>
-    <hyperlink ref="H3" r:id="rId32" xr:uid="{8BB37601-C38B-45F2-8233-C6E902C59024}"/>
-    <hyperlink ref="I3" r:id="rId33" xr:uid="{867E547C-77C0-4645-B477-E04A428B234D}"/>
-    <hyperlink ref="H4" r:id="rId34" xr:uid="{E7256B83-DC26-4708-AE9C-81FB186678F7}"/>
-    <hyperlink ref="E4" r:id="rId35" xr:uid="{D50736A5-4DBC-478E-9DE0-ABB9D0062209}"/>
-    <hyperlink ref="D4" r:id="rId36" xr:uid="{69779EF0-F236-481C-A058-70D6A46D05A2}"/>
-    <hyperlink ref="B4" r:id="rId37" xr:uid="{D3894DA7-9C12-4B05-8D36-237B29B85F74}"/>
-    <hyperlink ref="I4" r:id="rId38" xr:uid="{80743E67-671B-43D1-A4CD-D302F8246EAB}"/>
-    <hyperlink ref="C4" r:id="rId39" xr:uid="{A9B3E11E-DA4C-432B-9EA4-560C3B1DE7F8}"/>
+    <hyperlink ref="H29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AL19" r:id="rId6" xr:uid="{081C5E6B-B750-4DF9-A406-8CFA5CF35321}"/>
+    <hyperlink ref="H33" r:id="rId7" xr:uid="{E7117AFE-BF51-4362-86E8-EC31CD714F35}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{2D39057E-A748-4174-BA59-49433F76661C}"/>
+    <hyperlink ref="H34" r:id="rId9" xr:uid="{7ECA06F7-0F76-44C2-9FB9-4179E4310E54}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{B14C1544-364C-4E03-A43F-D19E66177301}"/>
+    <hyperlink ref="I2" r:id="rId11" xr:uid="{AA16F981-3056-4646-A2C1-ECE17E4E92D7}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{6B47FB1F-967B-4003-9184-BEF0C984D5EA}"/>
+    <hyperlink ref="D3" r:id="rId13" xr:uid="{43D25ADB-4E4D-4766-8BDD-9478BEC1A271}"/>
+    <hyperlink ref="E3" r:id="rId14" xr:uid="{26E68202-5CE3-42C9-9DA5-1788DD83F3DD}"/>
+    <hyperlink ref="AC14" r:id="rId15" display="https://mcloud-na-preprod.hydroflask.com/wide-mouth-flex-cap?color=Black" xr:uid="{29EA729C-67AB-4332-AD2E-87301AAE2E8C}"/>
+    <hyperlink ref="H42" r:id="rId16" xr:uid="{7950AECF-C1F8-4C97-8F40-50E8B8819E85}"/>
+    <hyperlink ref="B44" r:id="rId17" xr:uid="{F8F2B0AD-86F8-4E80-8B1A-138B21EB05DB}"/>
+    <hyperlink ref="D44" r:id="rId18" xr:uid="{F252BFF6-7553-465C-B03F-0EDCA58E86DD}"/>
+    <hyperlink ref="H44" r:id="rId19" xr:uid="{819E02F2-2ED2-485D-85EB-576F27665CFC}"/>
+    <hyperlink ref="E6" r:id="rId20" xr:uid="{1D5FD444-4596-442E-BAE6-C911BFAC6718}"/>
+    <hyperlink ref="D6" r:id="rId21" xr:uid="{193852EB-47AA-454A-91E5-A4E8624ADA13}"/>
+    <hyperlink ref="B6" r:id="rId22" xr:uid="{450F9719-F0D6-46E4-A813-0721F12125A4}"/>
+    <hyperlink ref="I6" r:id="rId23" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{4B3C7CD9-EB98-4907-833E-9C41C9ADEE76}"/>
+    <hyperlink ref="C6" r:id="rId24" display="LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{72A898E1-E814-40B9-9CCE-853A961F2109}"/>
+    <hyperlink ref="H6" r:id="rId25" xr:uid="{4A93039F-9FB8-42CB-9ACE-C0BE7F576AAE}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{ADDAE6FC-BD5F-4B77-8488-C7AA571E5B74}"/>
+    <hyperlink ref="B3" r:id="rId27" xr:uid="{4C8A5F37-6801-432A-83D9-87956E37DC33}"/>
+    <hyperlink ref="C3" r:id="rId28" xr:uid="{98DA5743-5463-4C67-80BC-A5B72466CF09}"/>
+    <hyperlink ref="H3" r:id="rId29" xr:uid="{8BB37601-C38B-45F2-8233-C6E902C59024}"/>
+    <hyperlink ref="I3" r:id="rId30" xr:uid="{867E547C-77C0-4645-B477-E04A428B234D}"/>
+    <hyperlink ref="H4" r:id="rId31" xr:uid="{E7256B83-DC26-4708-AE9C-81FB186678F7}"/>
+    <hyperlink ref="E4" r:id="rId32" xr:uid="{D50736A5-4DBC-478E-9DE0-ABB9D0062209}"/>
+    <hyperlink ref="D4" r:id="rId33" xr:uid="{69779EF0-F236-481C-A058-70D6A46D05A2}"/>
+    <hyperlink ref="B4" r:id="rId34" xr:uid="{D3894DA7-9C12-4B05-8D36-237B29B85F74}"/>
+    <hyperlink ref="I4" r:id="rId35" xr:uid="{80743E67-671B-43D1-A4CD-D302F8246EAB}"/>
+    <hyperlink ref="C4" r:id="rId36" xr:uid="{A9B3E11E-DA4C-432B-9EA4-560C3B1DE7F8}"/>
+    <hyperlink ref="B5" r:id="rId37" xr:uid="{1A2204FF-FA87-450C-B7A8-D6C45DF20846}"/>
+    <hyperlink ref="C5" r:id="rId38" xr:uid="{3B75E376-FC70-49B2-944E-50BA6A419594}"/>
+    <hyperlink ref="H5" r:id="rId39" xr:uid="{FE35CC26-D326-47B6-9D1E-B2E9811E21D2}"/>
+    <hyperlink ref="I5" r:id="rId40" xr:uid="{92993A7C-001C-4FE6-9125-B4B00E04A753}"/>
+    <hyperlink ref="H28" r:id="rId41" xr:uid="{22165C55-D8F7-4059-A2E1-F084718509FB}"/>
+    <hyperlink ref="I28" r:id="rId42" xr:uid="{42C11063-5B1A-455C-98C2-65B906145796}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -3460,18 +3462,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3569,15 +3571,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3592,10 +3594,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3616,15 +3618,15 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3639,10 +3641,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3666,15 +3668,15 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3689,10 +3691,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3713,7 +3715,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3729,7 +3731,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3741,7 +3743,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3752,7 +3754,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3787,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3847,7 +3849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3855,7 +3857,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3889,7 +3891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3941,7 +3943,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3999,12 +4001,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4075,15 +4077,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4098,10 +4100,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4122,7 +4124,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4138,15 +4140,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4169,7 +4171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4210,20 +4212,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4312,15 +4314,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4335,10 +4337,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4360,7 +4362,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4376,7 +4378,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4442,7 +4444,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4450,7 +4452,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4529,7 +4531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4586,7 +4588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4597,7 +4599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4647,7 +4649,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4677,7 +4679,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4747,19 +4749,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4785,15 +4787,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4808,7 +4810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4839,16 +4841,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4862,12 +4864,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>261</v>
@@ -4884,31 +4886,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA7450-0FE7-4C50-95DC-266117BAF81B}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I18" activeCellId="1" sqref="J20 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" customWidth="1"/>
-    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.109375" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -4967,12 +4969,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4992,7 +4994,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>230</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>265</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>276</v>
@@ -5021,7 +5023,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
@@ -5033,7 +5035,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -5046,7 +5048,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>233</v>
       </c>
@@ -5061,7 +5063,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="32"/>
       <c r="J5" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -5073,7 +5075,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>236</v>
       </c>
@@ -5106,7 +5108,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>238</v>
       </c>
@@ -5122,7 +5124,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5131,7 +5133,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5156,7 +5158,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>281</v>
       </c>
@@ -5164,7 +5166,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -5181,7 +5183,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>286</v>
       </c>
@@ -5208,7 +5210,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>319</v>
       </c>
@@ -5233,7 +5235,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5243,7 +5245,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>468</v>
@@ -5260,7 +5262,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
@@ -5285,7 +5287,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
@@ -5310,13 +5312,13 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>335</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -5335,7 +5337,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>338</v>
       </c>
@@ -5360,7 +5362,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>451</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>452</v>
       </c>
@@ -5376,7 +5378,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>453</v>
       </c>
@@ -5384,12 +5386,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>531</v>
+      </c>
+      <c r="J20" t="s">
         <v>532</v>
-      </c>
-      <c r="J20" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -5406,31 +5408,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="24" width="30.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="27" width="22.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="24" width="30.5703125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="27" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5652,12 +5654,12 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>456</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>274</v>
@@ -5722,12 +5724,12 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>458</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>274</v>
@@ -5792,12 +5794,12 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>459</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>274</v>
@@ -5862,12 +5864,12 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>274</v>
@@ -5932,12 +5934,12 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>466</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>274</v>
@@ -6002,12 +6004,12 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -6043,12 +6045,12 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -6084,12 +6086,12 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>464</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>274</v>
@@ -6154,7 +6156,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6215,7 +6217,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6274,7 +6276,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -6320,7 +6322,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6385,7 +6387,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6396,7 +6398,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6418,7 +6420,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>367</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -6512,7 +6514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>402</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>406</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>413</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>391</v>
       </c>
@@ -6685,7 +6687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -6727,7 +6729,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>424</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -6759,7 +6761,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6812,7 +6814,7 @@
       <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -6845,7 +6847,7 @@
       <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6888,7 +6890,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6938,7 +6940,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7177,7 +7179,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7247,7 +7249,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7255,7 +7257,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -7417,36 +7419,36 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7615,16 +7617,16 @@
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="Q2" s="22">
         <v>9898989898</v>
@@ -7658,7 +7660,7 @@
       <c r="AR2" s="22"/>
       <c r="AS2" s="22"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7715,7 +7717,7 @@
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>248</v>
       </c>
@@ -7768,7 +7770,7 @@
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -7785,7 +7787,7 @@
         <v>333</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="22"/>
@@ -7831,7 +7833,7 @@
       <c r="AR5" s="22"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -7856,21 +7858,21 @@
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="O6" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="P6" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="Q6" s="22">
         <v>9898989898</v>
@@ -7910,12 +7912,12 @@
       <c r="AR6" s="22"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="22"/>
@@ -7929,23 +7931,23 @@
         <v>96</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="M7" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="Q7" s="22">
         <v>9898989898</v>
@@ -7999,12 +8001,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="22"/>
@@ -8018,23 +8020,23 @@
         <v>96</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="22" t="s">
         <v>100</v>
       </c>
       <c r="M8" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="P8" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="Q8" s="22">
         <v>9898989898</v>
@@ -8082,12 +8084,12 @@
       <c r="AR8" s="22"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="22"/>
@@ -8101,23 +8103,23 @@
         <v>96</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="P9" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="Q9" s="22">
         <v>9898989898</v>
@@ -8167,7 +8169,7 @@
       <c r="AR9" s="22"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
@@ -8218,7 +8220,7 @@
       <c r="AR10" s="22"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -8275,7 +8277,7 @@
       <c r="AR11" s="22"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -8292,23 +8294,23 @@
         <v>67</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="O12" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="P12" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="Q12" s="22">
         <v>9898989898</v>
@@ -8350,7 +8352,7 @@
       <c r="AR12" s="22"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -8367,7 +8369,7 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="22"/>
@@ -8413,7 +8415,7 @@
       <c r="AR13" s="22"/>
       <c r="AS13" s="22"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>249</v>
       </c>
@@ -8468,7 +8470,7 @@
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>119</v>
       </c>
@@ -8525,7 +8527,7 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -8580,7 +8582,7 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>219</v>
       </c>
@@ -8595,7 +8597,7 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="22"/>
@@ -8635,7 +8637,7 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>154</v>
       </c>
@@ -8727,13 +8729,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8840,25 +8842,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8959,7 +8961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -9045,7 +9047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -9077,7 +9079,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -9103,25 +9105,25 @@
       <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9207,7 +9209,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9237,16 +9239,16 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L2" t="s">
         <v>487</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>488</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>59</v>
@@ -9254,7 +9256,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9289,7 +9291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -9302,7 +9304,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -9315,7 +9317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9334,15 +9336,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9380,22 +9382,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I13" s="2"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -9405,13 +9407,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="Y14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9422,23 +9424,23 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>490</v>
+      </c>
+      <c r="L15" t="s">
         <v>491</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>492</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>493</v>
-      </c>
-      <c r="N15" t="s">
-        <v>494</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9452,7 +9454,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -9536,7 +9538,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9593,17 +9595,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -9638,40 +9640,40 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>313</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -9687,20 +9689,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9768,15 +9770,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9791,7 +9793,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9812,7 +9814,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9828,25 +9830,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
+        <v>499</v>
+      </c>
+      <c r="T4" t="s">
+        <v>499</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="T4" t="s">
-        <v>500</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9854,7 +9856,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9862,21 +9864,21 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
       <c r="S7" t="s">
+        <v>499</v>
+      </c>
+      <c r="T7" t="s">
+        <v>499</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="T7" t="s">
-        <v>500</v>
-      </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="12" t="s">
         <v>501</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -9899,37 +9901,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10012,12 +10014,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -10032,7 +10034,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
@@ -10053,7 +10055,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -10081,7 +10083,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10108,7 +10110,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -10120,7 +10122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10171,7 +10173,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED940B8-D354-4BEC-8B40-F9EBDE1402FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE2128-8FDC-4B87-A45D-63A62E37D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="537">
   <si>
     <t>UserName</t>
   </si>
@@ -1659,16 +1659,28 @@
   <si>
     <t>Micro Hydro</t>
   </si>
+  <si>
+    <t>PLP Product</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Caps &amp; Lids</t>
+  </si>
+  <si>
+    <t>24 oz Travel Tumbler - Black</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,6 +1814,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1842,12 +1860,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1877,7 +1895,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1908,6 +1926,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2189,36 +2208,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU52"/>
+  <dimension ref="A1:AV53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2354,14 +2373,17 @@
       <c r="AS1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2438,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -2471,7 +2493,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>517</v>
       </c>
@@ -2526,7 +2548,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>360</v>
       </c>
@@ -2568,7 +2590,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -2623,7 +2645,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2639,7 +2661,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -2651,7 +2673,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -2667,7 +2689,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2679,7 +2701,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -2692,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2711,7 +2733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -2724,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2748,11 +2770,11 @@
       <c r="AH14">
         <v>1</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>445</v>
       </c>
@@ -2766,7 +2788,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -2785,7 +2807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2798,7 +2820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2809,7 +2831,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2833,7 +2855,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2846,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2862,7 +2884,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2876,7 +2898,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2913,7 +2935,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2969,7 +2991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2983,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3012,7 +3034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3029,7 +3051,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -3046,7 +3068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3075,7 +3097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -3083,7 +3105,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3094,7 +3116,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3133,7 +3155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -3148,7 +3170,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -3156,7 +3178,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>284</v>
       </c>
@@ -3170,7 +3192,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3187,7 +3209,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -3204,7 +3226,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>340</v>
       </c>
@@ -3227,7 +3249,7 @@
       </c>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -3235,7 +3257,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -3249,7 +3271,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -3266,7 +3288,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>354</v>
       </c>
@@ -3274,7 +3296,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -3309,7 +3331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>364</v>
       </c>
@@ -3317,7 +3339,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>433</v>
       </c>
@@ -3325,7 +3347,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>434</v>
       </c>
@@ -3333,15 +3355,18 @@
         <v>515</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
-      <c r="AT48" s="33" t="s">
+      <c r="AT48" t="s">
+        <v>535</v>
+      </c>
+      <c r="AU48" s="33" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
         <v>153</v>
       </c>
@@ -3380,7 +3405,7 @@
       </c>
       <c r="AE49" s="35"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>449</v>
       </c>
@@ -3388,7 +3413,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>513</v>
       </c>
@@ -3396,12 +3421,20 @@
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>524</v>
       </c>
       <c r="S52" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC53" s="12" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -3448,9 +3481,10 @@
     <hyperlink ref="I5" r:id="rId40" xr:uid="{92993A7C-001C-4FE6-9125-B4B00E04A753}"/>
     <hyperlink ref="H28" r:id="rId41" xr:uid="{22165C55-D8F7-4059-A2E1-F084718509FB}"/>
     <hyperlink ref="I28" r:id="rId42" xr:uid="{42C11063-5B1A-455C-98C2-65B906145796}"/>
+    <hyperlink ref="AC53" r:id="rId43" display="https://mcloud-na-stage4.hydroflask.com/gb/hydroflask-24-oz-travel-tumbler-black" xr:uid="{641B22C5-1E50-466C-8002-3D1A661FD7B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
@@ -3462,18 +3496,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3605,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3652,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3668,7 +3702,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3715,7 +3749,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3731,7 +3765,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3743,7 +3777,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3754,7 +3788,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3776,7 +3810,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3789,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3805,7 +3839,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3819,7 +3853,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3835,7 +3869,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3849,7 +3883,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3891,7 +3925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3917,7 +3951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3928,7 +3962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3943,7 +3977,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -4001,12 +4035,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4077,7 +4111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4124,7 +4158,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4140,7 +4174,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4171,7 +4205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4179,7 +4213,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4212,20 +4246,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4314,7 +4348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4362,7 +4396,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4378,7 +4412,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4398,7 +4432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4417,7 +4451,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4436,7 +4470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4444,7 +4478,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4452,7 +4486,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4469,7 +4503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4486,7 +4520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4503,7 +4537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4520,7 +4554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4531,7 +4565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4542,7 +4576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4559,7 +4593,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4588,7 +4622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4599,7 +4633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4613,7 +4647,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4627,7 +4661,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4641,7 +4675,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4649,7 +4683,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4679,7 +4713,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4749,19 +4783,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4810,7 +4844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4841,16 +4875,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4864,7 +4898,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4890,27 +4924,27 @@
       <selection activeCell="I18" activeCellId="1" sqref="J20 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" customWidth="1"/>
+    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +5003,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>228</v>
       </c>
@@ -4994,7 +5028,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>230</v>
       </c>
@@ -5023,7 +5057,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
@@ -5048,7 +5082,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>233</v>
       </c>
@@ -5075,7 +5109,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>236</v>
       </c>
@@ -5108,7 +5142,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>238</v>
       </c>
@@ -5133,7 +5167,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5158,7 +5192,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>281</v>
       </c>
@@ -5183,7 +5217,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>286</v>
       </c>
@@ -5210,7 +5244,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>319</v>
       </c>
@@ -5235,7 +5269,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5262,7 +5296,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
@@ -5287,7 +5321,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
@@ -5312,7 +5346,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>335</v>
       </c>
@@ -5337,7 +5371,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>338</v>
       </c>
@@ -5362,7 +5396,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>451</v>
       </c>
@@ -5370,7 +5404,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>452</v>
       </c>
@@ -5378,7 +5412,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>453</v>
       </c>
@@ -5386,7 +5420,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>531</v>
       </c>
@@ -5408,31 +5442,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" customWidth="1"/>
-    <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="24" width="30.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5584,7 +5618,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5654,7 +5688,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -5724,7 +5758,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>458</v>
       </c>
@@ -5794,7 +5828,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>459</v>
       </c>
@@ -5864,7 +5898,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5934,7 +5968,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -6004,7 +6038,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>469</v>
       </c>
@@ -6045,7 +6079,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -6086,7 +6120,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>464</v>
       </c>
@@ -6156,7 +6190,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6217,7 +6251,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6276,7 +6310,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -6322,7 +6356,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6345,7 +6379,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -6368,7 +6402,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6387,7 +6421,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6398,7 +6432,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6420,7 +6454,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>367</v>
       </c>
@@ -6433,7 +6467,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -6446,7 +6480,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6459,7 +6493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6472,7 +6506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -6485,7 +6519,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -6498,7 +6532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -6514,7 +6548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6530,7 +6564,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>402</v>
       </c>
@@ -6549,7 +6583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>406</v>
       </c>
@@ -6568,7 +6602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6584,7 +6618,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6600,7 +6634,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -6616,7 +6650,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>413</v>
       </c>
@@ -6632,7 +6666,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -6648,7 +6682,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -6661,7 +6695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6674,7 +6708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>391</v>
       </c>
@@ -6687,7 +6721,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -6700,7 +6734,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6713,7 +6747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -6729,7 +6763,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>424</v>
       </c>
@@ -6745,7 +6779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -6761,7 +6795,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -6774,7 +6808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -6796,7 +6830,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6814,7 +6848,7 @@
       <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -6827,7 +6861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -6847,7 +6881,7 @@
       <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6866,7 +6900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6879,7 +6913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6890,7 +6924,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6903,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6926,7 +6960,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6940,7 +6974,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -6977,7 +7011,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -6991,7 +7025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7033,7 +7067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -7059,7 +7093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -7083,7 +7117,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -7107,7 +7141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7133,7 +7167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7165,7 +7199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7179,7 +7213,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -7193,7 +7227,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7210,7 +7244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7227,7 +7261,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7249,7 +7283,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7257,7 +7291,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -7268,7 +7302,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -7285,7 +7319,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -7293,7 +7327,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -7328,7 +7362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -7419,36 +7453,36 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -7585,7 +7619,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7660,7 +7694,7 @@
       <c r="AR2" s="22"/>
       <c r="AS2" s="22"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7717,7 +7751,7 @@
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>248</v>
       </c>
@@ -7770,7 +7804,7 @@
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -7833,7 +7867,7 @@
       <c r="AR5" s="22"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -7912,7 +7946,7 @@
       <c r="AR6" s="22"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
@@ -8001,7 +8035,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
@@ -8084,7 +8118,7 @@
       <c r="AR8" s="22"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
@@ -8169,7 +8203,7 @@
       <c r="AR9" s="22"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
@@ -8220,7 +8254,7 @@
       <c r="AR10" s="22"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -8277,7 +8311,7 @@
       <c r="AR11" s="22"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -8352,7 +8386,7 @@
       <c r="AR12" s="22"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -8415,7 +8449,7 @@
       <c r="AR13" s="22"/>
       <c r="AS13" s="22"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>249</v>
       </c>
@@ -8470,7 +8504,7 @@
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>119</v>
       </c>
@@ -8527,7 +8561,7 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -8582,7 +8616,7 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>219</v>
       </c>
@@ -8637,7 +8671,7 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>154</v>
       </c>
@@ -8729,13 +8763,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8812,7 +8846,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8842,25 +8876,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8961,7 +8995,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -9047,7 +9081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -9079,7 +9113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -9105,25 +9139,25 @@
       <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9209,7 +9243,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9256,7 +9290,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9272,7 +9306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9291,7 +9325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -9304,7 +9338,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -9317,7 +9351,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -9328,7 +9362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9336,7 +9370,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -9344,7 +9378,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -9352,7 +9386,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -9371,7 +9405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9382,7 +9416,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -9397,7 +9431,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -9413,7 +9447,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9440,7 +9474,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9454,7 +9488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -9470,7 +9504,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -9507,7 +9541,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -9515,7 +9549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -9538,7 +9572,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9595,17 +9629,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -9640,7 +9674,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>243</v>
       </c>
@@ -9649,7 +9683,7 @@
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
@@ -9658,7 +9692,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
@@ -9667,7 +9701,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>313</v>
       </c>
@@ -9689,20 +9723,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9770,7 +9804,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9814,7 +9848,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9830,7 +9864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -9848,7 +9882,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9856,7 +9890,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9864,7 +9898,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -9901,37 +9935,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10014,7 +10048,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10055,7 +10089,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10071,7 +10105,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -10083,7 +10117,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10101,7 +10135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10110,7 +10144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -10122,7 +10156,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10148,7 +10182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10159,7 +10193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10173,7 +10207,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE2128-8FDC-4B87-A45D-63A62E37D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16782517-83DE-4A2B-B77C-6D1AB345F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="538">
   <si>
     <t>UserName</t>
   </si>
@@ -1671,14 +1671,17 @@
   <si>
     <t>24 oz Travel Tumbler - Black</t>
   </si>
+  <si>
+    <t>Account Information,Address Book,My Orders,Gift Cards,My Wishlist,My Out of Stock Subscriptions,Stored Payment Methods,My Newsletter Subscriptions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1865,7 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1895,7 +1898,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2210,34 +2213,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="18" width="30.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2441,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -2493,7 +2496,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>517</v>
       </c>
@@ -2548,7 +2551,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>360</v>
       </c>
@@ -2590,7 +2593,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -2645,7 +2648,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2701,7 +2704,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>445</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>284</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>340</v>
       </c>
@@ -3249,7 +3252,7 @@
       </c>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>347</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>349</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>354</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>364</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>433</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>434</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>153</v>
       </c>
@@ -3405,7 +3408,7 @@
       </c>
       <c r="AE49" s="35"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>449</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>513</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>524</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>533</v>
       </c>
@@ -3496,18 +3499,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3652,7 +3655,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3702,7 +3705,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3749,7 +3752,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3777,7 +3780,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3788,7 +3791,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3977,7 +3980,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -4035,12 +4038,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4158,7 +4161,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4246,20 +4249,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4396,7 +4399,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4675,7 +4678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4713,7 +4716,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4779,23 +4782,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEBDD4E-15C0-4517-B53D-FC4E89764F23}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4821,12 +4824,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>479</v>
@@ -4844,12 +4847,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>537</v>
       </c>
       <c r="G3" t="s">
         <v>328</v>
@@ -4875,16 +4878,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4898,7 +4901,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4924,27 +4927,27 @@
       <selection activeCell="I18" activeCellId="1" sqref="J20 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" customWidth="1"/>
-    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.109375" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>228</v>
       </c>
@@ -5028,7 +5031,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>230</v>
       </c>
@@ -5057,7 +5060,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
@@ -5082,7 +5085,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>233</v>
       </c>
@@ -5109,7 +5112,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>236</v>
       </c>
@@ -5142,7 +5145,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>238</v>
       </c>
@@ -5167,7 +5170,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5192,7 +5195,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>281</v>
       </c>
@@ -5217,7 +5220,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>286</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>319</v>
       </c>
@@ -5269,7 +5272,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5296,7 +5299,7 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>322</v>
       </c>
@@ -5321,7 +5324,7 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>324</v>
       </c>
@@ -5346,7 +5349,7 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>335</v>
       </c>
@@ -5371,7 +5374,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>338</v>
       </c>
@@ -5396,7 +5399,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>451</v>
       </c>
@@ -5404,7 +5407,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>452</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>453</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>531</v>
       </c>
@@ -5442,31 +5445,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="24" width="30.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="27" width="22.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="24" width="30.5703125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="27" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5688,7 +5691,7 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -5758,7 +5761,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>458</v>
       </c>
@@ -5828,7 +5831,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>459</v>
       </c>
@@ -5898,7 +5901,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -5968,7 +5971,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -6038,7 +6041,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>469</v>
       </c>
@@ -6079,7 +6082,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -6120,7 +6123,7 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>464</v>
       </c>
@@ -6190,7 +6193,7 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
@@ -6251,7 +6254,7 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6310,7 +6313,7 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -6356,7 +6359,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6379,7 +6382,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6421,7 +6424,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6432,7 +6435,7 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>367</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>398</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>381</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>402</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>406</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>412</v>
       </c>
@@ -6650,7 +6653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>413</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>404</v>
       </c>
@@ -6708,7 +6711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>391</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>424</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>396</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6848,7 +6851,7 @@
       <c r="AI44" s="27"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>415</v>
       </c>
@@ -6861,7 +6864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -6881,7 +6884,7 @@
       <c r="AI46" s="27"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -7117,7 +7120,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7213,7 +7216,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7283,7 +7286,7 @@
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>344</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>354</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -7453,36 +7456,36 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7694,7 +7697,7 @@
       <c r="AR2" s="22"/>
       <c r="AS2" s="22"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7751,7 +7754,7 @@
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>248</v>
       </c>
@@ -7804,7 +7807,7 @@
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
@@ -7867,7 +7870,7 @@
       <c r="AR5" s="22"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
@@ -7946,7 +7949,7 @@
       <c r="AR6" s="22"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
@@ -8118,7 +8121,7 @@
       <c r="AR8" s="22"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
@@ -8203,7 +8206,7 @@
       <c r="AR9" s="22"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>40</v>
       </c>
@@ -8254,7 +8257,7 @@
       <c r="AR10" s="22"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -8311,7 +8314,7 @@
       <c r="AR11" s="22"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
@@ -8386,7 +8389,7 @@
       <c r="AR12" s="22"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -8449,7 +8452,7 @@
       <c r="AR13" s="22"/>
       <c r="AS13" s="22"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>249</v>
       </c>
@@ -8504,7 +8507,7 @@
       <c r="AR14" s="22"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>119</v>
       </c>
@@ -8561,7 +8564,7 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>121</v>
       </c>
@@ -8616,7 +8619,7 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>219</v>
       </c>
@@ -8671,7 +8674,7 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>154</v>
       </c>
@@ -8763,13 +8766,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8876,25 +8879,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -9081,7 +9084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -9113,7 +9116,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -9139,25 +9142,25 @@
       <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9290,7 +9293,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9306,7 +9309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -9338,7 +9341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9370,7 +9373,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -9386,7 +9389,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -9431,7 +9434,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9474,7 +9477,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -9488,7 +9491,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9629,17 +9632,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -9674,7 +9677,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>243</v>
       </c>
@@ -9683,7 +9686,7 @@
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>245</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>247</v>
       </c>
@@ -9701,7 +9704,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>313</v>
       </c>
@@ -9723,20 +9726,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9848,7 +9851,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -9882,7 +9885,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9898,7 +9901,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -9935,37 +9938,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10089,7 +10092,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10105,7 +10108,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -10117,7 +10120,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10193,7 +10196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10207,7 +10210,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16782517-83DE-4A2B-B77C-6D1AB345F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E5C223-B2D8-402A-A583-042CE71D3AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -926,9 +926,6 @@
     <t>77076-1943</t>
   </si>
   <si>
-    <t>7867898789</t>
-  </si>
-  <si>
     <t>lorem ipsum dolor sit amet, consectetur adipiscing elit. Aliquam ullamcorper vehicula porta. Praesent sed nisl ante. Morbi ut efficitur metus, a consectetur neque. Ut ac hendrerit felis, vel vehicula tellus. Proin faucibus eget nulla euismod cursus. Maecenas quis est enim. Quisque dignissim arcu in magna finibus sodales. Aenean augue ante, vestibulum ac mattis sit amet, luctus ac erat. Phasellus nec felis dolor. Quisque congue dolor vel gravida aliquet. Nunc placerat sed nisl vitae consequat. Cras sed augue ac neque rutrum aliquam quis venenatis ipsum. Quisque lobortis, diam quis sollicitudin dignissim, tellus massa interdum lorem, vitae laoreet erat risus nec purus.</t>
   </si>
   <si>
@@ -1674,14 +1671,17 @@
   <si>
     <t>Account Information,Address Book,My Orders,Gift Cards,My Wishlist,My Out of Stock Subscriptions,Stored Payment Methods,My Newsletter Subscriptions</t>
   </si>
+  <si>
+    <t>Giftcard_Partial_5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1868,7 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1882,10 +1882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1898,7 +1894,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1930,6 +1926,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2211,36 +2209,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV53"/>
+  <dimension ref="A1:AV54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC53" sqref="AC53"/>
+    <sheetView topLeftCell="I40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2272,28 +2270,28 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -2359,7 +2357,7 @@
         <v>165</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>185</v>
@@ -2376,25 +2374,25 @@
       <c r="AS1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AT1" s="43" t="s">
-        <v>534</v>
+      <c r="AT1" s="41" t="s">
+        <v>533</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2409,10 +2407,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2424,16 +2422,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" t="s">
+        <v>520</v>
+      </c>
+      <c r="T2" t="s">
+        <v>518</v>
+      </c>
+      <c r="V2" t="s">
         <v>521</v>
       </c>
-      <c r="T2" t="s">
-        <v>519</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>59</v>
@@ -2441,15 +2439,15 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2464,10 +2462,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2479,16 +2477,16 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" t="s">
+        <v>485</v>
+      </c>
+      <c r="T3" t="s">
         <v>486</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>487</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>59</v>
@@ -2496,15 +2494,15 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2519,10 +2517,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2534,16 +2532,16 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="T4" t="s">
         <v>518</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>487</v>
+      </c>
+      <c r="W4" t="s">
         <v>519</v>
-      </c>
-      <c r="V4" t="s">
-        <v>488</v>
-      </c>
-      <c r="W4" t="s">
-        <v>520</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>59</v>
@@ -2551,15 +2549,15 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2574,10 +2572,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2593,15 +2591,15 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -2616,10 +2614,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2631,16 +2629,16 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" t="s">
+        <v>485</v>
+      </c>
+      <c r="T6" t="s">
         <v>486</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>487</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>59</v>
@@ -2648,7 +2646,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2658,13 +2656,13 @@
         <v>23</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB7">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -2673,26 +2671,26 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="7"/>
       <c r="AS8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="Z9" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA9" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="AB9">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2704,20 +2702,20 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>485</v>
+      <c r="J11" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="4"/>
-      <c r="AD11" s="34">
+      <c r="AD11" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2736,7 +2734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -2745,27 +2743,27 @@
       <c r="AC13" t="s">
         <v>171</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AD13" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="AC14" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD14" s="34">
+        <v>311</v>
+      </c>
+      <c r="AD14" s="32">
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG14" t="s">
         <v>190</v>
@@ -2774,24 +2772,24 @@
         <v>1</v>
       </c>
       <c r="AV14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="AC15" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="36" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AC15" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="34" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -2810,7 +2808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2834,7 +2832,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2855,10 +2853,10 @@
       </c>
       <c r="I19" s="2"/>
       <c r="AL19" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2881,13 +2879,13 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="AI21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AJ21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2895,13 +2893,13 @@
         <v>45</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB22">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2932,13 +2930,13 @@
         <v>47</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB23">
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2946,13 +2944,13 @@
         <v>49</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB24">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2985,7 +2983,7 @@
         <v>23</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB25">
         <v>123</v>
@@ -2994,7 +2992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3008,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3019,25 +3017,25 @@
         <v>15</v>
       </c>
       <c r="S27" t="s">
+        <v>501</v>
+      </c>
+      <c r="T27" t="s">
+        <v>503</v>
+      </c>
+      <c r="U27" t="s">
+        <v>491</v>
+      </c>
+      <c r="V27" t="s">
         <v>502</v>
       </c>
-      <c r="T27" t="s">
+      <c r="W27" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="U27" t="s">
-        <v>492</v>
-      </c>
-      <c r="V27" t="s">
-        <v>503</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3048,22 +3046,22 @@
         <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I29" s="2"/>
       <c r="W29" s="5"/>
@@ -3071,7 +3069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3082,44 +3080,44 @@
         <v>15</v>
       </c>
       <c r="S30" t="s">
+        <v>501</v>
+      </c>
+      <c r="T30" t="s">
+        <v>503</v>
+      </c>
+      <c r="U30" t="s">
+        <v>491</v>
+      </c>
+      <c r="V30" t="s">
         <v>502</v>
       </c>
-      <c r="T30" t="s">
+      <c r="W30" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="U30" t="s">
-        <v>492</v>
-      </c>
-      <c r="V30" t="s">
-        <v>503</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
       <c r="AL31" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
       <c r="AM32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3140,29 +3138,29 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" t="s">
+        <v>501</v>
+      </c>
+      <c r="T33" t="s">
+        <v>503</v>
+      </c>
+      <c r="U33" t="s">
+        <v>491</v>
+      </c>
+      <c r="V33" t="s">
         <v>502</v>
       </c>
-      <c r="T33" t="s">
+      <c r="W33" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="U33" t="s">
-        <v>492</v>
-      </c>
-      <c r="V33" t="s">
-        <v>503</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="12"/>
@@ -3173,7 +3171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>284</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3212,7 +3210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -3229,94 +3227,94 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="O39" t="s">
-        <v>342</v>
-      </c>
-      <c r="P39" s="28" t="s">
-        <v>507</v>
+        <v>341</v>
+      </c>
+      <c r="P39" s="26" t="s">
+        <v>506</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>347</v>
-      </c>
       <c r="L41" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="N41" s="26" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="N41" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO42" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P43" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>201</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S44" t="s">
         <v>62</v>
@@ -3334,110 +3332,118 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>363</v>
+      </c>
+      <c r="P45" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="P45" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>432</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>433</v>
       </c>
-      <c r="P46" s="29" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>434</v>
-      </c>
-      <c r="P47" s="28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="P47" s="26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
       <c r="AT48" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU48" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD49" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="33"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>448</v>
+      </c>
+      <c r="P50" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>512</v>
+      </c>
+      <c r="P51" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>523</v>
+      </c>
+      <c r="S52" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC53" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="AU48" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD49" s="35">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="35"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>449</v>
-      </c>
-      <c r="P50" s="28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>513</v>
-      </c>
-      <c r="P51" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>524</v>
-      </c>
-      <c r="S52" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC53" s="12" t="s">
-        <v>536</v>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>537</v>
+      </c>
+      <c r="P54" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3499,18 +3505,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3608,15 +3614,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3631,10 +3637,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -3655,15 +3661,15 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3678,10 +3684,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
@@ -3705,15 +3711,15 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -3728,10 +3734,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
@@ -3752,7 +3758,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3780,7 +3786,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3791,7 +3797,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>120</v>
       </c>
       <c r="W8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X8" t="s">
         <v>39</v>
@@ -3813,7 +3819,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" t="s">
@@ -3928,7 +3934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3980,7 +3986,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -4038,12 +4044,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4114,15 +4120,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4137,10 +4143,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4161,7 +4167,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4177,15 +4183,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -4208,7 +4214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4216,7 +4222,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4249,20 +4255,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4351,15 +4357,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -4374,10 +4380,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
@@ -4399,7 +4405,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4435,13 +4441,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>221</v>
       </c>
       <c r="H5" s="2"/>
       <c r="U5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>120</v>
@@ -4451,10 +4457,10 @@
         <v>83</v>
       </c>
       <c r="AA5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4557,18 +4563,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X13" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4593,10 +4599,10 @@
         <v>39</v>
       </c>
       <c r="AB15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4664,7 +4670,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4686,12 +4692,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>277</v>
@@ -4716,7 +4722,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4782,23 +4788,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEBDD4E-15C0-4517-B53D-FC4E89764F23}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4824,15 +4830,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
@@ -4847,15 +4853,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4878,16 +4884,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4901,14 +4907,14 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>261</v>
       </c>
       <c r="D2" s="9"/>
@@ -4927,508 +4933,508 @@
       <selection activeCell="I18" activeCellId="1" sqref="J20 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" customWidth="1"/>
+    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21" t="s">
+      <c r="H12" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="O6" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>530</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="C18" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="J20" t="s">
         <v>531</v>
-      </c>
-      <c r="J20" t="s">
-        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5445,31 +5451,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" customWidth="1"/>
-    <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="24" width="30.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="27" width="22.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5489,13 +5495,13 @@
         <v>218</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>188</v>
@@ -5522,25 +5528,25 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>6</v>
@@ -5606,7 +5612,7 @@
         <v>165</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>185</v>
@@ -5621,38 +5627,38 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H2" t="s">
         <v>418</v>
-      </c>
-      <c r="H2" t="s">
-        <v>419</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
+        <v>425</v>
+      </c>
+      <c r="N2" t="s">
         <v>426</v>
-      </c>
-      <c r="N2" t="s">
-        <v>427</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>270</v>
@@ -5661,7 +5667,7 @@
         <v>274</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -5691,12 +5697,12 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>274</v>
@@ -5709,29 +5715,29 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H3" t="s">
         <v>418</v>
-      </c>
-      <c r="H3" t="s">
-        <v>419</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N3" t="s">
         <v>426</v>
       </c>
-      <c r="N3" t="s">
-        <v>427</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -5761,12 +5767,12 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>274</v>
@@ -5779,29 +5785,29 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" t="s">
         <v>418</v>
-      </c>
-      <c r="H4" t="s">
-        <v>419</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
+        <v>425</v>
+      </c>
+      <c r="N4" t="s">
         <v>426</v>
       </c>
-      <c r="N4" t="s">
-        <v>427</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -5831,12 +5837,12 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>274</v>
@@ -5849,29 +5855,29 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" t="s">
         <v>418</v>
-      </c>
-      <c r="H5" t="s">
-        <v>419</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
+        <v>425</v>
+      </c>
+      <c r="N5" t="s">
         <v>426</v>
       </c>
-      <c r="N5" t="s">
-        <v>427</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -5901,12 +5907,12 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>274</v>
@@ -5919,29 +5925,29 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H6" t="s">
         <v>418</v>
-      </c>
-      <c r="H6" t="s">
-        <v>419</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
+        <v>425</v>
+      </c>
+      <c r="N6" t="s">
         <v>426</v>
       </c>
-      <c r="N6" t="s">
-        <v>427</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -5971,12 +5977,12 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>274</v>
@@ -5989,29 +5995,29 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" t="s">
         <v>418</v>
-      </c>
-      <c r="H7" t="s">
-        <v>419</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" t="s">
+        <v>425</v>
+      </c>
+      <c r="N7" t="s">
         <v>426</v>
       </c>
-      <c r="N7" t="s">
-        <v>427</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -6041,12 +6047,12 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -6061,10 +6067,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N8" t="s">
         <v>426</v>
-      </c>
-      <c r="N8" t="s">
-        <v>427</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -6082,12 +6088,12 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -6102,10 +6108,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
+        <v>425</v>
+      </c>
+      <c r="N9" t="s">
         <v>426</v>
-      </c>
-      <c r="N9" t="s">
-        <v>427</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -6123,12 +6129,12 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>274</v>
@@ -6141,29 +6147,29 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H10" t="s">
         <v>418</v>
-      </c>
-      <c r="H10" t="s">
-        <v>419</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" t="s">
+        <v>425</v>
+      </c>
+      <c r="N10" t="s">
         <v>426</v>
       </c>
-      <c r="N10" t="s">
-        <v>427</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>274</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -6193,9 +6199,9 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>270</v>
@@ -6217,10 +6223,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
+        <v>425</v>
+      </c>
+      <c r="N11" t="s">
         <v>426</v>
-      </c>
-      <c r="N11" t="s">
-        <v>427</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>270</v>
@@ -6237,16 +6243,16 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z11" t="s">
         <v>408</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>409</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>59</v>
@@ -6254,15 +6260,15 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -6284,7 +6290,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -6313,15 +6319,15 @@
       <c r="AF12" s="5"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -6343,7 +6349,7 @@
         <v>15</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -6359,7 +6365,7 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6382,9 +6388,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6396,16 +6402,16 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="AF15" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG15" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="AH15">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6424,7 +6430,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6435,20 +6441,20 @@
       <c r="AD17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="AI18" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>120</v>
       </c>
       <c r="AK18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL18" t="s">
         <v>39</v>
@@ -6457,92 +6463,92 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="AI19" s="27" t="s">
-        <v>368</v>
+      <c r="AI19" s="25" t="s">
+        <v>367</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="AI20" s="27" t="s">
-        <v>370</v>
+      <c r="AI20" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="AI21" s="27" t="s">
-        <v>372</v>
+      <c r="AI21" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="AJ21" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="AI22" s="27" t="s">
-        <v>373</v>
+      <c r="AI22" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="AJ22" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="AI23" s="27" t="s">
-        <v>373</v>
+      <c r="AI23" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="AJ23" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="AI24" s="27" t="s">
-        <v>378</v>
+      <c r="AI24" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="AI25" s="27" t="s">
-        <v>370</v>
+      <c r="AI25" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>120</v>
@@ -6551,33 +6557,33 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="AI26" s="27" t="s">
-        <v>378</v>
+      <c r="AI26" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="AJ26" s="5" t="s">
         <v>120</v>
       </c>
       <c r="AL26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="AI27" s="27" t="s">
-        <v>339</v>
+      <c r="AI27" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="AJ27" s="5" t="s">
         <v>120</v>
@@ -6586,17 +6592,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="AI28" s="27" t="s">
-        <v>339</v>
+      <c r="AI28" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>113</v>
@@ -6605,46 +6611,46 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="AI29" s="27" t="s">
-        <v>384</v>
+      <c r="AI29" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="AJ29" s="5" t="s">
         <v>120</v>
       </c>
       <c r="AL29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>386</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="AI30" s="27" t="s">
-        <v>384</v>
+      <c r="AI30" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>113</v>
       </c>
       <c r="AL30" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="AI31" s="27" t="s">
-        <v>384</v>
+      <c r="AI31" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="AJ31" s="5" t="s">
         <v>113</v>
@@ -6653,187 +6659,187 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="AI32" s="27" t="s">
-        <v>384</v>
+      <c r="AI32" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="AJ32" s="5" t="s">
         <v>113</v>
       </c>
       <c r="AL32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="AI33" s="27" t="s">
-        <v>370</v>
+      <c r="AI33" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="AJ33" s="5" t="s">
         <v>113</v>
       </c>
       <c r="AL33" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="AI34" s="27" t="s">
-        <v>389</v>
+      <c r="AI34" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="AI35" s="27" t="s">
-        <v>389</v>
+      <c r="AI35" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="AI36" s="27" t="s">
-        <v>393</v>
+      <c r="AI36" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="AI37" s="27" t="s">
-        <v>393</v>
+      <c r="AI37" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="AJ37" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="AI38" s="27" t="s">
-        <v>393</v>
+      <c r="AI38" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="AJ38" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="AI39" s="27" t="s">
-        <v>394</v>
+      <c r="AI39" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="AI40" s="27" t="s">
-        <v>394</v>
+      <c r="AI40" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="AI41" s="27" t="s">
+      <c r="AI41" s="25" t="s">
         <v>177</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL41" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="AI42" s="27" t="s">
+      <c r="AI42" s="25" t="s">
         <v>257</v>
       </c>
       <c r="AJ42" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
+        <v>417</v>
+      </c>
+      <c r="H43" t="s">
         <v>418</v>
       </c>
-      <c r="H43" t="s">
-        <v>419</v>
-      </c>
       <c r="I43" t="s">
+        <v>420</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="O43" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:41" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6848,28 +6854,28 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="AI44" s="27"/>
+      <c r="AI44" s="25"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="AI45" s="27"/>
+      <c r="AI45" s="25"/>
       <c r="AJ45" s="5"/>
       <c r="AO45">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>217</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -6881,10 +6887,10 @@
       <c r="L46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="AI46" s="27"/>
+      <c r="AI46" s="25"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -6903,7 +6909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6916,7 +6922,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -6963,7 +6969,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6977,7 +6983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -7008,13 +7014,13 @@
         <v>47</v>
       </c>
       <c r="AG53" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AH53">
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -7028,7 +7034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7070,7 +7076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -7120,7 +7126,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -7144,7 +7150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7170,7 +7176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -7202,7 +7208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>284</v>
       </c>
@@ -7216,9 +7222,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M62" t="s">
         <v>35</v>
@@ -7227,10 +7233,10 @@
         <v>67</v>
       </c>
       <c r="AU62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7264,90 +7270,90 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S65" s="5"/>
       <c r="U65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X66" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>347</v>
-      </c>
       <c r="S67" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="T67" s="26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="T67" s="24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
+        <v>349</v>
+      </c>
+      <c r="O68" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="O68" s="12" t="s">
+      <c r="AU68" t="s">
         <v>351</v>
       </c>
-      <c r="AU68" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V69" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y70" t="s">
         <v>62</v>
@@ -7365,12 +7371,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>363</v>
+      </c>
+      <c r="V71" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="V71" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7456,194 +7462,194 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AG1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AH1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AM1" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="AN1" s="41" t="s">
+      <c r="AN1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="41" t="s">
+      <c r="AO1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AP1" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR1" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AS1" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="AS1" s="21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="12" t="s">
@@ -7652,226 +7658,226 @@
       <c r="K2" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="20">
         <v>9898989898</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="20">
         <v>2</v>
       </c>
-      <c r="W3" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="X3" s="22" t="s">
+      <c r="W3" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="X3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="V4" s="22">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="V4" s="20">
         <v>1</v>
       </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="20">
         <v>12</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>99999</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -7883,151 +7889,151 @@
       <c r="D6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="20" t="s">
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22" t="s">
+      <c r="N6" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="P6" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="Q6" s="20">
+        <v>9898989898</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="P6" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q6" s="22">
+      <c r="O7" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q7" s="20">
         <v>9898989898</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC6" s="42">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>9898989898</v>
-      </c>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22" t="s">
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22">
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20">
         <v>10</v>
       </c>
-      <c r="AD7" s="22" t="s">
+      <c r="AD7" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AE7" s="20" t="s">
         <v>86</v>
       </c>
       <c r="AF7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AG7" s="22" t="s">
+      <c r="AG7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="AH7" s="22" t="s">
+      <c r="AH7" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
       <c r="AQ7" s="11">
         <v>16</v>
       </c>
@@ -8035,321 +8041,321 @@
         <v>2024</v>
       </c>
       <c r="AS7" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="22" t="s">
+      <c r="N8" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="O8" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="P8" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O8" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="20">
         <v>9898989898</v>
       </c>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22" t="s">
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22">
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20">
         <v>10</v>
       </c>
-      <c r="AD8" s="22" t="s">
+      <c r="AD8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="20" t="s">
         <v>86</v>
       </c>
       <c r="AF8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AG8" s="22" t="s">
+      <c r="AG8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22" t="s">
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="22" t="s">
+      <c r="N9" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="P9" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O9" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="20">
         <v>9898989898</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22">
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20">
         <v>1</v>
       </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22">
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20">
         <v>10</v>
       </c>
-      <c r="AD9" s="22" t="s">
+      <c r="AD9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="AE9" s="22" t="s">
+      <c r="AE9" s="20" t="s">
         <v>86</v>
       </c>
       <c r="AF9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AG9" s="22" t="s">
+      <c r="AG9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="AH9" s="22" t="s">
+      <c r="AH9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI9" s="22" t="s">
+      <c r="AI9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20">
         <v>0</v>
       </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20">
         <v>43000000229</v>
       </c>
-      <c r="AK11" s="22">
+      <c r="AK11" s="20">
         <v>3000146837</v>
       </c>
-      <c r="AL11" s="22" t="s">
+      <c r="AL11" s="20" t="s">
         <v>15</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
-      <c r="AS11" s="22"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="20" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22" t="s">
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="O12" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="P12" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <v>9898989898</v>
       </c>
       <c r="R12" s="13" t="s">
@@ -8358,372 +8364,372 @@
       <c r="S12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22" t="s">
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22">
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20">
         <v>400002</v>
       </c>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22">
+        <v>500</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20">
         <v>4</v>
       </c>
-      <c r="AO13" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="AP13" s="22" t="s">
+      <c r="AO13" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="AP13" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="22" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22" t="s">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="22" t="s">
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20">
         <v>6492</v>
       </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22" t="s">
+      <c r="V16" s="20"/>
+      <c r="W16" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
-      <c r="AP17" s="22"/>
-      <c r="AQ17" s="22"/>
-      <c r="AR17" s="22"/>
-      <c r="AS17" s="22"/>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
-      <c r="AP18" s="22"/>
-      <c r="AQ18" s="22"/>
-      <c r="AR18" s="22"/>
-      <c r="AS18" s="22"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8766,13 +8772,13 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8849,18 +8855,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="150" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>446</v>
+      <c r="R2" s="38" t="s">
+        <v>445</v>
       </c>
       <c r="S2" t="s">
         <v>260</v>
       </c>
       <c r="T2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -8879,25 +8885,25 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.88671875" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8998,7 +9004,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -9009,7 +9015,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H2" t="s">
         <v>150</v>
@@ -9051,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -9084,7 +9090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H3" t="s">
         <v>150</v>
@@ -9116,7 +9122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -9136,491 +9142,1151 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E29"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="19" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="AE1" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s">
+      <c r="H2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="20">
+        <v>9898989898</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20">
+        <v>4242424242424240</v>
+      </c>
+      <c r="R3" s="42">
+        <v>46113</v>
+      </c>
+      <c r="S3" s="20">
+        <v>123</v>
+      </c>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20">
+        <v>1</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20">
+        <v>1</v>
+      </c>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20">
+        <v>1</v>
+      </c>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="36">
+        <v>1</v>
+      </c>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20">
+        <v>1</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20">
+        <v>1</v>
+      </c>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="Q3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3">
+      <c r="L15" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="O15" s="20">
+        <v>9898989898</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
+        <v>5555555555554440</v>
+      </c>
+      <c r="R16" s="43">
+        <v>45773</v>
+      </c>
+      <c r="S16" s="20">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="T4" t="s">
-        <v>257</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="W4" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="T5" t="s">
-        <v>180</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="T6" t="s">
-        <v>181</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="T10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="T11" t="s">
-        <v>173</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="V11" t="s">
-        <v>173</v>
-      </c>
-      <c r="W11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>170</v>
-      </c>
-      <c r="T12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="Y14" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>490</v>
-      </c>
-      <c r="L15" t="s">
-        <v>491</v>
-      </c>
-      <c r="M15" t="s">
-        <v>492</v>
-      </c>
-      <c r="N15" t="s">
-        <v>493</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" s="17">
-        <v>44677</v>
-      </c>
-      <c r="S16">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="Q17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20">
+        <v>378282246310005</v>
+      </c>
+      <c r="R17" s="42">
+        <v>46113</v>
+      </c>
+      <c r="S17" s="20">
         <v>1234</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>305</v>
+      </c>
+      <c r="C18" s="29"/>
       <c r="D18" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="O18" s="20">
+        <v>7867898789</v>
+      </c>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T20" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="U20" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20">
+        <v>1</v>
+      </c>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>167</v>
       </c>
+      <c r="G21" s="20"/>
       <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="20" t="s">
         <v>64</v>
       </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20">
+        <v>1</v>
+      </c>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="H13" r:id="rId2" xr:uid="{41609F72-01D9-439A-B198-A0BB77F0BDFE}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{5963A3E0-44F3-4018-A698-F2CC6DBAF839}"/>
-    <hyperlink ref="D18" r:id="rId4" xr:uid="{D63B1D2B-59AC-475F-9AA4-5B10C72833C5}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{1CD7C21F-92BC-4A39-8289-1B9344BEC3F8}"/>
-    <hyperlink ref="I2" r:id="rId6" xr:uid="{BFDB0002-8735-44B9-B2D0-F0C931B4A018}"/>
-    <hyperlink ref="E20" r:id="rId7" xr:uid="{ABA3DC4F-E8B4-4D1F-B204-B93AD108A486}"/>
-    <hyperlink ref="D20" r:id="rId8" xr:uid="{6EDC0555-6E59-472F-AAFE-5E96728DC757}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{5099C4EA-85C5-4713-986D-7C5257A64531}"/>
-    <hyperlink ref="B20" r:id="rId10" xr:uid="{23386531-7CDD-4361-B995-1529A84CADC1}"/>
-    <hyperlink ref="H21" r:id="rId11" xr:uid="{0343743D-11F1-4BB2-90B7-7F8177FEA637}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{BE3B65E9-B175-4A45-90DE-885CFA93E580}"/>
-    <hyperlink ref="H18" r:id="rId13" xr:uid="{C28772A4-1B50-467E-9560-6747E4985794}"/>
-    <hyperlink ref="V4" r:id="rId14" display="https://www.hydroflask.com/12-oz-mug?color=Moonshadow" xr:uid="{86B5A3CA-CACB-4B65-88BE-B247E04C47C3}"/>
-    <hyperlink ref="B2" r:id="rId15" xr:uid="{766DBC8A-6361-4324-AECC-58167C055E8C}"/>
-    <hyperlink ref="H2" r:id="rId16" xr:uid="{7B312412-A076-42D1-8421-7B0184A49C7C}"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:spanem@helenoftroy.com" xr:uid="{CC67BCBF-E076-4645-AAE7-B7E656BA65BA}"/>
+    <hyperlink ref="C2" r:id="rId2" display="mailto:spanem@helenoftroy.com" xr:uid="{B9951B2A-1254-4C0B-9A14-C6A846810C91}"/>
+    <hyperlink ref="D2" r:id="rId3" display="mailto:Hydro@123" xr:uid="{74C7B7B6-D379-4E34-A081-A00A70371A86}"/>
+    <hyperlink ref="E2" r:id="rId4" display="mailto:Hydro@123" xr:uid="{1702FA67-6467-4E57-9DE2-FB4C9A48C932}"/>
+    <hyperlink ref="H2" r:id="rId5" display="mailto:spanem@helenoftroy.com" xr:uid="{43710853-757A-4E86-AEEB-F5DD155D60F0}"/>
+    <hyperlink ref="I2" r:id="rId6" display="mailto:spanem@helenoftroy.com" xr:uid="{B3D81E16-7F77-4EDD-A91C-F9F6093FDE1C}"/>
+    <hyperlink ref="X4" r:id="rId7" display="https://www.hydroflask.com/12-oz-mug?color=Moonshadow" xr:uid="{2F702AF3-4F49-47B1-A82E-D55704330159}"/>
+    <hyperlink ref="H13" r:id="rId8" display="mailto:oxobuyer@oxo.com" xr:uid="{F703F13B-8A00-4A75-B16B-BB47D9846FC3}"/>
+    <hyperlink ref="B18" r:id="rId9" display="mailto:hmaram+991@helenoftroy.com" xr:uid="{DFBAB818-5BA3-4627-82C1-2CAC5A38DA29}"/>
+    <hyperlink ref="D18" r:id="rId10" display="mailto:Lotus@123" xr:uid="{28DBD95D-7F24-4CA5-90B6-5D7EE9C211E0}"/>
+    <hyperlink ref="H18" r:id="rId11" display="mailto:hmaram+991@helenoftroy.com" xr:uid="{D33C6A77-1D8A-4989-B011-B3EC18D603BE}"/>
+    <hyperlink ref="B20" r:id="rId12" display="mailto:LotusQA.GLD.PP.HYF.AutoTest2@gmail.com" xr:uid="{5ED567C6-C7C9-409A-B37F-4B27F631F296}"/>
+    <hyperlink ref="C20" r:id="rId13" display="mailto:LotusQA.GLD.PR.HYF.AutoTest7@gmail.com" xr:uid="{ED6C3419-A80F-4A4A-9244-B1858B017A52}"/>
+    <hyperlink ref="D20" r:id="rId14" display="mailto:Lotuswave@123" xr:uid="{13894A42-11B2-43E5-A940-219C069B253B}"/>
+    <hyperlink ref="E20" r:id="rId15" display="mailto:Lotuswave@123" xr:uid="{A59ABD88-352A-4F2F-BE3F-3D7FE2ED8628}"/>
+    <hyperlink ref="H21" r:id="rId16" display="mailto:qatesting.lotuswave@gmail.com" xr:uid="{B7904D5A-78CF-4256-B487-367AA497945A}"/>
+    <hyperlink ref="H24" r:id="rId17" display="mailto:anbogi@helenoftroy.com" xr:uid="{E5E20641-574A-45A3-9813-A9FDD7348D38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -9632,24 +10298,24 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>246</v>
       </c>
       <c r="D1" s="1"/>
@@ -9677,40 +10343,40 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22" t="s">
-        <v>480</v>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -9726,20 +10392,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9801,21 +10467,21 @@
         <v>205</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -9830,7 +10496,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
@@ -9851,7 +10517,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9867,25 +10533,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
       <c r="H4" s="2"/>
       <c r="S4" t="s">
+        <v>498</v>
+      </c>
+      <c r="T4" t="s">
+        <v>498</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="T4" t="s">
-        <v>499</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -9893,7 +10559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9901,21 +10567,21 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
       <c r="S7" t="s">
+        <v>498</v>
+      </c>
+      <c r="T7" t="s">
+        <v>498</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="T7" t="s">
-        <v>499</v>
-      </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="12" t="s">
         <v>500</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -9938,37 +10604,37 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10051,12 +10717,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -10071,7 +10737,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
@@ -10092,7 +10758,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10108,7 +10774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -10120,7 +10786,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10138,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10147,7 +10813,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -10159,7 +10825,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -10185,7 +10851,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -10196,7 +10862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10210,7 +10876,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>

--- a/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
+++ b/src/test/resources/TestData/Hydroflask_EMEA/GoldHydroEMEA_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E5C223-B2D8-402A-A583-042CE71D3AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3510F04D-FDEB-4503-AFC2-C4F4D58862F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1666,13 +1666,13 @@
     <t>Caps &amp; Lids</t>
   </si>
   <si>
-    <t>24 oz Travel Tumbler - Black</t>
-  </si>
-  <si>
     <t>Account Information,Address Book,My Orders,Gift Cards,My Wishlist,My Out of Stock Subscriptions,Stored Payment Methods,My Newsletter Subscriptions</t>
   </si>
   <si>
     <t>Giftcard_Partial_5</t>
+  </si>
+  <si>
+    <t>Small Trail Series™ Boot</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1680,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1868,7 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1894,7 +1894,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2211,34 +2211,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV54"/>
   <sheetViews>
-    <sheetView topLeftCell="I40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="P40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="18" width="30.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="18" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>297</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>444</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>284</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>215</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>343</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>346</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>348</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>353</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>363</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>432</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>433</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>153</v>
       </c>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="AE49" s="33"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>512</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>523</v>
       </c>
@@ -3430,17 +3430,17 @@
         <v>524</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>532</v>
       </c>
-      <c r="AC53" s="12" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC53" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P54" t="s">
         <v>511</v>
@@ -3490,10 +3490,9 @@
     <hyperlink ref="I5" r:id="rId40" xr:uid="{92993A7C-001C-4FE6-9125-B4B00E04A753}"/>
     <hyperlink ref="H28" r:id="rId41" xr:uid="{22165C55-D8F7-4059-A2E1-F084718509FB}"/>
     <hyperlink ref="I28" r:id="rId42" xr:uid="{42C11063-5B1A-455C-98C2-65B906145796}"/>
-    <hyperlink ref="AC53" r:id="rId43" display="https://mcloud-na-stage4.hydroflask.com/gb/hydroflask-24-oz-travel-tumbler-black" xr:uid="{641B22C5-1E50-466C-8002-3D1A661FD7B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -3505,18 +3504,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3661,7 +3660,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -3711,7 +3710,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -3758,7 +3757,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3786,7 +3785,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3797,7 +3796,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3986,7 +3985,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -4044,12 +4043,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4167,7 +4166,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -4255,20 +4254,20 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4405,7 +4404,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4692,7 +4691,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4722,7 +4721,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4792,19 +4791,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="158.6640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4853,12 +4852,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G3" t="s">
         <v>327</v>
@@ -4884,16 +4883,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4907,7 +4906,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4933,27 +4932,27 @@
       <selection activeCell="I18" activeCellId="1" sqref="J20 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
     <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" customWidth="1"/>
-    <col min="9" max="9" width="77.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.109375" customWidth="1"/>
+    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>228</v>
       </c>
@@ -5037,7 +5036,7 @@
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>230</v>
       </c>
@@ -5066,7 +5065,7 @@
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>232</v>
       </c>
@@ -5091,7 +5090,7 @@
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>233</v>
       </c>
@@ -5118,7 +5117,7 @@
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>236</v>
       </c>
@@ -5151,7 +5150,7 @@
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>238</v>
       </c>
@@ -5176,7 +5175,7 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>262</v>
       </c>
@@ -5201,7 +5200,7 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>281</v>
       </c>
@@ -5226,7 +5225,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>286</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>318</v>
       </c>
@@ -5278,7 +5277,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
     </row>
-    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>320</v>
       </c>
@@ -5305,7 +5304,7 @@
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>321</v>
       </c>
@@ -5330,7 +5329,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>323</v>
       </c>
@@ -5355,7 +5354,7 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>334</v>
       </c>
@@ -5380,7 +5379,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>337</v>
       </c>
@@ -5405,7 +5404,7 @@
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>450</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>451</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>452</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>530</v>
       </c>
@@ -5451,31 +5450,31 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6